--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23478" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5563AF0E-813B-47CE-97F8-A622F1D167FC}"/>
+  <xr:revisionPtr revIDLastSave="23502" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6629BF02-73CE-4BC1-B06C-CC7C97A57F48}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8196" yWindow="5796" windowWidth="17280" windowHeight="8880" firstSheet="11" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="638">
   <si>
     <t>ROUND</t>
   </si>
@@ -1957,6 +1957,9 @@
   </si>
   <si>
     <t>6-2 4-6 7-5</t>
+  </si>
+  <si>
+    <t>Matteo Arnaldi (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2247,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2881,7 +2884,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.89473684210526316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5627,15 +5630,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" activeCellId="3" sqref="E2:E4 E7:E8 E11:E15 E17:E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" activeCellId="4" sqref="E2:E4 E7:E8 E11:E15 E17:E20 E22:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
@@ -5909,6 +5912,82 @@
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>467</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22" t="s">
+        <v>637</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" t="s">
+        <v>539</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D25" t="s">
+        <v>389</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>407</v>
+      </c>
+      <c r="D26" t="s">
+        <v>439</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5924,8 +6003,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6174,20 +6253,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>0.89473684210526316</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6196,15 +6275,15 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
@@ -6212,7 +6291,7 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.56851311953352768</v>
+        <v>0.57471264367816088</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6221,15 +6300,15 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>14.909090909090908</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
-        <v>1.6363636363636365</v>
+        <v>1.7272727272727273</v>
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>31.181818181818183</v>
+        <v>31.636363636363637</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
@@ -6237,7 +6316,7 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.56851311953352768</v>
+        <v>0.57471264367816088</v>
       </c>
     </row>
   </sheetData>
@@ -10384,8 +10463,8 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:B51"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23502" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6629BF02-73CE-4BC1-B06C-CC7C97A57F48}"/>
+  <xr:revisionPtr revIDLastSave="23562" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF4A1665-98E8-4FF0-A09E-D3387955D1FB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="646">
   <si>
     <t>ROUND</t>
   </si>
@@ -1960,13 +1960,37 @@
   </si>
   <si>
     <t>Matteo Arnaldi (ITALY)</t>
+  </si>
+  <si>
+    <t>Brandon Nakashima (USA)</t>
+  </si>
+  <si>
+    <t>6-2 3-6 6-1</t>
+  </si>
+  <si>
+    <t>6-7(5) 7-6(5) 7-5</t>
+  </si>
+  <si>
+    <t>7-5 7-6(4)</t>
+  </si>
+  <si>
+    <t>Alex Molčan (SLOVAKIA)</t>
+  </si>
+  <si>
+    <t>WALKOVER</t>
+  </si>
+  <si>
+    <t>Quentin Halys (FRANCE)</t>
+  </si>
+  <si>
+    <t>Christopher Eubanks (USA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2002,8 +2026,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2020,6 +2051,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2030,12 +2066,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2044,10 +2081,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2247,7 +2286,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2361,7 +2400,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,7 +2923,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.89473684210526316</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4636,8 +4675,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E78" activeCellId="17" sqref="E8 E13 E16 E21 E23 E28 E33 E39 E42 E49 E54 E59 E61 E66 E74 E76 E77 E78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5630,10 +5669,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" activeCellId="4" sqref="E2:E4 E7:E8 E11:E15 E17:E20 E22:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5990,6 +6029,172 @@
         <v>20</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>470</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" t="s">
+        <v>638</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>337</v>
+      </c>
+      <c r="D29" t="s">
+        <v>346</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" t="s">
+        <v>424</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" t="s">
+        <v>449</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" t="s">
+        <v>575</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>407</v>
+      </c>
+      <c r="D33" t="s">
+        <v>604</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>528</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>395</v>
+      </c>
+      <c r="D35" t="s">
+        <v>597</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>337</v>
+      </c>
+      <c r="D36" t="s">
+        <v>642</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>338</v>
+      </c>
+      <c r="D37" t="s">
+        <v>644</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38" t="s">
+        <v>645</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>343</v>
+      </c>
+      <c r="D39" t="s">
+        <v>388</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -6004,7 +6209,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6253,20 +6458,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.89473684210526316</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6275,7 +6480,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6283,15 +6488,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.57471264367816088</v>
+        <v>0.57790368271954673</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6300,7 +6505,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15</v>
+        <v>15.090909090909092</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6308,15 +6513,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>31.636363636363637</v>
+        <v>32.090909090909093</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>13.454545454545455</v>
+        <v>13.545454545454545</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.57471264367816088</v>
+        <v>0.57790368271954673</v>
       </c>
     </row>
   </sheetData>
@@ -12346,8 +12551,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23562" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF4A1665-98E8-4FF0-A09E-D3387955D1FB}"/>
+  <xr:revisionPtr revIDLastSave="23569" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C160B34-898E-4AFB-B2C6-68ACD9CFA48A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="646">
   <si>
     <t>ROUND</t>
   </si>
@@ -2286,7 +2286,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2923,7 +2923,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.875</c:v>
+                  <c:v>0.89655172413793105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5669,10 +5669,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" activeCellId="2" sqref="E5 E9 E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6195,6 +6195,20 @@
         <v>167</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>407</v>
+      </c>
+      <c r="D40" t="s">
+        <v>588</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -6208,8 +6222,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6458,20 +6472,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.875</v>
+        <v>0.89655172413793105</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6480,15 +6494,15 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
@@ -6496,7 +6510,7 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.57790368271954673</v>
+        <v>0.58379888268156421</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6505,15 +6519,15 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.090909090909092</v>
+        <v>15.181818181818182</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
-        <v>1.7272727272727273</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>32.090909090909093</v>
+        <v>32.545454545454547</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
@@ -6521,7 +6535,7 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.57790368271954673</v>
+        <v>0.58379888268156421</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23569" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C160B34-898E-4AFB-B2C6-68ACD9CFA48A}"/>
+  <xr:revisionPtr revIDLastSave="23582" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E511F35-1098-4A6E-A970-87A3531415E7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="648">
   <si>
     <t>ROUND</t>
   </si>
@@ -1984,6 +1984,12 @@
   </si>
   <si>
     <t>Christopher Eubanks (USA)</t>
+  </si>
+  <si>
+    <t>Holger Rune (DENMARK)</t>
+  </si>
+  <si>
+    <t>3-6 7-5 7-6(7)</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2292,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2400,7 +2406,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2923,7 +2929,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.89655172413793105</c:v>
+                  <c:v>0.87096774193548387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4675,7 +4681,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -5669,10 +5675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" activeCellId="2" sqref="E5 E9 E33"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E44" activeCellId="3" sqref="E5 E9 E33 E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6209,6 +6215,54 @@
         <v>30</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>350</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>337</v>
+      </c>
+      <c r="D42" t="s">
+        <v>385</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>338</v>
+      </c>
+      <c r="D43" t="s">
+        <v>424</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>342</v>
+      </c>
+      <c r="D44" t="s">
+        <v>646</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -6223,7 +6277,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6472,20 +6526,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.89655172413793105</v>
+        <v>0.87096774193548387</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6494,7 +6548,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6502,15 +6556,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58379888268156421</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6519,7 +6573,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.181818181818182</v>
+        <v>15.272727272727273</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6527,15 +6581,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>32.545454545454547</v>
+        <v>32.727272727272727</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>13.545454545454545</v>
+        <v>13.636363636363637</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.58379888268156421</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -10682,8 +10736,8 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11990,7 +12044,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
@@ -12565,7 +12619,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23582" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E511F35-1098-4A6E-A970-87A3531415E7}"/>
+  <xr:revisionPtr revIDLastSave="23661" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D386D9C6-88B4-429F-B233-FE3785A3BD15}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="626">
   <si>
     <t>ROUND</t>
   </si>
@@ -285,21 +285,12 @@
     <t>7-6(5) 4-6 6-3</t>
   </si>
   <si>
-    <t>Moscow</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
     <t>KREMLIN CUP</t>
   </si>
   <si>
     <t>Victor Baluda (RUSSIA)</t>
   </si>
   <si>
-    <t>Q2</t>
-  </si>
-  <si>
     <t>6-2 6-7(3) 6-2</t>
   </si>
   <si>
@@ -309,126 +300,15 @@
     <t>Aslan Karatsev (RUSSIA)</t>
   </si>
   <si>
-    <t>16‑Feb‑2015</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>(5)Pierre Hugues Herbert [FRA] d. (WC)Medvedev</t>
-  </si>
-  <si>
-    <t>(WC)Medvedev d. Martin Vaisse [FRA]</t>
-  </si>
-  <si>
-    <t>17‑May‑2015</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>(5)Frances Tiafoe [USA] d. Medvedev</t>
-  </si>
-  <si>
-    <t>Medvedev d. (WC)Gabriel Petit [FRA]</t>
-  </si>
-  <si>
-    <t>8‑Jun‑2015</t>
-  </si>
-  <si>
-    <t>Moscow CH</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>(7)Daniel Munoz De La Nava [ESP] d. (WC)Medvedev</t>
-  </si>
-  <si>
     <t>6-0 7-6(8)</t>
   </si>
   <si>
-    <t>R32</t>
-  </si>
-  <si>
-    <t>(WC)Medvedev d. (WC)Evgeny Tyurnev [RUS]</t>
-  </si>
-  <si>
-    <t>27‑Jul‑2015</t>
-  </si>
-  <si>
-    <t>Gstaad</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Maxime Teixeira [FRA] d. Medvedev</t>
-  </si>
-  <si>
     <t>7-6(5) 7-6(12)</t>
   </si>
   <si>
-    <t>Medvedev d. Juan Ignacio Londero [ARG]</t>
-  </si>
-  <si>
-    <t>Medvedev d. (8)Matteo Viola [ITA]</t>
-  </si>
-  <si>
-    <t>14‑Sep‑2015</t>
-  </si>
-  <si>
-    <t>Nanchang CH</t>
-  </si>
-  <si>
-    <t>(8)Jordan Thompson [AUS] d. (S)Medvedev</t>
-  </si>
-  <si>
-    <t>7‑Sep‑2015</t>
-  </si>
-  <si>
-    <t>Shanghai CH</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
-    <t>(4)Yuki Bhambri [IND] d. (Q)Medvedev</t>
-  </si>
-  <si>
-    <t>6-3 3-0 RET</t>
-  </si>
-  <si>
-    <t>QF</t>
-  </si>
-  <si>
-    <t>(Q)Medvedev d. Thomas Fabbiano [ITA]</t>
-  </si>
-  <si>
-    <t>(Q)Medvedev d. (7)Peter Gojowczyk [GER]</t>
-  </si>
-  <si>
     <t>6-7(3) 7-6(3) 6-4</t>
   </si>
   <si>
-    <t>(Q)Medvedev d. Duck Hee Lee [KOR]</t>
-  </si>
-  <si>
-    <t>31‑Aug‑2015</t>
-  </si>
-  <si>
-    <t>Bangkok CH</t>
-  </si>
-  <si>
-    <t>(5)Jordan Thompson [AUS] d. Medvedev</t>
-  </si>
-  <si>
-    <t>19‑Oct‑2015</t>
-  </si>
-  <si>
-    <t>(WC)Dmitry Tursunov [RUS] d. Medvedev</t>
-  </si>
-  <si>
     <t>7-5 6-7(4) 7-6(7)</t>
   </si>
   <si>
@@ -1650,9 +1530,6 @@
     <t>Joao Sousa (PORTUGAL)</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>ITALIAN OPEN</t>
   </si>
   <si>
@@ -1990,6 +1867,63 @@
   </si>
   <si>
     <t>3-6 7-5 7-6(7)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>Martin Vaïsse (FRANCE)</t>
+  </si>
+  <si>
+    <t>Gabriel Petit (FRANCE)</t>
+  </si>
+  <si>
+    <t>MOSCOW CHALLENGER</t>
+  </si>
+  <si>
+    <t>SWISS OPEN</t>
+  </si>
+  <si>
+    <t>Evgeny Tyurnev (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Daniel Muñoz De La Nava (SPAIN)</t>
+  </si>
+  <si>
+    <t>Matteo Viola (ITALY)</t>
+  </si>
+  <si>
+    <t>Juan Ignacio Londero (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>Maxime Teixeira (FRANCE)</t>
+  </si>
+  <si>
+    <t>Jordan Thompson (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>SHANGHAI CHALLENGER</t>
+  </si>
+  <si>
+    <t>Dmitry Tursunov (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Lee Duck-Hee (SOUTH KOREA)</t>
+  </si>
+  <si>
+    <t>NANCHANG CHALLENGER</t>
+  </si>
+  <si>
+    <t>6-3 3-0 RETIRED</t>
+  </si>
+  <si>
+    <t>Andrea Vavassori (ITALY)</t>
+  </si>
+  <si>
+    <t>Alexander Shevchenko (RUSSIA)</t>
+  </si>
+  <si>
+    <t>4-6 6-1 7-5</t>
   </si>
 </sst>
 </file>
@@ -2292,7 +2226,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2406,7 +2340,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,7 +2863,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87096774193548387</c:v>
+                  <c:v>0.84848484848484851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4650,7 +4584,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -4659,7 +4593,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -4681,8 +4615,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4717,120 +4651,120 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>562</v>
+        <v>521</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D3" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>616</v>
+        <v>575</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D6" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D7" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D8" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>617</v>
+        <v>576</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
@@ -4841,10 +4775,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D11" t="s">
-        <v>611</v>
+        <v>570</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -4855,10 +4789,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D12" t="s">
-        <v>543</v>
+        <v>502</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -4869,10 +4803,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D13" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
@@ -4883,16 +4817,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D15" t="s">
-        <v>618</v>
+        <v>577</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -4903,30 +4837,30 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D16" t="s">
-        <v>564</v>
+        <v>523</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D18" t="s">
-        <v>559</v>
+        <v>518</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -4937,10 +4871,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>587</v>
+        <v>546</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -4951,10 +4885,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D20" t="s">
-        <v>619</v>
+        <v>578</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -4965,112 +4899,112 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D21" t="s">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>620</v>
+        <v>579</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D23" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D25" t="s">
-        <v>621</v>
+        <v>580</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D26" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D27" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D28" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D30" t="s">
-        <v>572</v>
+        <v>531</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -5081,38 +5015,38 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D31" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D32" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D33" t="s">
-        <v>622</v>
+        <v>581</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -5123,16 +5057,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D35" t="s">
-        <v>561</v>
+        <v>520</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
@@ -5143,10 +5077,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D36" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -5157,10 +5091,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D37" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -5171,24 +5105,24 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D38" t="s">
-        <v>623</v>
+        <v>582</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D39" t="s">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>17</v>
@@ -5199,30 +5133,30 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>634</v>
+        <v>593</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D42" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>17</v>
@@ -5233,16 +5167,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>625</v>
+        <v>584</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D44" t="s">
-        <v>624</v>
+        <v>583</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
@@ -5253,10 +5187,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D45" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
@@ -5267,64 +5201,64 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D46" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D47" t="s">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="B49" t="s">
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D49" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D51" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
@@ -5335,140 +5269,140 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D52" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D53" t="s">
-        <v>626</v>
+        <v>585</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D54" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D56" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D57" t="s">
-        <v>627</v>
+        <v>586</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D58" t="s">
-        <v>628</v>
+        <v>587</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D59" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>629</v>
+        <v>588</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D61" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>630</v>
+        <v>589</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D63" t="s">
-        <v>568</v>
+        <v>527</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -5479,10 +5413,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D64" t="s">
-        <v>631</v>
+        <v>590</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
@@ -5493,10 +5427,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D65" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
@@ -5507,30 +5441,30 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D66" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>632</v>
+        <v>591</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>594</v>
+        <v>553</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D68" t="s">
-        <v>633</v>
+        <v>592</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>16</v>
@@ -5541,10 +5475,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D69" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>16</v>
@@ -5555,10 +5489,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D70" t="s">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
@@ -5569,10 +5503,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D71" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -5583,84 +5517,84 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D72" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D74" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>585</v>
+        <v>544</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D76" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D77" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D78" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5675,10 +5609,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" activeCellId="3" sqref="E5 E9 E33 E44"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E48" activeCellId="4" sqref="E5 E9 E33 E44 E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5713,30 +5647,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -5747,10 +5681,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -5761,10 +5695,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
@@ -5775,78 +5709,78 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D7" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D8" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D9" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D11" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -5857,10 +5791,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D13" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -5871,10 +5805,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D14" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -5885,30 +5819,30 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D15" t="s">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>635</v>
+        <v>594</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D17" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -5919,38 +5853,38 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D18" t="s">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>636</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D19" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D20" t="s">
-        <v>559</v>
+        <v>518</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -5961,16 +5895,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s">
-        <v>637</v>
+        <v>596</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
@@ -5981,10 +5915,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D23" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -5995,10 +5929,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D24" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
@@ -6009,10 +5943,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D25" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
@@ -6023,10 +5957,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D26" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
@@ -6037,16 +5971,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D28" t="s">
-        <v>638</v>
+        <v>597</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -6057,38 +5991,38 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>639</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D30" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>640</v>
+        <v>599</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D31" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
@@ -6099,24 +6033,24 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D32" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>641</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D33" t="s">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -6127,16 +6061,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D35" t="s">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
@@ -6147,24 +6081,24 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D36" t="s">
-        <v>642</v>
+        <v>601</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>643</v>
+        <v>602</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D37" t="s">
-        <v>644</v>
+        <v>603</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -6175,10 +6109,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D38" t="s">
-        <v>645</v>
+        <v>604</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
@@ -6189,24 +6123,24 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D39" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D40" t="s">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
@@ -6217,16 +6151,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D42" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
@@ -6237,30 +6171,78 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D43" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>647</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D44" t="s">
-        <v>646</v>
+        <v>605</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F44" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>607</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46" t="s">
+        <v>623</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>297</v>
+      </c>
+      <c r="D47" t="s">
+        <v>624</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>298</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -6526,20 +6508,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.87096774193548387</v>
+        <v>0.84848484848484851</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6548,7 +6530,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6556,15 +6538,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58333333333333337</v>
+        <v>0.58287292817679559</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6573,7 +6555,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.272727272727273</v>
+        <v>15.363636363636363</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6581,15 +6563,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>32.727272727272727</v>
+        <v>32.909090909090907</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>13.636363636363637</v>
+        <v>13.727272727272727</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.58333333333333337</v>
+        <v>0.58287292817679559</v>
       </c>
     </row>
   </sheetData>
@@ -6650,7 +6632,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -6659,7 +6641,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -6673,13 +6655,13 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6694,23 +6676,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" activeCellId="7" sqref="E3 E6 E9 E13 E15 E20 E22 E24"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6730,420 +6712,280 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>534</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" t="s">
+        <v>613</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>611</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>614</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>615</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" t="s">
+        <v>616</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" t="s">
+        <v>617</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>618</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" t="s">
+        <v>620</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" t="s">
+        <v>536</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" t="s">
+        <v>461</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" t="s">
+        <v>495</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>621</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" t="s">
+        <v>617</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>619</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>318</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>139</v>
-      </c>
-      <c r="G3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>1377</v>
-      </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>291</v>
-      </c>
-      <c r="G6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>486</v>
-      </c>
-      <c r="G8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>134</v>
-      </c>
-      <c r="G9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>207</v>
-      </c>
-      <c r="G11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>331</v>
-      </c>
-      <c r="G12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13">
-        <v>340</v>
-      </c>
-      <c r="G13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15">
-        <v>195</v>
-      </c>
-      <c r="G15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <v>253</v>
-      </c>
-      <c r="G17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18">
-        <v>153</v>
-      </c>
-      <c r="G18" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19">
-        <v>189</v>
-      </c>
-      <c r="G19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20">
-        <v>145</v>
-      </c>
-      <c r="G20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22">
-        <v>211</v>
-      </c>
-      <c r="G22" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" t="s">
-        <v>127</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -7157,7 +6999,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7192,7 +7034,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -7201,7 +7043,7 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -7215,7 +7057,7 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -7226,10 +7068,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
@@ -7240,30 +7082,30 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D7" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
@@ -7274,16 +7116,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D9" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
@@ -7294,24 +7136,24 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D10" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D11" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>16</v>
@@ -7322,10 +7164,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
@@ -7336,16 +7178,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D14" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
@@ -7356,21 +7198,21 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D15" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -7379,7 +7221,7 @@
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>17</v>
@@ -7390,16 +7232,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -7410,30 +7252,30 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D20" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
@@ -7444,10 +7286,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D23" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
@@ -7458,7 +7300,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -7467,7 +7309,7 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>16</v>
@@ -7481,35 +7323,35 @@
         <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="D27" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D28" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
@@ -7520,10 +7362,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -7534,10 +7376,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>17</v>
@@ -7548,7 +7390,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -7557,13 +7399,13 @@
         <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -7571,32 +7413,32 @@
         <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D34" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F34" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
@@ -7605,7 +7447,7 @@
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -7619,7 +7461,7 @@
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
@@ -7630,10 +7472,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D38" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
@@ -7644,10 +7486,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D39" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>17</v>
@@ -7658,7 +7500,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -7667,7 +7509,7 @@
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -7681,7 +7523,7 @@
         <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
@@ -7692,10 +7534,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="D43" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
@@ -7706,10 +7548,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D44" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
@@ -7720,21 +7562,21 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D45" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s">
         <v>32</v>
@@ -7743,7 +7585,7 @@
         <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
@@ -7757,7 +7599,7 @@
         <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
@@ -7768,44 +7610,44 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="D49" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D51" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D52" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>17</v>
@@ -7816,7 +7658,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -7825,7 +7667,7 @@
         <v>43</v>
       </c>
       <c r="D54" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
@@ -7839,7 +7681,7 @@
         <v>44</v>
       </c>
       <c r="D55" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
@@ -7850,10 +7692,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D56" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
@@ -7864,30 +7706,30 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D57" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D59" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
@@ -7898,10 +7740,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D60" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
@@ -7912,10 +7754,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D61" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>17</v>
@@ -7926,16 +7768,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D63" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -7946,10 +7788,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D64" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
@@ -7960,10 +7802,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D65" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
@@ -7974,24 +7816,24 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D66" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D67" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>17</v>
@@ -8002,7 +7844,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -8011,27 +7853,27 @@
         <v>43</v>
       </c>
       <c r="D69" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D71" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -8042,10 +7884,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D72" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>16</v>
@@ -8056,38 +7898,38 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D73" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D74" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D75" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
@@ -8098,7 +7940,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -8107,13 +7949,13 @@
         <v>43</v>
       </c>
       <c r="D77" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -8121,7 +7963,7 @@
         <v>44</v>
       </c>
       <c r="D78" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>16</v>
@@ -8132,10 +7974,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D79" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
@@ -8146,10 +7988,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D80" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>17</v>
@@ -8160,16 +8002,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D82" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>16</v>
@@ -8180,10 +8022,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D83" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>16</v>
@@ -8194,10 +8036,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D84" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>17</v>
@@ -8208,16 +8050,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="B86" t="s">
         <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D86" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
@@ -8228,24 +8070,24 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D87" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D88" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>16</v>
@@ -8256,21 +8098,21 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D89" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -8279,7 +8121,7 @@
         <v>43</v>
       </c>
       <c r="D91" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>16</v>
@@ -8293,7 +8135,7 @@
         <v>44</v>
       </c>
       <c r="D92" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>16</v>
@@ -8304,58 +8146,58 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D93" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D94" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F94" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D95" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="B97" t="s">
         <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D97" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>16</v>
@@ -8366,10 +8208,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D98" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>16</v>
@@ -8380,10 +8222,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D99" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>16</v>
@@ -8394,10 +8236,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D100" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>17</v>
@@ -8408,16 +8250,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="B102" t="s">
         <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D102" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>16</v>
@@ -8428,10 +8270,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D103" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>16</v>
@@ -8442,10 +8284,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D104" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>17</v>
@@ -8456,16 +8298,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="B106" t="s">
         <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D106" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>16</v>
@@ -8476,24 +8318,24 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D107" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D108" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>16</v>
@@ -8504,16 +8346,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D109" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -8530,8 +8372,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8566,16 +8408,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D2" t="s">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -8586,10 +8428,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
@@ -8600,10 +8442,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -8614,24 +8456,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D5" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D6" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
@@ -8642,67 +8484,67 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D8" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D12" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D13" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -8713,10 +8555,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
@@ -8727,44 +8569,44 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D16" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D17" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D18" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
@@ -8775,16 +8617,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D20" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -8795,10 +8637,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D21" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
@@ -8809,16 +8651,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
@@ -8829,16 +8671,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D25" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
@@ -8849,67 +8691,67 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D27" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s">
-        <v>572</v>
+        <v>531</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D31" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
@@ -8918,7 +8760,7 @@
         <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
@@ -8932,7 +8774,7 @@
         <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
@@ -8943,24 +8785,24 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D35" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D36" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -8971,10 +8813,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D37" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>17</v>
@@ -8985,30 +8827,30 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D39" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D40" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
@@ -9019,10 +8861,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D41" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>17</v>
@@ -9033,16 +8875,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D43" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
@@ -9053,38 +8895,38 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D44" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D45" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D46" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>17</v>
@@ -9095,78 +8937,78 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s">
         <v>32</v>
       </c>
       <c r="C48" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D48" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D49" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D51" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D52" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D53" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
@@ -9177,10 +9019,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D54" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>17</v>
@@ -9191,16 +9033,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D56" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>17</v>
@@ -9211,96 +9053,96 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D58" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D60" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D62" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D64" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D66" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>17</v>
@@ -9311,16 +9153,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D68" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>17</v>
@@ -9331,30 +9173,30 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D70" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D71" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -9365,69 +9207,69 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D72" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D74" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D75" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D76" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
@@ -9436,7 +9278,7 @@
         <v>43</v>
       </c>
       <c r="D78" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>17</v>
@@ -9459,7 +9301,7 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
@@ -9495,16 +9337,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D2" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -9515,7 +9357,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -9524,7 +9366,7 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -9538,7 +9380,7 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
@@ -9549,10 +9391,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D6" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -9563,10 +9405,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D7" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
@@ -9577,10 +9419,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D8" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
@@ -9591,78 +9433,78 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D9" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D10" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D12" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D13" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D15" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
@@ -9673,7 +9515,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -9682,7 +9524,7 @@
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -9696,7 +9538,7 @@
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
@@ -9707,24 +9549,24 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D20" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -9735,30 +9577,30 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D21" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D23" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>16</v>
@@ -9769,24 +9611,24 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D24" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D25" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
@@ -9797,47 +9639,47 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D27" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D28" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -9848,30 +9690,30 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D32" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D33" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -9882,36 +9724,36 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D35" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D37" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>17</v>
@@ -9922,56 +9764,56 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>535</v>
+        <v>494</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D39" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D41" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s">
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D43" t="s">
-        <v>536</v>
+        <v>495</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
@@ -9982,10 +9824,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D44" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>17</v>
@@ -9996,16 +9838,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="B46" t="s">
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D46" t="s">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -10016,10 +9858,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D47" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>17</v>
@@ -10030,16 +9872,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="B49" t="s">
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D49" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>17</v>
@@ -10050,30 +9892,30 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D51" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D52" t="s">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
@@ -10084,55 +9926,55 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D53" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D55" t="s">
-        <v>541</v>
+        <v>500</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D56" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
@@ -10141,7 +9983,7 @@
         <v>43</v>
       </c>
       <c r="D58" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
@@ -10155,21 +9997,21 @@
         <v>44</v>
       </c>
       <c r="D59" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D60" t="s">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>16</v>
@@ -10180,24 +10022,24 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D61" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D62" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>17</v>
@@ -10208,7 +10050,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
@@ -10217,13 +10059,13 @@
         <v>43</v>
       </c>
       <c r="D64" t="s">
-        <v>544</v>
+        <v>503</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -10231,21 +10073,21 @@
         <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>543</v>
+        <v>502</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>17</v>
@@ -10256,16 +10098,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D68" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>16</v>
@@ -10276,10 +10118,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D69" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>16</v>
@@ -10290,10 +10132,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D70" t="s">
-        <v>545</v>
+        <v>504</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
@@ -10304,10 +10146,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D71" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
@@ -10318,10 +10160,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D72" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>16</v>
@@ -10332,10 +10174,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D73" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -10346,64 +10188,64 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D75" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D76" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D77" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D79" t="s">
-        <v>546</v>
+        <v>505</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
@@ -10414,10 +10256,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D80" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>16</v>
@@ -10428,21 +10270,21 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D81" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
@@ -10451,7 +10293,7 @@
         <v>43</v>
       </c>
       <c r="D83" t="s">
-        <v>548</v>
+        <v>507</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>16</v>
@@ -10465,21 +10307,21 @@
         <v>44</v>
       </c>
       <c r="D84" t="s">
-        <v>549</v>
+        <v>508</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D85" t="s">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>16</v>
@@ -10490,10 +10332,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D86" t="s">
-        <v>551</v>
+        <v>510</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
@@ -10504,10 +10346,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D87" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>16</v>
@@ -10518,10 +10360,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D88" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>16</v>
@@ -10532,10 +10374,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D89" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>16</v>
@@ -10546,50 +10388,50 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D91" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D92" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B94" t="s">
         <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D94" t="s">
-        <v>555</v>
+        <v>514</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>16</v>
@@ -10600,44 +10442,44 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D95" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D96" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F96" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>556</v>
+        <v>515</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D98" t="s">
-        <v>557</v>
+        <v>516</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>16</v>
@@ -10648,10 +10490,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D99" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>16</v>
@@ -10662,10 +10504,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D100" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>16</v>
@@ -10676,10 +10518,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D101" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>17</v>
@@ -10690,16 +10532,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="B103" t="s">
         <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D103" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>16</v>
@@ -10710,10 +10552,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D104" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>17</v>
@@ -10736,8 +10578,8 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:C35"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10772,16 +10614,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>517</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D2" t="s">
-        <v>559</v>
+        <v>518</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
@@ -10792,24 +10634,24 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D3" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D4" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
@@ -10820,123 +10662,123 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D5" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D7" t="s">
-        <v>560</v>
+        <v>519</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D8" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D9" t="s">
-        <v>561</v>
+        <v>520</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D10" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>562</v>
+        <v>521</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>563</v>
+        <v>522</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D14" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D15" t="s">
-        <v>551</v>
+        <v>510</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
@@ -10947,10 +10789,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D16" t="s">
-        <v>564</v>
+        <v>523</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
@@ -10961,10 +10803,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D17" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -10975,30 +10817,30 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D19" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D20" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
@@ -11009,10 +10851,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D21" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>16</v>
@@ -11023,30 +10865,30 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D22" t="s">
-        <v>564</v>
+        <v>523</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D24" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>17</v>
@@ -11057,30 +10899,30 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D26" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D27" t="s">
-        <v>565</v>
+        <v>524</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>17</v>
@@ -11091,16 +10933,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D29" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
@@ -11111,24 +10953,24 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D30" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D31" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>17</v>
@@ -11139,16 +10981,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D33" t="s">
-        <v>546</v>
+        <v>505</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>16</v>
@@ -11159,10 +11001,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D34" t="s">
-        <v>566</v>
+        <v>525</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
@@ -11173,38 +11015,38 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D35" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D36" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D37" t="s">
-        <v>555</v>
+        <v>514</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>17</v>
@@ -11215,30 +11057,30 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>567</v>
+        <v>526</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D39" t="s">
-        <v>568</v>
+        <v>527</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D40" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
@@ -11249,10 +11091,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D41" t="s">
-        <v>569</v>
+        <v>528</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -11263,24 +11105,24 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D42" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D43" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>17</v>
@@ -11291,36 +11133,36 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="B45" t="s">
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D45" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>535</v>
+        <v>494</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D47" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>17</v>
@@ -11331,56 +11173,56 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="B49" t="s">
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D49" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D51" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>226</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="B53" t="s">
         <v>32</v>
       </c>
       <c r="C53" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D53" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
@@ -11391,24 +11233,24 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D54" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D55" t="s">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>16</v>
@@ -11419,78 +11261,78 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D56" t="s">
-        <v>572</v>
+        <v>531</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="B58" t="s">
         <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D58" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D59" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D60" t="s">
-        <v>561</v>
+        <v>520</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D62" t="s">
-        <v>574</v>
+        <v>533</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
@@ -11501,10 +11343,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D63" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
@@ -11515,24 +11357,24 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D64" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D65" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
@@ -11543,30 +11385,30 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D66" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D68" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>16</v>
@@ -11577,10 +11419,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D69" t="s">
-        <v>578</v>
+        <v>537</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>16</v>
@@ -11591,10 +11433,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D70" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
@@ -11605,24 +11447,24 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D71" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D72" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>17</v>
@@ -11633,16 +11475,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D74" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
@@ -11653,24 +11495,24 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D75" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D76" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>16</v>
@@ -11681,10 +11523,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D77" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>16</v>
@@ -11695,148 +11537,148 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D78" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D79" t="s">
-        <v>561</v>
+        <v>520</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D81" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D82" t="s">
-        <v>581</v>
+        <v>540</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D83" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D84" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D85" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D86" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D87" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="B89" t="s">
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D89" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>16</v>
@@ -11847,10 +11689,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D90" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>16</v>
@@ -11861,24 +11703,24 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D91" t="s">
-        <v>549</v>
+        <v>508</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D92" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>16</v>
@@ -11889,16 +11731,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="B94" t="s">
         <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D94" t="s">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>16</v>
@@ -11909,52 +11751,52 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D95" t="s">
-        <v>584</v>
+        <v>543</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F96" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F97" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D98" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>16</v>
@@ -11965,70 +11807,70 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="B100" t="s">
         <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D100" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>585</v>
+        <v>544</v>
       </c>
       <c r="B102" t="s">
         <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D102" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D103" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D104" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -12044,8 +11886,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12080,78 +11922,78 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D3" t="s">
-        <v>587</v>
+        <v>546</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D7" t="s">
-        <v>584</v>
+        <v>543</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
@@ -12162,30 +12004,30 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D9" t="s">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D10" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
@@ -12196,16 +12038,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D12" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -12216,10 +12058,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D13" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -12230,120 +12072,120 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D16" t="s">
-        <v>590</v>
+        <v>549</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D17" t="s">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D18" t="s">
-        <v>592</v>
+        <v>551</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D19" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D20" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D21" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D23" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
@@ -12354,70 +12196,70 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D25" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="B27" t="s">
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D27" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D28" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>594</v>
+        <v>553</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D30" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
@@ -12428,24 +12270,24 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D31" t="s">
-        <v>584</v>
+        <v>543</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D32" t="s">
-        <v>595</v>
+        <v>554</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>17</v>
@@ -12456,44 +12298,44 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D34" t="s">
-        <v>595</v>
+        <v>554</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>596</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D35" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D36" t="s">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -12504,44 +12346,44 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D37" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D38" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>585</v>
+        <v>544</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D40" t="s">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
@@ -12552,10 +12394,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D41" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
@@ -12566,10 +12408,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D42" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
@@ -12580,30 +12422,30 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D43" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D44" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -12619,8 +12461,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12655,120 +12497,120 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D2" t="s">
-        <v>584</v>
+        <v>543</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D3" t="s">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D4" t="s">
-        <v>565</v>
+        <v>524</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D6" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D7" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D8" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>555</v>
+        <v>514</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
@@ -12779,16 +12621,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>549</v>
+        <v>508</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>16</v>
@@ -12799,10 +12641,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D13" t="s">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -12813,44 +12655,44 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D14" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>599</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D15" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D17" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>16</v>
@@ -12861,24 +12703,24 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D18" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D19" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
@@ -12889,10 +12731,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D20" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>17</v>
@@ -12903,50 +12745,50 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>534</v>
+        <v>607</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D23" t="s">
-        <v>578</v>
+        <v>537</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>535</v>
+        <v>494</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>17</v>
@@ -12957,92 +12799,92 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D27" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D28" t="s">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D30" t="s">
-        <v>578</v>
+        <v>537</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D31" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D33" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>17</v>
@@ -13053,16 +12895,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>601</v>
+        <v>560</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D35" t="s">
-        <v>602</v>
+        <v>561</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>16</v>
@@ -13073,10 +12915,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D36" t="s">
-        <v>603</v>
+        <v>562</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>16</v>
@@ -13087,24 +12929,24 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D37" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D38" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>16</v>
@@ -13115,92 +12957,92 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D41" t="s">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D42" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D43" t="s">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D45" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D46" t="s">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>16</v>
@@ -13211,58 +13053,58 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D47" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D48" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F48" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D50" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D51" t="s">
-        <v>609</v>
+        <v>568</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>16</v>
@@ -13273,24 +13115,24 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D52" t="s">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D53" t="s">
-        <v>610</v>
+        <v>569</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>16</v>
@@ -13301,10 +13143,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D54" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>16</v>
@@ -13315,16 +13157,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D56" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>16</v>
@@ -13335,10 +13177,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D57" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>16</v>
@@ -13349,10 +13191,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D58" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>16</v>
@@ -13363,134 +13205,134 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D59" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="D61" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D62" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D63" t="s">
-        <v>611</v>
+        <v>570</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D64" t="s">
-        <v>612</v>
+        <v>571</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D65" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D66" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D67" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="D69" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>16</v>
@@ -13501,44 +13343,44 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D70" t="s">
-        <v>565</v>
+        <v>524</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D71" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="D73" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -13549,38 +13391,38 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D74" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D75" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D76" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>16</v>
@@ -13591,72 +13433,72 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D77" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>585</v>
+        <v>544</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D79" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D80" t="s">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D81" t="s">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D82" t="s">
-        <v>603</v>
+        <v>562</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>16</v>
@@ -13667,10 +13509,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D83" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>17</v>
@@ -13681,35 +13523,35 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>614</v>
+        <v>573</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>615</v>
+        <v>574</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>16</v>
@@ -13720,7 +13562,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>16</v>
@@ -13731,13 +13573,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23661" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D386D9C6-88B4-429F-B233-FE3785A3BD15}"/>
+  <xr:revisionPtr revIDLastSave="23684" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C777A258-2919-48CC-AC6A-D20D78810F89}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="629">
   <si>
     <t>ROUND</t>
   </si>
@@ -1924,6 +1924,15 @@
   </si>
   <si>
     <t>4-6 6-1 7-5</t>
+  </si>
+  <si>
+    <t>Bernabe Zapata Miralles (SPAIN)</t>
+  </si>
+  <si>
+    <t>Yannick Hanfmann (GERMANY)</t>
+  </si>
+  <si>
+    <t>3-6 6-1 6-3</t>
   </si>
 </sst>
 </file>
@@ -2226,7 +2235,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2863,7 +2872,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84848484848484851</c:v>
+                  <c:v>0.87179487179487181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4168,7 +4177,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{42B570F3-198C-4935-9F8D-F5D11F8C7A7A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4213,7 +4222,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8570360" cy="5830584"/>
+    <xdr:ext cx="8572500" cy="5827568"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4240,10 +4249,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5609,9 +5614,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E48" activeCellId="4" sqref="E5 E9 E33 E44 E48"/>
     </sheetView>
   </sheetViews>
@@ -6245,6 +6250,96 @@
         <v>111</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>494</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>355</v>
+      </c>
+      <c r="D50" t="s">
+        <v>590</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>297</v>
+      </c>
+      <c r="D51" t="s">
+        <v>626</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>298</v>
+      </c>
+      <c r="D52" t="s">
+        <v>384</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>302</v>
+      </c>
+      <c r="D53" t="s">
+        <v>627</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>303</v>
+      </c>
+      <c r="D54" t="s">
+        <v>489</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>367</v>
+      </c>
+      <c r="D55" t="s">
+        <v>605</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -6259,7 +6354,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6508,20 +6603,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.84848484848484851</v>
+        <v>0.87179487179487181</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6530,15 +6625,15 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
@@ -6546,7 +6641,7 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58287292817679559</v>
+        <v>0.58967391304347827</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6555,15 +6650,15 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.363636363636363</v>
+        <v>15.454545454545455</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
-        <v>1.8181818181818181</v>
+        <v>1.9090909090909092</v>
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>32.909090909090907</v>
+        <v>33.454545454545453</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
@@ -6571,7 +6666,7 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.58287292817679559</v>
+        <v>0.58967391304347827</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23684" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C777A258-2919-48CC-AC6A-D20D78810F89}"/>
+  <xr:revisionPtr revIDLastSave="23696" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7668F88B-D8FB-4004-9878-5D4DF86942A9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="631">
   <si>
     <t>ROUND</t>
   </si>
@@ -1933,6 +1933,12 @@
   </si>
   <si>
     <t>3-6 6-1 6-3</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-7(8) 2-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Thiago Seyboth Wild (BRAZIL)</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2355,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,7 +2878,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87179487179487181</c:v>
+                  <c:v>0.84615384615384615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4251,6 +4257,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5614,10 +5624,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E48" activeCellId="4" sqref="E5 E9 E33 E44 E48"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" activeCellId="10" sqref="A2 A7 A11 A17 A22 A28 A35 A42 A46 A50 A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5627,7 +5637,7 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6338,6 +6348,26 @@
       </c>
       <c r="F55" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>437</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>354</v>
+      </c>
+      <c r="D57" t="s">
+        <v>630</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -6354,7 +6384,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6603,7 +6633,7 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -6612,11 +6642,11 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.87179487179487181</v>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6625,7 +6655,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6637,11 +6667,11 @@
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58967391304347827</v>
+        <v>0.58695652173913049</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6650,7 +6680,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.454545454545455</v>
+        <v>15.545454545454545</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6662,11 +6692,11 @@
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>13.727272727272727</v>
+        <v>13.818181818181818</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.58967391304347827</v>
+        <v>0.58695652173913038</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23696" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7668F88B-D8FB-4004-9878-5D4DF86942A9}"/>
+  <xr:revisionPtr revIDLastSave="23706" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC9EB3A-15C3-4042-83D5-807452C08998}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="632">
   <si>
     <t>ROUND</t>
   </si>
@@ -1939,6 +1939,9 @@
   </si>
   <si>
     <t>Thiago Seyboth Wild (BRAZIL)</t>
+  </si>
+  <si>
+    <t>LIBEMA OPEN</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2358,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2878,7 +2881,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84615384615384615</c:v>
+                  <c:v>0.82051282051282048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4631,12 +4634,12 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
@@ -5010,7 +5013,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>329</v>
+        <v>631</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -5624,10 +5627,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" activeCellId="10" sqref="A2 A7 A11 A17 A22 A28 A35 A42 A46 A50 A57"/>
+      <selection activeCell="A59" activeCellId="11" sqref="A2 A7 A11 A17 A22 A28 A35 A42 A46 A50 A57 A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6368,6 +6371,26 @@
       </c>
       <c r="F57" t="s">
         <v>629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>631</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>298</v>
+      </c>
+      <c r="D59" t="s">
+        <v>333</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -6633,7 +6656,7 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -6642,11 +6665,11 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.84615384615384615</v>
+        <v>0.82051282051282048</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6655,7 +6678,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6667,11 +6690,11 @@
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58695652173913049</v>
+        <v>0.58423913043478259</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6680,7 +6703,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.545454545454545</v>
+        <v>15.636363636363637</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6692,11 +6715,11 @@
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>13.818181818181818</v>
+        <v>13.909090909090908</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.58695652173913038</v>
+        <v>0.58423913043478271</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23706" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC9EB3A-15C3-4042-83D5-807452C08998}"/>
+  <xr:revisionPtr revIDLastSave="23722" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF9B5C2B-233B-4252-9092-8D5355B76103}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="636">
   <si>
     <t>ROUND</t>
   </si>
@@ -1942,6 +1942,18 @@
   </si>
   <si>
     <t>LIBEMA OPEN</t>
+  </si>
+  <si>
+    <t>HALLE OPEN</t>
+  </si>
+  <si>
+    <t>Laslo Djere (SERBIA)</t>
+  </si>
+  <si>
+    <t>7-5 7-6(3)</t>
+  </si>
+  <si>
+    <t>6-3 6-7(5) 6-3</t>
   </si>
 </sst>
 </file>
@@ -2244,7 +2256,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2358,7 +2370,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2881,7 +2893,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82051282051282048</c:v>
+                  <c:v>0.80487804878048785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4633,8 +4645,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5627,10 +5639,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A59" activeCellId="11" sqref="A2 A7 A11 A17 A22 A28 A35 A42 A46 A50 A57 A59"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E63" activeCellId="7" sqref="E5 E9 E33 E44 E48 E57 E59 E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6391,6 +6403,54 @@
       </c>
       <c r="F59" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>632</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" t="s">
+        <v>297</v>
+      </c>
+      <c r="D61" t="s">
+        <v>350</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" t="s">
+        <v>633</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" t="s">
+        <v>417</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -6656,20 +6716,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.82051282051282048</v>
+        <v>0.80487804878048785</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6678,7 +6738,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6686,15 +6746,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58423913043478259</v>
+        <v>0.58378378378378382</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6703,7 +6763,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.636363636363637</v>
+        <v>15.727272727272727</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6711,15 +6771,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>33.454545454545453</v>
+        <v>33.636363636363633</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>13.909090909090908</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.58423913043478271</v>
+        <v>0.58378378378378371</v>
       </c>
     </row>
   </sheetData>
@@ -12609,7 +12669,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23684" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C777A258-2919-48CC-AC6A-D20D78810F89}"/>
+  <xr:revisionPtr revIDLastSave="23722" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF9B5C2B-233B-4252-9092-8D5355B76103}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="636">
   <si>
     <t>ROUND</t>
   </si>
@@ -1933,6 +1933,27 @@
   </si>
   <si>
     <t>3-6 6-1 6-3</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-7(8) 2-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>Thiago Seyboth Wild (BRAZIL)</t>
+  </si>
+  <si>
+    <t>LIBEMA OPEN</t>
+  </si>
+  <si>
+    <t>HALLE OPEN</t>
+  </si>
+  <si>
+    <t>Laslo Djere (SERBIA)</t>
+  </si>
+  <si>
+    <t>7-5 7-6(3)</t>
+  </si>
+  <si>
+    <t>6-3 6-7(5) 6-3</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2256,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2349,7 +2370,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,7 +2893,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87179487179487181</c:v>
+                  <c:v>0.80487804878048785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4251,6 +4272,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4620,13 +4645,13 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
@@ -5000,7 +5025,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>329</v>
+        <v>631</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -5614,10 +5639,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E48" activeCellId="4" sqref="E5 E9 E33 E44 E48"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E63" activeCellId="7" sqref="E5 E9 E33 E44 E48 E57 E59 E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5627,7 +5652,7 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6338,6 +6363,94 @@
       </c>
       <c r="F55" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>437</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>354</v>
+      </c>
+      <c r="D57" t="s">
+        <v>630</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>631</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" t="s">
+        <v>298</v>
+      </c>
+      <c r="D59" t="s">
+        <v>333</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>632</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" t="s">
+        <v>297</v>
+      </c>
+      <c r="D61" t="s">
+        <v>350</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" t="s">
+        <v>633</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>302</v>
+      </c>
+      <c r="D63" t="s">
+        <v>417</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -6354,7 +6467,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6603,20 +6716,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.87179487179487181</v>
+        <v>0.80487804878048785</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6625,7 +6738,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6633,15 +6746,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58967391304347827</v>
+        <v>0.58378378378378382</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6650,7 +6763,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.454545454545455</v>
+        <v>15.727272727272727</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6658,15 +6771,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>33.454545454545453</v>
+        <v>33.636363636363633</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>13.727272727272727</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.58967391304347827</v>
+        <v>0.58378378378378371</v>
       </c>
     </row>
   </sheetData>
@@ -12556,7 +12669,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23722" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF9B5C2B-233B-4252-9092-8D5355B76103}"/>
+  <xr:revisionPtr revIDLastSave="23744" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60C704B5-E20F-4C5B-A0BD-BAEF0785F846}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="644">
   <si>
     <t>ROUND</t>
   </si>
@@ -1954,6 +1954,30 @@
   </si>
   <si>
     <t>6-3 6-7(5) 6-3</t>
+  </si>
+  <si>
+    <t>3-6, 3-6, 3-6</t>
+  </si>
+  <si>
+    <t>Arthur Fery (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>7-5 6-4 6-3</t>
+  </si>
+  <si>
+    <t>6-3 6-3 7-6(5)</t>
+  </si>
+  <si>
+    <t>4-6 6-3 6-4 6-4</t>
+  </si>
+  <si>
+    <t>6-4 6-2 RETIRED</t>
+  </si>
+  <si>
+    <t>6-4 1-6 4-6 7-6(4) 6-1</t>
+  </si>
+  <si>
+    <t>Jiří Lehečka (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2280,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,7 +2394,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2893,7 +2917,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.80487804878048785</c:v>
+                  <c:v>0.80434782608695654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4645,8 +4669,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5639,10 +5663,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E63" activeCellId="7" sqref="E5 E9 E33 E44 E48 E57 E59 E63"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E70" activeCellId="8" sqref="E5 E9 E33 E44 E48 E57 E59 E63 E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6451,6 +6475,96 @@
       </c>
       <c r="F63" t="s">
         <v>634</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>340</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" t="s">
+        <v>354</v>
+      </c>
+      <c r="D65" t="s">
+        <v>637</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>355</v>
+      </c>
+      <c r="D66" t="s">
+        <v>333</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>297</v>
+      </c>
+      <c r="D67" t="s">
+        <v>370</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>298</v>
+      </c>
+      <c r="D68" t="s">
+        <v>643</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>302</v>
+      </c>
+      <c r="D69" t="s">
+        <v>604</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>303</v>
+      </c>
+      <c r="D70" t="s">
+        <v>563</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -6716,20 +6830,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.80487804878048785</v>
+        <v>0.80434782608695654</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6738,7 +6852,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6746,15 +6860,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58378378378378382</v>
+        <v>0.58666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6763,7 +6877,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.727272727272727</v>
+        <v>15.818181818181818</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6771,15 +6885,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>33.636363636363633</v>
+        <v>34.090909090909093</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14</v>
+        <v>14.090909090909092</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.58378378378378371</v>
+        <v>0.58666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23744" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60C704B5-E20F-4C5B-A0BD-BAEF0785F846}"/>
+  <xr:revisionPtr revIDLastSave="23757" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ABD0AFC-DFC9-4300-99F5-74C01AC0AEF8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="645">
   <si>
     <t>ROUND</t>
   </si>
@@ -1978,6 +1978,9 @@
   </si>
   <si>
     <t>Jiří Lehečka (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Lorenzo Musetti (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2283,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,7 +2397,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2917,7 +2920,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.80434782608695654</c:v>
+                  <c:v>0.79166666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5663,10 +5666,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E70" activeCellId="8" sqref="E5 E9 E33 E44 E48 E57 E59 E63 E70"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E72" activeCellId="13" sqref="E2:E4 E7:E8 E11:E15 E17:E20 E22:E26 E28:E32 E35 E37:E40 E42:E43 E46:E47 E50:E55 E61:E62 E65:E69 E72:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6565,6 +6568,54 @@
       </c>
       <c r="F70" t="s">
         <v>636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>455</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72" t="s">
+        <v>596</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>298</v>
+      </c>
+      <c r="D73" t="s">
+        <v>644</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" t="s">
+        <v>480</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6830,20 +6881,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.80434782608695654</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6852,7 +6903,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6860,15 +6911,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58666666666666667</v>
+        <v>0.58620689655172409</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6877,7 +6928,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.818181818181818</v>
+        <v>15.909090909090908</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6885,15 +6936,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>34.090909090909093</v>
+        <v>34.272727272727273</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.090909090909092</v>
+        <v>14.181818181818182</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.58666666666666667</v>
+        <v>0.5862068965517242</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23757" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ABD0AFC-DFC9-4300-99F5-74C01AC0AEF8}"/>
+  <xr:revisionPtr revIDLastSave="23769" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47D5D95B-8899-4855-8D9E-4529426FD944}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="644">
   <si>
     <t>ROUND</t>
   </si>
@@ -1954,9 +1954,6 @@
   </si>
   <si>
     <t>6-3 6-7(5) 6-3</t>
-  </si>
-  <si>
-    <t>3-6, 3-6, 3-6</t>
   </si>
   <si>
     <t>Arthur Fery (GREAT BRITAIN)</t>
@@ -2283,7 +2280,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2397,7 +2394,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2920,7 +2917,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79166666666666663</c:v>
+                  <c:v>0.77551020408163263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5666,10 +5663,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E72" activeCellId="13" sqref="E2:E4 E7:E8 E11:E15 E17:E20 E22:E26 E28:E32 E35 E37:E40 E42:E43 E46:E47 E50:E55 E61:E62 E65:E69 E72:E73"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E77" activeCellId="10" sqref="E5 E9 E33 E44 E48 E57 E59 E63 E70 E74 E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6491,13 +6488,13 @@
         <v>354</v>
       </c>
       <c r="D65" t="s">
+        <v>636</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
         <v>637</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -6511,7 +6508,7 @@
         <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -6525,7 +6522,7 @@
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -6533,13 +6530,13 @@
         <v>298</v>
       </c>
       <c r="D68" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -6553,7 +6550,7 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6567,7 +6564,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>636</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -6595,7 +6592,7 @@
         <v>298</v>
       </c>
       <c r="D73" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>16</v>
@@ -6616,6 +6613,40 @@
       </c>
       <c r="F74" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>456</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" t="s">
+        <v>643</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>298</v>
+      </c>
+      <c r="D77" t="s">
+        <v>384</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -6881,20 +6912,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.79166666666666663</v>
+        <v>0.77551020408163263</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6903,7 +6934,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6911,15 +6942,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58620689655172409</v>
+        <v>0.58465608465608465</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6928,7 +6959,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>15.909090909090908</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6936,15 +6967,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>34.272727272727273</v>
+        <v>34.363636363636367</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.181818181818182</v>
+        <v>14.272727272727273</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.5862068965517242</v>
+        <v>0.58465608465608465</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23769" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47D5D95B-8899-4855-8D9E-4529426FD944}"/>
+  <xr:revisionPtr revIDLastSave="23794" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{232B883C-4D21-4A22-B2AD-7A47C57744EC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="653">
   <si>
     <t>ROUND</t>
   </si>
@@ -1978,6 +1978,33 @@
   </si>
   <si>
     <t>Lorenzo Musetti (ITALY)</t>
+  </si>
+  <si>
+    <t>Attila Balázs (HUNGARY)</t>
+  </si>
+  <si>
+    <t>Sebastián Báez (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(5) 6-3</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-1 3-6 6-3</t>
+  </si>
+  <si>
+    <t>6-4 6-3 6-4</t>
+  </si>
+  <si>
+    <t>2-6 6-4 6-1 6-2</t>
+  </si>
+  <si>
+    <t>6-2 6-2 7-6(6)</t>
+  </si>
+  <si>
+    <t>6-2 6-2 6-7(6) 6-2</t>
+  </si>
+  <si>
+    <t>6-1 6-1 6-0</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2307,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,7 +2421,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2917,7 +2944,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77551020408163263</c:v>
+                  <c:v>0.78181818181818186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4296,10 +4323,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5663,10 +5686,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E77" activeCellId="10" sqref="E5 E9 E33 E44 E48 E57 E59 E63 E70 E74 E77"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E79" activeCellId="15" sqref="E2:E4 E7:E8 E11:E15 E17:E20 E22:E26 E28:E32 E35 E37:E40 E42:E43 E46:E47 E50:E55 E61:E62 E65:E69 E72:E73 E76 E79:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6647,6 +6670,110 @@
       </c>
       <c r="F77" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>373</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>354</v>
+      </c>
+      <c r="D79" t="s">
+        <v>644</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>355</v>
+      </c>
+      <c r="D80" t="s">
+        <v>550</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>297</v>
+      </c>
+      <c r="D81" t="s">
+        <v>645</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>298</v>
+      </c>
+      <c r="D82" t="s">
+        <v>480</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>302</v>
+      </c>
+      <c r="D83" t="s">
+        <v>399</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" t="s">
+        <v>563</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>367</v>
+      </c>
+      <c r="D85" t="s">
+        <v>349</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -6912,20 +7039,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.77551020408163263</v>
+        <v>0.78181818181818186</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -6934,7 +7061,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -6942,15 +7069,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58465608465608465</v>
+        <v>0.58854166666666663</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6959,7 +7086,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>16</v>
+        <v>16.09090909090909</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -6967,15 +7094,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>34.363636363636367</v>
+        <v>34.909090909090907</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.272727272727273</v>
+        <v>14.363636363636363</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.58465608465608465</v>
+        <v>0.58854166666666663</v>
       </c>
     </row>
   </sheetData>
@@ -12865,8 +12992,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23794" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{232B883C-4D21-4A22-B2AD-7A47C57744EC}"/>
+  <xr:revisionPtr revIDLastSave="23814" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE07726C-D892-4982-9212-64946A69BD9B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="656">
   <si>
     <t>ROUND</t>
   </si>
@@ -2005,6 +2005,15 @@
   </si>
   <si>
     <t>6-1 6-1 6-0</t>
+  </si>
+  <si>
+    <t>CHINA OPEN</t>
+  </si>
+  <si>
+    <t>6-4 3-6 6-1</t>
+  </si>
+  <si>
+    <t>7-6(2) 7-6(2)</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2316,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>55</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2421,7 +2430,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2944,7 +2953,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.78181818181818186</c:v>
+                  <c:v>0.77966101694915257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4323,6 +4332,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5686,10 +5699,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E79" activeCellId="15" sqref="E2:E4 E7:E8 E11:E15 E17:E20 E22:E26 E28:E32 E35 E37:E40 E42:E43 E46:E47 E50:E55 E61:E62 E65:E69 E72:E73 E76 E79:E84"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E87" activeCellId="16" sqref="E2:E4 E7:E8 E11:E15 E17:E20 E22:E26 E28:E32 E35 E37:E40 E42:E43 E46:E47 E50:E55 E61:E62 E65:E69 E72:E73 E76 E79:E84 E87:E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6706,7 +6719,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>297</v>
       </c>
@@ -6720,7 +6733,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>298</v>
       </c>
@@ -6734,7 +6747,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>302</v>
       </c>
@@ -6748,7 +6761,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>303</v>
       </c>
@@ -6762,7 +6775,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>367</v>
       </c>
@@ -6774,6 +6787,82 @@
       </c>
       <c r="F85" t="s">
         <v>646</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>653</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>297</v>
+      </c>
+      <c r="D87" t="s">
+        <v>559</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>298</v>
+      </c>
+      <c r="D88" t="s">
+        <v>480</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>302</v>
+      </c>
+      <c r="D89" t="s">
+        <v>552</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" t="s">
+        <v>384</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>367</v>
+      </c>
+      <c r="D91" t="s">
+        <v>547</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -7039,20 +7128,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.78181818181818186</v>
+        <v>0.77966101694915257</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7061,7 +7150,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -7069,15 +7158,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58854166666666663</v>
+        <v>0.59020618556701032</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7086,7 +7175,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>16.09090909090909</v>
+        <v>16.181818181818183</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -7094,15 +7183,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>34.909090909090907</v>
+        <v>35.272727272727273</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.363636363636363</v>
+        <v>14.454545454545455</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.58854166666666663</v>
+        <v>0.59020618556701032</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23814" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE07726C-D892-4982-9212-64946A69BD9B}"/>
+  <xr:revisionPtr revIDLastSave="23826" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C292A551-E27B-4FA4-A0CF-C7ECC240449D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="657">
   <si>
     <t>ROUND</t>
   </si>
@@ -2014,6 +2014,9 @@
   </si>
   <si>
     <t>7-6(2) 7-6(2)</t>
+  </si>
+  <si>
+    <t>7-6(8) 6-2</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2319,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2430,7 +2433,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2953,7 +2956,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77966101694915257</c:v>
+                  <c:v>0.76666666666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4246,7 +4249,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F5426898-72E0-4038-BEB0-23E01A76D388}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4258,7 +4261,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{42B570F3-198C-4935-9F8D-F5D11F8C7A7A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4638,21 +4641,21 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4672,7 +4675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -4705,21 +4708,21 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4739,7 +4742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -4759,7 +4762,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -4787,7 +4790,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -4801,7 +4804,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -4815,7 +4818,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -4829,7 +4832,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -4843,7 +4846,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>576</v>
       </c>
@@ -4863,7 +4866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -4877,7 +4880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -4891,7 +4894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>488</v>
       </c>
@@ -4959,7 +4962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -4987,7 +4990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -5001,7 +5004,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>579</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -5041,7 +5044,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>355</v>
       </c>
@@ -5055,7 +5058,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -5069,7 +5072,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -5117,7 +5120,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -5131,7 +5134,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -5145,7 +5148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>530</v>
       </c>
@@ -5165,7 +5168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -5179,7 +5182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -5193,7 +5196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>303</v>
       </c>
@@ -5207,7 +5210,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>367</v>
       </c>
@@ -5221,7 +5224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>593</v>
       </c>
@@ -5241,7 +5244,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>302</v>
       </c>
@@ -5255,7 +5258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5275,7 +5278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -5289,7 +5292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -5303,7 +5306,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>367</v>
       </c>
@@ -5317,7 +5320,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>455</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>456</v>
       </c>
@@ -5357,7 +5360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -5371,7 +5374,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -5385,7 +5388,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>355</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>297</v>
       </c>
@@ -5447,7 +5450,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>298</v>
       </c>
@@ -5461,7 +5464,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>588</v>
       </c>
@@ -5481,7 +5484,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -5515,7 +5518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -5529,7 +5532,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>553</v>
       </c>
@@ -5563,7 +5566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -5591,7 +5594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>471</v>
       </c>
@@ -5639,7 +5642,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>544</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>545</v>
       </c>
@@ -5673,7 +5676,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>545</v>
       </c>
@@ -5699,23 +5702,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E87" activeCellId="16" sqref="E2:E4 E7:E8 E11:E15 E17:E20 E22:E26 E28:E32 E35 E37:E40 E42:E43 E46:E47 E50:E55 E61:E62 E65:E69 E72:E73 E76 E79:E84 E87:E90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -5769,7 +5772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -5783,7 +5786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -5817,7 +5820,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -5831,7 +5834,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -5845,7 +5848,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>408</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>298</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -5907,7 +5910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -5921,7 +5924,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>594</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -6003,7 +6006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>302</v>
       </c>
@@ -6031,7 +6034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>303</v>
       </c>
@@ -6045,7 +6048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>367</v>
       </c>
@@ -6059,7 +6062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -6079,7 +6082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -6093,7 +6096,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -6135,7 +6138,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -6149,7 +6152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>297</v>
       </c>
@@ -6183,7 +6186,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>298</v>
       </c>
@@ -6197,7 +6200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>302</v>
       </c>
@@ -6211,7 +6214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>303</v>
       </c>
@@ -6225,7 +6228,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>367</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -6259,7 +6262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -6273,7 +6276,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>302</v>
       </c>
@@ -6287,7 +6290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>607</v>
       </c>
@@ -6307,7 +6310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>297</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>298</v>
       </c>
@@ -6335,7 +6338,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>494</v>
       </c>
@@ -6355,7 +6358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>297</v>
       </c>
@@ -6369,7 +6372,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -6397,7 +6400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -6411,7 +6414,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>367</v>
       </c>
@@ -6425,7 +6428,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>437</v>
       </c>
@@ -6445,7 +6448,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>631</v>
       </c>
@@ -6465,7 +6468,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>632</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -6499,7 +6502,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>302</v>
       </c>
@@ -6513,7 +6516,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -6533,7 +6536,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -6547,7 +6550,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>297</v>
       </c>
@@ -6561,7 +6564,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>298</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>302</v>
       </c>
@@ -6589,7 +6592,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>303</v>
       </c>
@@ -6603,7 +6606,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>455</v>
       </c>
@@ -6623,7 +6626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>298</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>302</v>
       </c>
@@ -6651,7 +6654,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>456</v>
       </c>
@@ -6671,7 +6674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>298</v>
       </c>
@@ -6685,7 +6688,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>373</v>
       </c>
@@ -6705,7 +6708,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>355</v>
       </c>
@@ -6719,7 +6722,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>297</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>298</v>
       </c>
@@ -6747,7 +6750,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>302</v>
       </c>
@@ -6761,7 +6764,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>303</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>367</v>
       </c>
@@ -6789,7 +6792,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>653</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>298</v>
       </c>
@@ -6823,7 +6826,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>302</v>
       </c>
@@ -6837,7 +6840,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>303</v>
       </c>
@@ -6851,7 +6854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>367</v>
       </c>
@@ -6863,6 +6866,40 @@
       </c>
       <c r="F91" t="s">
         <v>655</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>464</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" t="s">
+        <v>537</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>298</v>
+      </c>
+      <c r="D94" t="s">
+        <v>352</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -6879,21 +6916,21 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6913,7 +6950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -6934,7 +6971,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -6955,7 +6992,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -6976,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -6997,7 +7034,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -7018,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -7039,7 +7076,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -7060,7 +7097,7 @@
         <v>0.64406779661016944</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7081,7 +7118,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -7102,7 +7139,7 @@
         <v>0.77586206896551724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -7123,34 +7160,34 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.77966101694915257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -7158,24 +7195,24 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.59020618556701032</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.58868894601542421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>16.181818181818183</v>
+        <v>16.272727272727273</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -7183,15 +7220,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>35.272727272727273</v>
+        <v>35.363636363636367</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.454545454545455</v>
+        <v>14.545454545454545</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.59020618556701032</v>
+        <v>0.58868894601542421</v>
       </c>
     </row>
   </sheetData>
@@ -7216,21 +7253,21 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7250,7 +7287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -7270,7 +7307,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7298,21 +7335,21 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7332,7 +7369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -7352,7 +7389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7366,7 +7403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -7386,7 +7423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -7400,7 +7437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>610</v>
       </c>
@@ -7420,7 +7457,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>298</v>
       </c>
@@ -7434,7 +7471,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>611</v>
       </c>
@@ -7454,7 +7491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -7468,7 +7505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>293</v>
       </c>
@@ -7482,7 +7519,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -7502,7 +7539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -7522,7 +7559,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>298</v>
       </c>
@@ -7536,7 +7573,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>302</v>
       </c>
@@ -7550,7 +7587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>303</v>
       </c>
@@ -7564,7 +7601,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>621</v>
       </c>
@@ -7584,7 +7621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -7618,21 +7655,21 @@
   </sheetPr>
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7652,7 +7689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -7672,7 +7709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7686,7 +7723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>293</v>
       </c>
@@ -7700,7 +7737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -7720,7 +7757,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -7734,7 +7771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -7754,7 +7791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -7768,7 +7805,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>302</v>
       </c>
@@ -7782,7 +7819,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>303</v>
       </c>
@@ -7796,7 +7833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>307</v>
       </c>
@@ -7816,7 +7853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>298</v>
       </c>
@@ -7830,7 +7867,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -7850,7 +7887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>312</v>
       </c>
@@ -7870,7 +7907,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -7884,7 +7921,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -7904,7 +7941,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -7918,7 +7955,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -7938,7 +7975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>44</v>
       </c>
@@ -7952,7 +7989,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>293</v>
       </c>
@@ -7966,7 +8003,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>297</v>
       </c>
@@ -7980,7 +8017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -7994,7 +8031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>302</v>
       </c>
@@ -8008,7 +8045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>325</v>
       </c>
@@ -8028,7 +8065,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8042,7 +8079,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -8056,7 +8093,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>329</v>
       </c>
@@ -8076,7 +8113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -8090,7 +8127,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>297</v>
       </c>
@@ -8104,7 +8141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>298</v>
       </c>
@@ -8118,7 +8155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>334</v>
       </c>
@@ -8138,7 +8175,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -8152,7 +8189,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>293</v>
       </c>
@@ -8166,7 +8203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>297</v>
       </c>
@@ -8180,7 +8217,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>298</v>
       </c>
@@ -8194,7 +8231,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>340</v>
       </c>
@@ -8214,7 +8251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>44</v>
       </c>
@@ -8228,7 +8265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>293</v>
       </c>
@@ -8242,7 +8279,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>356</v>
       </c>
@@ -8262,7 +8299,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -8276,7 +8313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -8296,7 +8333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>44</v>
       </c>
@@ -8310,7 +8347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -8324,7 +8361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -8338,7 +8375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>363</v>
       </c>
@@ -8358,7 +8395,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>298</v>
       </c>
@@ -8372,7 +8409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>302</v>
       </c>
@@ -8386,7 +8423,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>366</v>
       </c>
@@ -8406,7 +8443,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -8420,7 +8457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -8434,7 +8471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -8448,7 +8485,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -8462,7 +8499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>373</v>
       </c>
@@ -8482,7 +8519,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>375</v>
       </c>
@@ -8502,7 +8539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>298</v>
       </c>
@@ -8516,7 +8553,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>302</v>
       </c>
@@ -8530,7 +8567,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>303</v>
       </c>
@@ -8544,7 +8581,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>367</v>
       </c>
@@ -8558,7 +8595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>381</v>
       </c>
@@ -8578,7 +8615,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>44</v>
       </c>
@@ -8592,7 +8629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>297</v>
       </c>
@@ -8606,7 +8643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -8620,7 +8657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>385</v>
       </c>
@@ -8640,7 +8677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>298</v>
       </c>
@@ -8654,7 +8691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>302</v>
       </c>
@@ -8668,7 +8705,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>388</v>
       </c>
@@ -8688,7 +8725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>298</v>
       </c>
@@ -8702,7 +8739,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>302</v>
       </c>
@@ -8716,7 +8753,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>303</v>
       </c>
@@ -8730,7 +8767,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -8750,7 +8787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>44</v>
       </c>
@@ -8764,7 +8801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>297</v>
       </c>
@@ -8778,7 +8815,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -8792,7 +8829,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -8806,7 +8843,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -8826,7 +8863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>298</v>
       </c>
@@ -8840,7 +8877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>302</v>
       </c>
@@ -8854,7 +8891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>303</v>
       </c>
@@ -8868,7 +8905,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -8888,7 +8925,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>298</v>
       </c>
@@ -8902,7 +8939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>302</v>
       </c>
@@ -8916,7 +8953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>404</v>
       </c>
@@ -8936,7 +8973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>298</v>
       </c>
@@ -8950,7 +8987,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>302</v>
       </c>
@@ -8964,7 +9001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>303</v>
       </c>
@@ -8992,21 +9029,21 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9026,7 +9063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -9046,7 +9083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -9060,7 +9097,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -9074,7 +9111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -9088,7 +9125,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>367</v>
       </c>
@@ -9102,7 +9139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -9122,7 +9159,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -9139,7 +9176,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -9159,7 +9196,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -9173,7 +9210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -9187,7 +9224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -9207,7 +9244,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -9221,7 +9258,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -9235,7 +9272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>427</v>
       </c>
@@ -9255,7 +9292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>298</v>
       </c>
@@ -9269,7 +9306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -9289,7 +9326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -9309,7 +9346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -9329,7 +9366,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -9349,7 +9386,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>437</v>
       </c>
@@ -9369,7 +9406,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>329</v>
       </c>
@@ -9389,7 +9426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -9403,7 +9440,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>297</v>
       </c>
@@ -9417,7 +9454,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -9431,7 +9468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -9445,7 +9482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>444</v>
       </c>
@@ -9465,7 +9502,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -9479,7 +9516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -9493,7 +9530,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>447</v>
       </c>
@@ -9513,7 +9550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -9527,7 +9564,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -9541,7 +9578,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -9555,7 +9592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -9575,7 +9612,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>355</v>
       </c>
@@ -9589,7 +9626,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -9609,7 +9646,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>297</v>
       </c>
@@ -9623,7 +9660,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>298</v>
       </c>
@@ -9637,7 +9674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>302</v>
       </c>
@@ -9651,7 +9688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>455</v>
       </c>
@@ -9671,7 +9708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>456</v>
       </c>
@@ -9691,7 +9728,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>458</v>
       </c>
@@ -9711,7 +9748,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>373</v>
       </c>
@@ -9731,7 +9768,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>381</v>
       </c>
@@ -9751,7 +9788,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>462</v>
       </c>
@@ -9771,7 +9808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -9791,7 +9828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -9811,7 +9848,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -9825,7 +9862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>302</v>
       </c>
@@ -9839,7 +9876,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>468</v>
       </c>
@@ -9859,7 +9896,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>298</v>
       </c>
@@ -9873,7 +9910,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>302</v>
       </c>
@@ -9887,7 +9924,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>471</v>
       </c>
@@ -9921,21 +9958,21 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9955,7 +9992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -9975,7 +10012,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -9995,7 +10032,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>44</v>
       </c>
@@ -10009,7 +10046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>297</v>
       </c>
@@ -10023,7 +10060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -10037,7 +10074,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>302</v>
       </c>
@@ -10051,7 +10088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>303</v>
       </c>
@@ -10065,7 +10102,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>367</v>
       </c>
@@ -10079,7 +10116,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -10099,7 +10136,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>355</v>
       </c>
@@ -10113,7 +10150,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -10133,7 +10170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>408</v>
       </c>
@@ -10153,7 +10190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -10167,7 +10204,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -10181,7 +10218,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -10195,7 +10232,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -10209,7 +10246,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -10229,7 +10266,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>355</v>
       </c>
@@ -10243,7 +10280,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>297</v>
       </c>
@@ -10257,7 +10294,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>488</v>
       </c>
@@ -10277,7 +10314,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -10291,7 +10328,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>418</v>
       </c>
@@ -10308,7 +10345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -10328,7 +10365,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>297</v>
       </c>
@@ -10342,7 +10379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>492</v>
       </c>
@@ -10362,7 +10399,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>607</v>
       </c>
@@ -10382,7 +10419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>494</v>
       </c>
@@ -10402,7 +10439,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>437</v>
       </c>
@@ -10422,7 +10459,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -10442,7 +10479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -10456,7 +10493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>444</v>
       </c>
@@ -10476,7 +10513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -10490,7 +10527,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>447</v>
       </c>
@@ -10510,7 +10547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>340</v>
       </c>
@@ -10530,7 +10567,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>355</v>
       </c>
@@ -10544,7 +10581,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>297</v>
       </c>
@@ -10558,7 +10595,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>450</v>
       </c>
@@ -10578,7 +10615,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -10592,7 +10629,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>455</v>
       </c>
@@ -10612,7 +10649,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -10626,7 +10663,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>355</v>
       </c>
@@ -10640,7 +10677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>297</v>
       </c>
@@ -10654,7 +10691,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -10668,7 +10705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>456</v>
       </c>
@@ -10688,7 +10725,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -10702,7 +10739,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -10716,7 +10753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>458</v>
       </c>
@@ -10736,7 +10773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>297</v>
       </c>
@@ -10750,7 +10787,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>298</v>
       </c>
@@ -10764,7 +10801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>302</v>
       </c>
@@ -10778,7 +10815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>303</v>
       </c>
@@ -10792,7 +10829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>367</v>
       </c>
@@ -10806,7 +10843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>373</v>
       </c>
@@ -10826,7 +10863,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>355</v>
       </c>
@@ -10840,7 +10877,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>297</v>
       </c>
@@ -10854,7 +10891,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>381</v>
       </c>
@@ -10874,7 +10911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -10888,7 +10925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>302</v>
       </c>
@@ -10902,7 +10939,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>462</v>
       </c>
@@ -10922,7 +10959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -10936,7 +10973,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>297</v>
       </c>
@@ -10950,7 +10987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>298</v>
       </c>
@@ -10964,7 +11001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>302</v>
       </c>
@@ -10978,7 +11015,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>303</v>
       </c>
@@ -10992,7 +11029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>367</v>
       </c>
@@ -11006,7 +11043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>464</v>
       </c>
@@ -11026,7 +11063,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>297</v>
       </c>
@@ -11040,7 +11077,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -11060,7 +11097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -11074,7 +11111,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>303</v>
       </c>
@@ -11088,7 +11125,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>515</v>
       </c>
@@ -11108,7 +11145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>298</v>
       </c>
@@ -11122,7 +11159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>302</v>
       </c>
@@ -11136,7 +11173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>303</v>
       </c>
@@ -11150,7 +11187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>471</v>
       </c>
@@ -11170,7 +11207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>297</v>
       </c>
@@ -11198,21 +11235,21 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11232,7 +11269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>517</v>
       </c>
@@ -11252,7 +11289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>302</v>
       </c>
@@ -11266,7 +11303,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>303</v>
       </c>
@@ -11280,7 +11317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>367</v>
       </c>
@@ -11294,7 +11331,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -11314,7 +11351,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -11328,7 +11365,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -11342,7 +11379,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -11356,7 +11393,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -11373,7 +11410,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>522</v>
       </c>
@@ -11393,7 +11430,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>302</v>
       </c>
@@ -11407,7 +11444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>303</v>
       </c>
@@ -11421,7 +11458,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>367</v>
       </c>
@@ -11435,7 +11472,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -11455,7 +11492,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -11469,7 +11506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -11483,7 +11520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>303</v>
       </c>
@@ -11497,7 +11534,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>427</v>
       </c>
@@ -11517,7 +11554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>430</v>
       </c>
@@ -11537,7 +11574,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -11551,7 +11588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -11571,7 +11608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>297</v>
       </c>
@@ -11585,7 +11622,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -11599,7 +11636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -11619,7 +11656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -11633,7 +11670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -11647,7 +11684,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -11661,7 +11698,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -11675,7 +11712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>526</v>
       </c>
@@ -11695,7 +11732,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -11709,7 +11746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -11723,7 +11760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>303</v>
       </c>
@@ -11737,7 +11774,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>367</v>
       </c>
@@ -11751,7 +11788,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>607</v>
       </c>
@@ -11771,7 +11808,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>494</v>
       </c>
@@ -11791,7 +11828,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>437</v>
       </c>
@@ -11811,7 +11848,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -11831,7 +11868,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>444</v>
       </c>
@@ -11851,7 +11888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>298</v>
       </c>
@@ -11865,7 +11902,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>302</v>
       </c>
@@ -11879,7 +11916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>303</v>
       </c>
@@ -11893,7 +11930,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>340</v>
       </c>
@@ -11913,7 +11950,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>355</v>
       </c>
@@ -11927,7 +11964,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>297</v>
       </c>
@@ -11941,7 +11978,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -11961,7 +11998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>298</v>
       </c>
@@ -11975,7 +12012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>302</v>
       </c>
@@ -11989,7 +12026,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>303</v>
       </c>
@@ -12003,7 +12040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>367</v>
       </c>
@@ -12017,7 +12054,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>455</v>
       </c>
@@ -12037,7 +12074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -12051,7 +12088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -12065,7 +12102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -12079,7 +12116,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -12093,7 +12130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>456</v>
       </c>
@@ -12113,7 +12150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>297</v>
       </c>
@@ -12127,7 +12164,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>298</v>
       </c>
@@ -12141,7 +12178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>302</v>
       </c>
@@ -12155,7 +12192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>303</v>
       </c>
@@ -12169,7 +12206,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>367</v>
       </c>
@@ -12183,7 +12220,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>373</v>
       </c>
@@ -12203,7 +12240,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>355</v>
       </c>
@@ -12217,7 +12254,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>297</v>
       </c>
@@ -12231,7 +12268,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>298</v>
       </c>
@@ -12245,7 +12282,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>302</v>
       </c>
@@ -12259,7 +12296,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>303</v>
       </c>
@@ -12273,7 +12310,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -12287,7 +12324,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -12307,7 +12344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>302</v>
       </c>
@@ -12321,7 +12358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>303</v>
       </c>
@@ -12335,7 +12372,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>367</v>
       </c>
@@ -12349,7 +12386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>464</v>
       </c>
@@ -12369,7 +12406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>298</v>
       </c>
@@ -12383,7 +12420,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>302</v>
       </c>
@@ -12397,7 +12434,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>303</v>
       </c>
@@ -12411,7 +12448,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>367</v>
       </c>
@@ -12425,7 +12462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>471</v>
       </c>
@@ -12445,7 +12482,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>544</v>
       </c>
@@ -12465,7 +12502,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>545</v>
       </c>
@@ -12479,7 +12516,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>545</v>
       </c>
@@ -12506,21 +12543,21 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12540,7 +12577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -12560,7 +12597,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -12574,7 +12611,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -12588,7 +12625,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -12602,7 +12639,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -12622,7 +12659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>424</v>
       </c>
@@ -12642,7 +12679,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>302</v>
       </c>
@@ -12656,7 +12693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -12676,7 +12713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -12690,7 +12727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -12704,7 +12741,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>373</v>
       </c>
@@ -12724,7 +12761,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>355</v>
       </c>
@@ -12738,7 +12775,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -12752,7 +12789,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -12766,7 +12803,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -12780,7 +12817,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>303</v>
       </c>
@@ -12794,7 +12831,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -12814,7 +12851,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -12834,7 +12871,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>381</v>
       </c>
@@ -12854,7 +12891,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -12868,7 +12905,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>553</v>
       </c>
@@ -12888,7 +12925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -12902,7 +12939,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>302</v>
       </c>
@@ -12916,7 +12953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>471</v>
       </c>
@@ -12936,7 +12973,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -12950,7 +12987,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -12964,7 +13001,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -12978,7 +13015,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -12992,7 +13029,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>544</v>
       </c>
@@ -13012,7 +13049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>545</v>
       </c>
@@ -13026,7 +13063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>545</v>
       </c>
@@ -13040,7 +13077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>303</v>
       </c>
@@ -13054,7 +13091,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>367</v>
       </c>
@@ -13081,21 +13118,21 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61:C67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13115,7 +13152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -13135,7 +13172,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -13149,7 +13186,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -13163,7 +13200,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -13177,7 +13214,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -13191,7 +13228,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -13205,7 +13242,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -13219,7 +13256,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -13239,7 +13276,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>424</v>
       </c>
@@ -13259,7 +13296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -13273,7 +13310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -13287,7 +13324,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -13301,7 +13338,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>488</v>
       </c>
@@ -13321,7 +13358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -13335,7 +13372,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -13349,7 +13386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -13363,7 +13400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>607</v>
       </c>
@@ -13383,7 +13420,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -13397,7 +13434,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>494</v>
       </c>
@@ -13417,7 +13454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>437</v>
       </c>
@@ -13437,7 +13474,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -13451,7 +13488,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -13465,7 +13502,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -13479,7 +13516,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -13493,7 +13530,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>530</v>
       </c>
@@ -13513,7 +13550,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>560</v>
       </c>
@@ -13533,7 +13570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -13547,7 +13584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -13561,7 +13598,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -13575,7 +13612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -13595,7 +13632,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>355</v>
       </c>
@@ -13609,7 +13646,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>297</v>
       </c>
@@ -13623,7 +13660,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -13637,7 +13674,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>566</v>
       </c>
@@ -13657,7 +13694,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>297</v>
       </c>
@@ -13671,7 +13708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -13685,7 +13722,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>302</v>
       </c>
@@ -13699,7 +13736,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>455</v>
       </c>
@@ -13719,7 +13756,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>298</v>
       </c>
@@ -13733,7 +13770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>302</v>
       </c>
@@ -13747,7 +13784,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>303</v>
       </c>
@@ -13761,7 +13798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>367</v>
       </c>
@@ -13775,7 +13812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>456</v>
       </c>
@@ -13795,7 +13832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -13809,7 +13846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>302</v>
       </c>
@@ -13823,7 +13860,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>303</v>
       </c>
@@ -13837,7 +13874,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>373</v>
       </c>
@@ -13857,7 +13894,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>355</v>
       </c>
@@ -13871,7 +13908,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>297</v>
       </c>
@@ -13885,7 +13922,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -13899,7 +13936,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -13913,7 +13950,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -13927,7 +13964,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -13941,7 +13978,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>430</v>
       </c>
@@ -13961,7 +13998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>297</v>
       </c>
@@ -13975,7 +14012,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -13989,7 +14026,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -14009,7 +14046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>298</v>
       </c>
@@ -14023,7 +14060,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>302</v>
       </c>
@@ -14037,7 +14074,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>303</v>
       </c>
@@ -14051,7 +14088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -14065,7 +14102,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>544</v>
       </c>
@@ -14085,7 +14122,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>545</v>
       </c>
@@ -14099,7 +14136,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>545</v>
       </c>
@@ -14113,7 +14150,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>303</v>
       </c>
@@ -14127,7 +14164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -14141,7 +14178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>418</v>
       </c>
@@ -14158,7 +14195,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>467</v>
       </c>
@@ -14169,7 +14206,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>574</v>
       </c>
@@ -14180,7 +14217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>362</v>
       </c>
@@ -14191,7 +14228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>535</v>
       </c>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23826" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C292A551-E27B-4FA4-A0CF-C7ECC240449D}"/>
+  <xr:revisionPtr revIDLastSave="23845" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{451C6AD7-D749-4183-8BB6-33C84754CCD5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="10" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="661">
   <si>
     <t>ROUND</t>
   </si>
@@ -2017,6 +2017,18 @@
   </si>
   <si>
     <t>7-6(8) 6-2</t>
+  </si>
+  <si>
+    <t>Arthur Fils (FRANCE)</t>
+  </si>
+  <si>
+    <t>3-6 6-2 6-4</t>
+  </si>
+  <si>
+    <t>6-4 7-6(6)</t>
+  </si>
+  <si>
+    <t>7-6(7) 4-6 6-3</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2331,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2433,7 +2445,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,7 +2968,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76666666666666672</c:v>
+                  <c:v>0.765625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4249,7 +4261,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F5426898-72E0-4038-BEB0-23E01A76D388}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4261,7 +4273,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{42B570F3-198C-4935-9F8D-F5D11F8C7A7A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4641,7 +4653,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -4708,7 +4720,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -5702,10 +5714,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E96" activeCellId="18" sqref="E2:E4 E7:E8 E11:E15 E17:E20 E22:E26 E28:E32 E35 E37:E40 E42:E43 E46:E47 E50:E55 E61:E62 E65:E69 E72:E73 E76 E79:E84 E87:E90 E93 E96:E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6902,6 +6914,82 @@
         <v>656</v>
       </c>
     </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>553</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" t="s">
+        <v>297</v>
+      </c>
+      <c r="D96" t="s">
+        <v>657</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>298</v>
+      </c>
+      <c r="D97" t="s">
+        <v>446</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>302</v>
+      </c>
+      <c r="D98" t="s">
+        <v>348</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>303</v>
+      </c>
+      <c r="D99" t="s">
+        <v>489</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>367</v>
+      </c>
+      <c r="D100" t="s">
+        <v>547</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" t="s">
+        <v>660</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -6916,7 +7004,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7165,20 +7253,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.76666666666666672</v>
+        <v>0.765625</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7187,7 +7275,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -7195,15 +7283,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58868894601542421</v>
+        <v>0.59033078880407119</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7212,7 +7300,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>16.272727272727273</v>
+        <v>16.363636363636363</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -7220,15 +7308,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>35.363636363636367</v>
+        <v>35.727272727272727</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.545454545454545</v>
+        <v>14.636363636363637</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.58868894601542421</v>
+        <v>0.59033078880407119</v>
       </c>
     </row>
   </sheetData>
@@ -7253,7 +7341,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -7335,7 +7423,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -7655,7 +7743,7 @@
   </sheetPr>
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -9029,7 +9117,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -9958,7 +10046,7 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -11235,7 +11323,7 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -12543,7 +12631,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -13118,7 +13206,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23845" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{451C6AD7-D749-4183-8BB6-33C84754CCD5}"/>
+  <xr:revisionPtr revIDLastSave="23853" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F5CEB4C-5D83-43A5-B63E-5218E828AC2E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="662">
   <si>
     <t>ROUND</t>
   </si>
@@ -2029,6 +2029,9 @@
   </si>
   <si>
     <t>7-6(7) 4-6 6-3</t>
+  </si>
+  <si>
+    <t>6-3 6-7(4) 7-6(2)</t>
   </si>
 </sst>
 </file>
@@ -2445,7 +2448,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2968,7 +2971,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.765625</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4657,17 +4660,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4687,7 +4690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -4724,17 +4727,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -4774,7 +4777,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -4788,7 +4791,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -4802,7 +4805,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -4816,7 +4819,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -4830,7 +4833,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -4844,7 +4847,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -4858,7 +4861,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>576</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -4940,7 +4943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -4954,7 +4957,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>488</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -4988,7 +4991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -5002,7 +5005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>579</v>
       </c>
@@ -5036,7 +5039,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -5056,7 +5059,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>355</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -5098,7 +5101,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -5118,7 +5121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -5132,7 +5135,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>530</v>
       </c>
@@ -5180,7 +5183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -5194,7 +5197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>303</v>
       </c>
@@ -5222,7 +5225,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>367</v>
       </c>
@@ -5236,7 +5239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>593</v>
       </c>
@@ -5256,7 +5259,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>302</v>
       </c>
@@ -5270,7 +5273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5290,7 +5293,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -5318,7 +5321,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>367</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>455</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>456</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -5400,7 +5403,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -5414,7 +5417,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -5434,7 +5437,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>355</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>297</v>
       </c>
@@ -5462,7 +5465,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>298</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>588</v>
       </c>
@@ -5496,7 +5499,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -5516,7 +5519,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -5530,7 +5533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -5544,7 +5547,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -5558,7 +5561,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>553</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -5620,7 +5623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -5634,7 +5637,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>471</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>544</v>
       </c>
@@ -5674,7 +5677,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>545</v>
       </c>
@@ -5688,7 +5691,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>545</v>
       </c>
@@ -5714,23 +5717,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E96" activeCellId="18" sqref="E2:E4 E7:E8 E11:E15 E17:E20 E22:E26 E28:E32 E35 E37:E40 E42:E43 E46:E47 E50:E55 E61:E62 E65:E69 E72:E73 E76 E79:E84 E87:E90 E93 E96:E99"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5750,7 +5753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -5784,7 +5787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -5798,7 +5801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -5832,7 +5835,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>408</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>298</v>
       </c>
@@ -5894,7 +5897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -5922,7 +5925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -5936,7 +5939,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>594</v>
       </c>
@@ -5956,7 +5959,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -5970,7 +5973,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -5984,7 +5987,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -5998,7 +6001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -6018,7 +6021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>302</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>303</v>
       </c>
@@ -6060,7 +6063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>367</v>
       </c>
@@ -6074,7 +6077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -6094,7 +6097,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -6108,7 +6111,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -6122,7 +6125,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -6164,7 +6167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>297</v>
       </c>
@@ -6198,7 +6201,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>298</v>
       </c>
@@ -6212,7 +6215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>302</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>303</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>367</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>302</v>
       </c>
@@ -6302,7 +6305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>607</v>
       </c>
@@ -6322,7 +6325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>297</v>
       </c>
@@ -6336,7 +6339,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>298</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>494</v>
       </c>
@@ -6370,7 +6373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>297</v>
       </c>
@@ -6384,7 +6387,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -6412,7 +6415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -6426,7 +6429,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>367</v>
       </c>
@@ -6440,7 +6443,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>437</v>
       </c>
@@ -6460,7 +6463,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>631</v>
       </c>
@@ -6480,7 +6483,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>632</v>
       </c>
@@ -6500,7 +6503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -6514,7 +6517,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>302</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -6548,7 +6551,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -6562,7 +6565,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>297</v>
       </c>
@@ -6576,7 +6579,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>298</v>
       </c>
@@ -6590,7 +6593,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>302</v>
       </c>
@@ -6604,7 +6607,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>303</v>
       </c>
@@ -6618,7 +6621,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>455</v>
       </c>
@@ -6638,7 +6641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>298</v>
       </c>
@@ -6652,7 +6655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>302</v>
       </c>
@@ -6666,7 +6669,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>456</v>
       </c>
@@ -6686,7 +6689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>298</v>
       </c>
@@ -6700,7 +6703,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>373</v>
       </c>
@@ -6720,7 +6723,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>355</v>
       </c>
@@ -6734,7 +6737,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>297</v>
       </c>
@@ -6748,7 +6751,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>298</v>
       </c>
@@ -6762,7 +6765,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>302</v>
       </c>
@@ -6776,7 +6779,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>303</v>
       </c>
@@ -6790,7 +6793,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>367</v>
       </c>
@@ -6804,7 +6807,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>653</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>298</v>
       </c>
@@ -6838,7 +6841,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>302</v>
       </c>
@@ -6852,7 +6855,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>303</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>367</v>
       </c>
@@ -6880,7 +6883,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>464</v>
       </c>
@@ -6900,7 +6903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -6914,7 +6917,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>553</v>
       </c>
@@ -6934,7 +6937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>298</v>
       </c>
@@ -6948,7 +6951,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>302</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>303</v>
       </c>
@@ -6976,7 +6979,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>367</v>
       </c>
@@ -6988,6 +6991,26 @@
       </c>
       <c r="F100" t="s">
         <v>660</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>471</v>
+      </c>
+      <c r="B102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" t="s">
+        <v>297</v>
+      </c>
+      <c r="D102" t="s">
+        <v>446</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -7007,18 +7030,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7038,7 +7061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -7059,7 +7082,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -7080,7 +7103,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -7101,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -7122,7 +7145,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -7143,7 +7166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -7164,7 +7187,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -7185,7 +7208,7 @@
         <v>0.64406779661016944</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7206,7 +7229,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -7227,7 +7250,7 @@
         <v>0.77586206896551724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -7248,12 +7271,12 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -7262,20 +7285,20 @@
         <v>64</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.765625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -7287,20 +7310,20 @@
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.59033078880407119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.58778625954198471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>16.363636363636363</v>
+        <v>16.454545454545453</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -7312,11 +7335,11 @@
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.636363636363637</v>
+        <v>14.727272727272727</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.59033078880407119</v>
+        <v>0.58778625954198471</v>
       </c>
     </row>
   </sheetData>
@@ -7345,17 +7368,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7375,7 +7398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -7395,7 +7418,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7427,17 +7450,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7457,7 +7480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -7477,7 +7500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7491,7 +7514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -7511,7 +7534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -7525,7 +7548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>610</v>
       </c>
@@ -7545,7 +7568,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>298</v>
       </c>
@@ -7559,7 +7582,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>611</v>
       </c>
@@ -7579,7 +7602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -7593,7 +7616,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>293</v>
       </c>
@@ -7607,7 +7630,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -7627,7 +7650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -7647,7 +7670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>298</v>
       </c>
@@ -7661,7 +7684,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>302</v>
       </c>
@@ -7675,7 +7698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>303</v>
       </c>
@@ -7689,7 +7712,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>621</v>
       </c>
@@ -7709,7 +7732,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -7747,17 +7770,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7777,7 +7800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -7797,7 +7820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7811,7 +7834,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>293</v>
       </c>
@@ -7825,7 +7848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -7845,7 +7868,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -7859,7 +7882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -7879,7 +7902,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -7893,7 +7916,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>302</v>
       </c>
@@ -7907,7 +7930,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>303</v>
       </c>
@@ -7921,7 +7944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>307</v>
       </c>
@@ -7941,7 +7964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>298</v>
       </c>
@@ -7955,7 +7978,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -7975,7 +7998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>312</v>
       </c>
@@ -7995,7 +8018,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -8009,7 +8032,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -8029,7 +8052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -8043,7 +8066,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -8063,7 +8086,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>44</v>
       </c>
@@ -8077,7 +8100,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>293</v>
       </c>
@@ -8091,7 +8114,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>297</v>
       </c>
@@ -8105,7 +8128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -8119,7 +8142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>302</v>
       </c>
@@ -8133,7 +8156,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>325</v>
       </c>
@@ -8153,7 +8176,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8167,7 +8190,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -8181,7 +8204,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>329</v>
       </c>
@@ -8201,7 +8224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -8215,7 +8238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>297</v>
       </c>
@@ -8229,7 +8252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>298</v>
       </c>
@@ -8243,7 +8266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>334</v>
       </c>
@@ -8263,7 +8286,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -8277,7 +8300,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>293</v>
       </c>
@@ -8291,7 +8314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>297</v>
       </c>
@@ -8305,7 +8328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>298</v>
       </c>
@@ -8319,7 +8342,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>340</v>
       </c>
@@ -8339,7 +8362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>44</v>
       </c>
@@ -8353,7 +8376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>293</v>
       </c>
@@ -8367,7 +8390,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>356</v>
       </c>
@@ -8387,7 +8410,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -8401,7 +8424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -8421,7 +8444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>44</v>
       </c>
@@ -8435,7 +8458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -8449,7 +8472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -8463,7 +8486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>363</v>
       </c>
@@ -8483,7 +8506,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>298</v>
       </c>
@@ -8497,7 +8520,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>302</v>
       </c>
@@ -8511,7 +8534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>366</v>
       </c>
@@ -8531,7 +8554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -8545,7 +8568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -8559,7 +8582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -8573,7 +8596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -8587,7 +8610,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>373</v>
       </c>
@@ -8607,7 +8630,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>375</v>
       </c>
@@ -8627,7 +8650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>298</v>
       </c>
@@ -8641,7 +8664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>302</v>
       </c>
@@ -8655,7 +8678,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>303</v>
       </c>
@@ -8669,7 +8692,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>367</v>
       </c>
@@ -8683,7 +8706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>381</v>
       </c>
@@ -8703,7 +8726,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>44</v>
       </c>
@@ -8717,7 +8740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>297</v>
       </c>
@@ -8731,7 +8754,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -8745,7 +8768,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>385</v>
       </c>
@@ -8765,7 +8788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>298</v>
       </c>
@@ -8779,7 +8802,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>302</v>
       </c>
@@ -8793,7 +8816,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>388</v>
       </c>
@@ -8813,7 +8836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>298</v>
       </c>
@@ -8827,7 +8850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>302</v>
       </c>
@@ -8841,7 +8864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>303</v>
       </c>
@@ -8855,7 +8878,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -8875,7 +8898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>44</v>
       </c>
@@ -8889,7 +8912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>297</v>
       </c>
@@ -8903,7 +8926,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -8917,7 +8940,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -8931,7 +8954,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -8951,7 +8974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>298</v>
       </c>
@@ -8965,7 +8988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>302</v>
       </c>
@@ -8979,7 +9002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>303</v>
       </c>
@@ -8993,7 +9016,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -9013,7 +9036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>298</v>
       </c>
@@ -9027,7 +9050,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>302</v>
       </c>
@@ -9041,7 +9064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>404</v>
       </c>
@@ -9061,7 +9084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>298</v>
       </c>
@@ -9075,7 +9098,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>302</v>
       </c>
@@ -9089,7 +9112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>303</v>
       </c>
@@ -9121,17 +9144,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9151,7 +9174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -9171,7 +9194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -9185,7 +9208,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -9199,7 +9222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -9213,7 +9236,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>367</v>
       </c>
@@ -9227,7 +9250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -9247,7 +9270,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -9264,7 +9287,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -9284,7 +9307,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -9298,7 +9321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -9312,7 +9335,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -9332,7 +9355,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -9346,7 +9369,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -9360,7 +9383,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>427</v>
       </c>
@@ -9380,7 +9403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>298</v>
       </c>
@@ -9394,7 +9417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -9414,7 +9437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -9434,7 +9457,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -9454,7 +9477,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -9474,7 +9497,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>437</v>
       </c>
@@ -9494,7 +9517,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>329</v>
       </c>
@@ -9514,7 +9537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -9528,7 +9551,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>297</v>
       </c>
@@ -9542,7 +9565,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -9556,7 +9579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -9570,7 +9593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>444</v>
       </c>
@@ -9590,7 +9613,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -9604,7 +9627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -9618,7 +9641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>447</v>
       </c>
@@ -9638,7 +9661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -9652,7 +9675,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -9666,7 +9689,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -9680,7 +9703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -9700,7 +9723,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>355</v>
       </c>
@@ -9714,7 +9737,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -9734,7 +9757,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>297</v>
       </c>
@@ -9748,7 +9771,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>298</v>
       </c>
@@ -9762,7 +9785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>302</v>
       </c>
@@ -9776,7 +9799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>455</v>
       </c>
@@ -9796,7 +9819,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>456</v>
       </c>
@@ -9816,7 +9839,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>458</v>
       </c>
@@ -9836,7 +9859,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>373</v>
       </c>
@@ -9856,7 +9879,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>381</v>
       </c>
@@ -9876,7 +9899,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>462</v>
       </c>
@@ -9896,7 +9919,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -9916,7 +9939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -9936,7 +9959,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -9950,7 +9973,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>302</v>
       </c>
@@ -9964,7 +9987,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>468</v>
       </c>
@@ -9984,7 +10007,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>298</v>
       </c>
@@ -9998,7 +10021,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>302</v>
       </c>
@@ -10012,7 +10035,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>471</v>
       </c>
@@ -10050,17 +10073,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10080,7 +10103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -10100,7 +10123,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -10120,7 +10143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>44</v>
       </c>
@@ -10134,7 +10157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>297</v>
       </c>
@@ -10148,7 +10171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -10162,7 +10185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>302</v>
       </c>
@@ -10176,7 +10199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>303</v>
       </c>
@@ -10190,7 +10213,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>367</v>
       </c>
@@ -10204,7 +10227,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -10224,7 +10247,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>355</v>
       </c>
@@ -10238,7 +10261,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -10258,7 +10281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>408</v>
       </c>
@@ -10278,7 +10301,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -10292,7 +10315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -10306,7 +10329,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -10320,7 +10343,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -10334,7 +10357,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -10354,7 +10377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>355</v>
       </c>
@@ -10368,7 +10391,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>297</v>
       </c>
@@ -10382,7 +10405,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>488</v>
       </c>
@@ -10402,7 +10425,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -10416,7 +10439,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>418</v>
       </c>
@@ -10433,7 +10456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -10453,7 +10476,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>297</v>
       </c>
@@ -10467,7 +10490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>492</v>
       </c>
@@ -10487,7 +10510,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>607</v>
       </c>
@@ -10507,7 +10530,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>494</v>
       </c>
@@ -10527,7 +10550,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>437</v>
       </c>
@@ -10547,7 +10570,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -10567,7 +10590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -10581,7 +10604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>444</v>
       </c>
@@ -10601,7 +10624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -10615,7 +10638,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>447</v>
       </c>
@@ -10635,7 +10658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>340</v>
       </c>
@@ -10655,7 +10678,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>355</v>
       </c>
@@ -10669,7 +10692,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>297</v>
       </c>
@@ -10683,7 +10706,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>450</v>
       </c>
@@ -10703,7 +10726,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -10717,7 +10740,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>455</v>
       </c>
@@ -10737,7 +10760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -10751,7 +10774,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>355</v>
       </c>
@@ -10765,7 +10788,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>297</v>
       </c>
@@ -10779,7 +10802,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -10793,7 +10816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>456</v>
       </c>
@@ -10813,7 +10836,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -10827,7 +10850,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -10841,7 +10864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>458</v>
       </c>
@@ -10861,7 +10884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>297</v>
       </c>
@@ -10875,7 +10898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>298</v>
       </c>
@@ -10889,7 +10912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>302</v>
       </c>
@@ -10903,7 +10926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>303</v>
       </c>
@@ -10917,7 +10940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>367</v>
       </c>
@@ -10931,7 +10954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>373</v>
       </c>
@@ -10951,7 +10974,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>355</v>
       </c>
@@ -10965,7 +10988,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>297</v>
       </c>
@@ -10979,7 +11002,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>381</v>
       </c>
@@ -10999,7 +11022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -11013,7 +11036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>302</v>
       </c>
@@ -11027,7 +11050,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>462</v>
       </c>
@@ -11047,7 +11070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -11061,7 +11084,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>297</v>
       </c>
@@ -11075,7 +11098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>298</v>
       </c>
@@ -11089,7 +11112,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>302</v>
       </c>
@@ -11103,7 +11126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>303</v>
       </c>
@@ -11117,7 +11140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>367</v>
       </c>
@@ -11131,7 +11154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>464</v>
       </c>
@@ -11151,7 +11174,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>297</v>
       </c>
@@ -11165,7 +11188,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -11185,7 +11208,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -11199,7 +11222,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>303</v>
       </c>
@@ -11213,7 +11236,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>515</v>
       </c>
@@ -11233,7 +11256,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>298</v>
       </c>
@@ -11247,7 +11270,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>302</v>
       </c>
@@ -11261,7 +11284,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>303</v>
       </c>
@@ -11275,7 +11298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>471</v>
       </c>
@@ -11295,7 +11318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>297</v>
       </c>
@@ -11327,17 +11350,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11357,7 +11380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>517</v>
       </c>
@@ -11377,7 +11400,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>302</v>
       </c>
@@ -11391,7 +11414,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>303</v>
       </c>
@@ -11405,7 +11428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>367</v>
       </c>
@@ -11419,7 +11442,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -11439,7 +11462,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -11453,7 +11476,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -11467,7 +11490,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -11481,7 +11504,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -11498,7 +11521,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>522</v>
       </c>
@@ -11518,7 +11541,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>302</v>
       </c>
@@ -11532,7 +11555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>303</v>
       </c>
@@ -11546,7 +11569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>367</v>
       </c>
@@ -11560,7 +11583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -11580,7 +11603,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -11594,7 +11617,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -11608,7 +11631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>303</v>
       </c>
@@ -11622,7 +11645,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>427</v>
       </c>
@@ -11642,7 +11665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>430</v>
       </c>
@@ -11662,7 +11685,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -11676,7 +11699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -11696,7 +11719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>297</v>
       </c>
@@ -11710,7 +11733,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -11724,7 +11747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -11744,7 +11767,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -11758,7 +11781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -11772,7 +11795,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -11786,7 +11809,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -11800,7 +11823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>526</v>
       </c>
@@ -11820,7 +11843,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -11834,7 +11857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -11848,7 +11871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>303</v>
       </c>
@@ -11862,7 +11885,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>367</v>
       </c>
@@ -11876,7 +11899,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>607</v>
       </c>
@@ -11896,7 +11919,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>494</v>
       </c>
@@ -11916,7 +11939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>437</v>
       </c>
@@ -11936,7 +11959,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -11956,7 +11979,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>444</v>
       </c>
@@ -11976,7 +11999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>298</v>
       </c>
@@ -11990,7 +12013,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>302</v>
       </c>
@@ -12004,7 +12027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>303</v>
       </c>
@@ -12018,7 +12041,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>340</v>
       </c>
@@ -12038,7 +12061,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>355</v>
       </c>
@@ -12052,7 +12075,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>297</v>
       </c>
@@ -12066,7 +12089,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -12086,7 +12109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>298</v>
       </c>
@@ -12100,7 +12123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>302</v>
       </c>
@@ -12114,7 +12137,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>303</v>
       </c>
@@ -12128,7 +12151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>367</v>
       </c>
@@ -12142,7 +12165,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>455</v>
       </c>
@@ -12162,7 +12185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -12176,7 +12199,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -12190,7 +12213,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -12204,7 +12227,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -12218,7 +12241,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>456</v>
       </c>
@@ -12238,7 +12261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>297</v>
       </c>
@@ -12252,7 +12275,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>298</v>
       </c>
@@ -12266,7 +12289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>302</v>
       </c>
@@ -12280,7 +12303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>303</v>
       </c>
@@ -12294,7 +12317,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>367</v>
       </c>
@@ -12308,7 +12331,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>373</v>
       </c>
@@ -12328,7 +12351,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>355</v>
       </c>
@@ -12342,7 +12365,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>297</v>
       </c>
@@ -12356,7 +12379,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>298</v>
       </c>
@@ -12370,7 +12393,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>302</v>
       </c>
@@ -12384,7 +12407,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>303</v>
       </c>
@@ -12398,7 +12421,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -12412,7 +12435,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -12432,7 +12455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>302</v>
       </c>
@@ -12446,7 +12469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>303</v>
       </c>
@@ -12460,7 +12483,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>367</v>
       </c>
@@ -12474,7 +12497,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>464</v>
       </c>
@@ -12494,7 +12517,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>298</v>
       </c>
@@ -12508,7 +12531,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>302</v>
       </c>
@@ -12522,7 +12545,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>303</v>
       </c>
@@ -12536,7 +12559,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>367</v>
       </c>
@@ -12550,7 +12573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>471</v>
       </c>
@@ -12570,7 +12593,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>544</v>
       </c>
@@ -12590,7 +12613,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>545</v>
       </c>
@@ -12604,7 +12627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>545</v>
       </c>
@@ -12635,17 +12658,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12665,7 +12688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -12685,7 +12708,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -12699,7 +12722,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -12713,7 +12736,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -12727,7 +12750,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -12747,7 +12770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>424</v>
       </c>
@@ -12767,7 +12790,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>302</v>
       </c>
@@ -12781,7 +12804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -12801,7 +12824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -12815,7 +12838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -12829,7 +12852,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>373</v>
       </c>
@@ -12849,7 +12872,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>355</v>
       </c>
@@ -12863,7 +12886,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -12877,7 +12900,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -12891,7 +12914,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -12905,7 +12928,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>303</v>
       </c>
@@ -12919,7 +12942,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -12939,7 +12962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -12959,7 +12982,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>381</v>
       </c>
@@ -12979,7 +13002,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -12993,7 +13016,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>553</v>
       </c>
@@ -13013,7 +13036,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -13027,7 +13050,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>302</v>
       </c>
@@ -13041,7 +13064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>471</v>
       </c>
@@ -13061,7 +13084,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -13075,7 +13098,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -13089,7 +13112,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -13103,7 +13126,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -13117,7 +13140,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>544</v>
       </c>
@@ -13137,7 +13160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>545</v>
       </c>
@@ -13151,7 +13174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>545</v>
       </c>
@@ -13165,7 +13188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>303</v>
       </c>
@@ -13179,7 +13202,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>367</v>
       </c>
@@ -13210,17 +13233,17 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13240,7 +13263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -13260,7 +13283,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -13274,7 +13297,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -13288,7 +13311,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -13302,7 +13325,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -13316,7 +13339,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -13330,7 +13353,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -13344,7 +13367,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -13364,7 +13387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>424</v>
       </c>
@@ -13384,7 +13407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -13398,7 +13421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -13412,7 +13435,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -13426,7 +13449,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>488</v>
       </c>
@@ -13446,7 +13469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -13460,7 +13483,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -13474,7 +13497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -13488,7 +13511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>607</v>
       </c>
@@ -13508,7 +13531,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -13522,7 +13545,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>494</v>
       </c>
@@ -13542,7 +13565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>437</v>
       </c>
@@ -13562,7 +13585,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -13576,7 +13599,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -13590,7 +13613,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -13604,7 +13627,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -13618,7 +13641,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>530</v>
       </c>
@@ -13638,7 +13661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>560</v>
       </c>
@@ -13658,7 +13681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -13672,7 +13695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -13686,7 +13709,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -13700,7 +13723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -13720,7 +13743,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>355</v>
       </c>
@@ -13734,7 +13757,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>297</v>
       </c>
@@ -13748,7 +13771,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -13762,7 +13785,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>566</v>
       </c>
@@ -13782,7 +13805,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>297</v>
       </c>
@@ -13796,7 +13819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -13810,7 +13833,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>302</v>
       </c>
@@ -13824,7 +13847,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>455</v>
       </c>
@@ -13844,7 +13867,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>298</v>
       </c>
@@ -13858,7 +13881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>302</v>
       </c>
@@ -13872,7 +13895,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>303</v>
       </c>
@@ -13886,7 +13909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>367</v>
       </c>
@@ -13900,7 +13923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>456</v>
       </c>
@@ -13920,7 +13943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -13934,7 +13957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>302</v>
       </c>
@@ -13948,7 +13971,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>303</v>
       </c>
@@ -13962,7 +13985,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>373</v>
       </c>
@@ -13982,7 +14005,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>355</v>
       </c>
@@ -13996,7 +14019,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>297</v>
       </c>
@@ -14010,7 +14033,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -14024,7 +14047,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -14038,7 +14061,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -14052,7 +14075,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -14066,7 +14089,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>430</v>
       </c>
@@ -14086,7 +14109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>297</v>
       </c>
@@ -14100,7 +14123,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -14114,7 +14137,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -14134,7 +14157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>298</v>
       </c>
@@ -14148,7 +14171,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>302</v>
       </c>
@@ -14162,7 +14185,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>303</v>
       </c>
@@ -14176,7 +14199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -14190,7 +14213,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>544</v>
       </c>
@@ -14210,7 +14233,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>545</v>
       </c>
@@ -14224,7 +14247,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>545</v>
       </c>
@@ -14238,7 +14261,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>303</v>
       </c>
@@ -14252,7 +14275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -14266,7 +14289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>418</v>
       </c>
@@ -14283,7 +14306,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>467</v>
       </c>
@@ -14294,7 +14317,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>574</v>
       </c>
@@ -14305,7 +14328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>362</v>
       </c>
@@ -14316,7 +14339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>535</v>
       </c>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23853" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F5CEB4C-5D83-43A5-B63E-5218E828AC2E}"/>
+  <xr:revisionPtr revIDLastSave="23875" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17AAFBE0-FAE9-4AFE-95B8-19829250CB86}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="663">
   <si>
     <t>ROUND</t>
   </si>
@@ -2032,6 +2032,9 @@
   </si>
   <si>
     <t>6-3 6-7(4) 7-6(2)</t>
+  </si>
+  <si>
+    <t>6-3 6-7(4) 6-1</t>
   </si>
 </sst>
 </file>
@@ -2334,7 +2337,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2448,7 +2451,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2971,7 +2974,7 @@
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.75</c:v>
+                  <c:v>0.72727272727272729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4657,17 +4660,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4723,18 +4726,18 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5717,20 +5720,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7011,6 +7014,68 @@
       </c>
       <c r="F102" t="s">
         <v>661</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>544</v>
+      </c>
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" t="s">
+        <v>545</v>
+      </c>
+      <c r="D104" t="s">
+        <v>399</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>545</v>
+      </c>
+      <c r="D105" t="s">
+        <v>384</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>545</v>
+      </c>
+      <c r="D106" t="s">
+        <v>563</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>303</v>
+      </c>
+      <c r="D107" t="s">
+        <v>547</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -7027,17 +7092,17 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7276,20 +7341,20 @@
         <v>2023</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -7298,7 +7363,7 @@
       </c>
       <c r="B13" s="2">
         <f>SUM(B2:B12)</f>
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C13" s="2">
         <f>SUM(C2:C12)</f>
@@ -7306,15 +7371,15 @@
       </c>
       <c r="D13" s="2">
         <f>SUM(D2:D12)</f>
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E13" s="2">
         <f>SUM(E2:E12)</f>
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58778625954198471</v>
+        <v>0.58481012658227849</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7323,7 +7388,7 @@
       </c>
       <c r="B14" s="2">
         <f>AVERAGE(B2:B12)</f>
-        <v>16.454545454545453</v>
+        <v>16.545454545454547</v>
       </c>
       <c r="C14" s="2">
         <f>AVERAGE(C2:C12)</f>
@@ -7331,15 +7396,15 @@
       </c>
       <c r="D14" s="2">
         <f>AVERAGE(D2:D12)</f>
-        <v>35.727272727272727</v>
+        <v>35.909090909090907</v>
       </c>
       <c r="E14" s="2">
         <f>AVERAGE(E2:E12)</f>
-        <v>14.727272727272727</v>
+        <v>14.909090909090908</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.58778625954198471</v>
+        <v>0.58481012658227849</v>
       </c>
     </row>
   </sheetData>
@@ -7365,17 +7430,17 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7447,17 +7512,17 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7767,17 +7832,17 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9141,17 +9206,17 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10070,17 +10135,17 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11347,17 +11412,17 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -12655,17 +12720,17 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13230,17 +13295,17 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23875" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17AAFBE0-FAE9-4AFE-95B8-19829250CB86}"/>
+  <xr:revisionPtr revIDLastSave="23877" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{835134D9-FA09-4E35-8083-CBAA699C0762}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -4267,7 +4267,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F5426898-72E0-4038-BEB0-23E01A76D388}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4279,7 +4279,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{42B570F3-198C-4935-9F8D-F5D11F8C7A7A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4351,10 +4351,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4659,7 +4655,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4726,8 +4722,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76:C78"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5722,8 +5718,8 @@
   </sheetPr>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7092,7 +7088,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7429,7 +7425,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7511,7 +7507,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7831,7 +7827,7 @@
   </sheetPr>
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9205,7 +9201,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10134,7 +10130,7 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11411,7 +11407,7 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12719,7 +12715,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13294,7 +13290,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23877" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{835134D9-FA09-4E35-8083-CBAA699C0762}"/>
+  <xr:revisionPtr revIDLastSave="23878" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66EA6BBC-CEF9-4FE2-9588-E80AB2C7C4E1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -4353,6 +4353,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4659,17 +4663,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4689,7 +4693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -4726,17 +4730,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4756,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -4776,7 +4780,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -4790,7 +4794,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -4804,7 +4808,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -4818,7 +4822,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -4832,7 +4836,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -4846,7 +4850,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -4860,7 +4864,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>576</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -4894,7 +4898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -4908,7 +4912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -4922,7 +4926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -4956,7 +4960,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>488</v>
       </c>
@@ -4976,7 +4980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -4990,7 +4994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -5004,7 +5008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -5018,7 +5022,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>579</v>
       </c>
@@ -5038,7 +5042,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -5058,7 +5062,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>355</v>
       </c>
@@ -5072,7 +5076,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -5086,7 +5090,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -5100,7 +5104,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -5120,7 +5124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -5134,7 +5138,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -5148,7 +5152,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -5162,7 +5166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>530</v>
       </c>
@@ -5182,7 +5186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -5196,7 +5200,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -5210,7 +5214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>303</v>
       </c>
@@ -5224,7 +5228,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>367</v>
       </c>
@@ -5238,7 +5242,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>593</v>
       </c>
@@ -5258,7 +5262,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>302</v>
       </c>
@@ -5272,7 +5276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5292,7 +5296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -5306,7 +5310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>367</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>455</v>
       </c>
@@ -5354,7 +5358,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>456</v>
       </c>
@@ -5374,7 +5378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -5388,7 +5392,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -5402,7 +5406,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -5416,7 +5420,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -5436,7 +5440,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>355</v>
       </c>
@@ -5450,7 +5454,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>297</v>
       </c>
@@ -5464,7 +5468,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>298</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>588</v>
       </c>
@@ -5498,7 +5502,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -5518,7 +5522,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -5546,7 +5550,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -5560,7 +5564,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>553</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -5608,7 +5612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -5622,7 +5626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -5636,7 +5640,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>471</v>
       </c>
@@ -5656,7 +5660,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>544</v>
       </c>
@@ -5676,7 +5680,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>545</v>
       </c>
@@ -5690,7 +5694,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>545</v>
       </c>
@@ -5722,17 +5726,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5752,7 +5756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -5772,7 +5776,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -5786,7 +5790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -5814,7 +5818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -5834,7 +5838,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -5862,7 +5866,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>408</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>298</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -5910,7 +5914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -5924,7 +5928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -5938,7 +5942,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>594</v>
       </c>
@@ -5958,7 +5962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -5972,7 +5976,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -6020,7 +6024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>302</v>
       </c>
@@ -6048,7 +6052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>303</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>367</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -6110,7 +6114,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -6124,7 +6128,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -6152,7 +6156,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -6166,7 +6170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -6186,7 +6190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>297</v>
       </c>
@@ -6200,7 +6204,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>298</v>
       </c>
@@ -6214,7 +6218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>302</v>
       </c>
@@ -6228,7 +6232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>303</v>
       </c>
@@ -6242,7 +6246,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>367</v>
       </c>
@@ -6256,7 +6260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -6276,7 +6280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -6290,7 +6294,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>302</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>607</v>
       </c>
@@ -6324,7 +6328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>297</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>298</v>
       </c>
@@ -6352,7 +6356,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>494</v>
       </c>
@@ -6372,7 +6376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>297</v>
       </c>
@@ -6386,7 +6390,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -6414,7 +6418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -6428,7 +6432,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>367</v>
       </c>
@@ -6442,7 +6446,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>437</v>
       </c>
@@ -6462,7 +6466,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>631</v>
       </c>
@@ -6482,7 +6486,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>632</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -6516,7 +6520,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>302</v>
       </c>
@@ -6530,7 +6534,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -6550,7 +6554,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>297</v>
       </c>
@@ -6578,7 +6582,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>298</v>
       </c>
@@ -6592,7 +6596,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>302</v>
       </c>
@@ -6606,7 +6610,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>303</v>
       </c>
@@ -6620,7 +6624,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>455</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>298</v>
       </c>
@@ -6654,7 +6658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>302</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>456</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>298</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>373</v>
       </c>
@@ -6722,7 +6726,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>355</v>
       </c>
@@ -6736,7 +6740,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>297</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>298</v>
       </c>
@@ -6764,7 +6768,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>302</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>303</v>
       </c>
@@ -6792,7 +6796,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>367</v>
       </c>
@@ -6806,7 +6810,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>653</v>
       </c>
@@ -6826,7 +6830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>298</v>
       </c>
@@ -6840,7 +6844,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>302</v>
       </c>
@@ -6854,7 +6858,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>303</v>
       </c>
@@ -6868,7 +6872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>367</v>
       </c>
@@ -6882,7 +6886,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>464</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -6916,7 +6920,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>553</v>
       </c>
@@ -6936,7 +6940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>298</v>
       </c>
@@ -6950,7 +6954,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>302</v>
       </c>
@@ -6964,7 +6968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>303</v>
       </c>
@@ -6978,7 +6982,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>367</v>
       </c>
@@ -6992,7 +6996,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>471</v>
       </c>
@@ -7012,7 +7016,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>544</v>
       </c>
@@ -7032,7 +7036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>545</v>
       </c>
@@ -7046,7 +7050,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>545</v>
       </c>
@@ -7060,7 +7064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>303</v>
       </c>
@@ -7091,18 +7095,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7122,7 +7126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -7143,7 +7147,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -7164,7 +7168,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -7185,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -7206,7 +7210,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -7227,7 +7231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -7248,7 +7252,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -7269,7 +7273,7 @@
         <v>0.64406779661016944</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7290,7 +7294,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>0.77586206896551724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -7332,7 +7336,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -7353,7 +7357,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>0.58481012658227849</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -7429,17 +7433,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7459,7 +7463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -7479,7 +7483,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7511,17 +7515,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -7561,7 +7565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7575,7 +7579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -7595,7 +7599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>610</v>
       </c>
@@ -7629,7 +7633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>298</v>
       </c>
@@ -7643,7 +7647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>611</v>
       </c>
@@ -7663,7 +7667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -7677,7 +7681,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>293</v>
       </c>
@@ -7691,7 +7695,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -7711,7 +7715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -7731,7 +7735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>298</v>
       </c>
@@ -7745,7 +7749,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>302</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>303</v>
       </c>
@@ -7773,7 +7777,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>621</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -7831,17 +7835,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7861,7 +7865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -7881,7 +7885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7895,7 +7899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>293</v>
       </c>
@@ -7909,7 +7913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -7929,7 +7933,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -7943,7 +7947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -7963,7 +7967,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -7977,7 +7981,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>302</v>
       </c>
@@ -7991,7 +7995,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>303</v>
       </c>
@@ -8005,7 +8009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>307</v>
       </c>
@@ -8025,7 +8029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>298</v>
       </c>
@@ -8039,7 +8043,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -8059,7 +8063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>312</v>
       </c>
@@ -8079,7 +8083,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -8093,7 +8097,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -8113,7 +8117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -8127,7 +8131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -8147,7 +8151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>44</v>
       </c>
@@ -8161,7 +8165,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>293</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>297</v>
       </c>
@@ -8189,7 +8193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -8203,7 +8207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>302</v>
       </c>
@@ -8217,7 +8221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>325</v>
       </c>
@@ -8237,7 +8241,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8251,7 +8255,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -8265,7 +8269,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>329</v>
       </c>
@@ -8285,7 +8289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -8299,7 +8303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>297</v>
       </c>
@@ -8313,7 +8317,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>298</v>
       </c>
@@ -8327,7 +8331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>334</v>
       </c>
@@ -8347,7 +8351,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -8361,7 +8365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>293</v>
       </c>
@@ -8375,7 +8379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>297</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>298</v>
       </c>
@@ -8403,7 +8407,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>340</v>
       </c>
@@ -8423,7 +8427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>44</v>
       </c>
@@ -8437,7 +8441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>293</v>
       </c>
@@ -8451,7 +8455,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>356</v>
       </c>
@@ -8471,7 +8475,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -8485,7 +8489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -8505,7 +8509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>44</v>
       </c>
@@ -8519,7 +8523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -8533,7 +8537,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -8547,7 +8551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>363</v>
       </c>
@@ -8567,7 +8571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>298</v>
       </c>
@@ -8581,7 +8585,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>302</v>
       </c>
@@ -8595,7 +8599,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>366</v>
       </c>
@@ -8615,7 +8619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -8629,7 +8633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -8643,7 +8647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -8657,7 +8661,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -8671,7 +8675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>373</v>
       </c>
@@ -8691,7 +8695,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>375</v>
       </c>
@@ -8711,7 +8715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>298</v>
       </c>
@@ -8725,7 +8729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>302</v>
       </c>
@@ -8739,7 +8743,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>303</v>
       </c>
@@ -8753,7 +8757,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>367</v>
       </c>
@@ -8767,7 +8771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>381</v>
       </c>
@@ -8787,7 +8791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>44</v>
       </c>
@@ -8801,7 +8805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>297</v>
       </c>
@@ -8815,7 +8819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -8829,7 +8833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>385</v>
       </c>
@@ -8849,7 +8853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>298</v>
       </c>
@@ -8863,7 +8867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>302</v>
       </c>
@@ -8877,7 +8881,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>388</v>
       </c>
@@ -8897,7 +8901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>298</v>
       </c>
@@ -8911,7 +8915,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>302</v>
       </c>
@@ -8925,7 +8929,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>303</v>
       </c>
@@ -8939,7 +8943,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -8959,7 +8963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>44</v>
       </c>
@@ -8973,7 +8977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>297</v>
       </c>
@@ -8987,7 +8991,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -9001,7 +9005,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -9015,7 +9019,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -9035,7 +9039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>298</v>
       </c>
@@ -9049,7 +9053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>302</v>
       </c>
@@ -9063,7 +9067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>303</v>
       </c>
@@ -9077,7 +9081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -9097,7 +9101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>298</v>
       </c>
@@ -9111,7 +9115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>302</v>
       </c>
@@ -9125,7 +9129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>404</v>
       </c>
@@ -9145,7 +9149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>298</v>
       </c>
@@ -9159,7 +9163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>302</v>
       </c>
@@ -9173,7 +9177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>303</v>
       </c>
@@ -9205,17 +9209,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9235,7 +9239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -9255,7 +9259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -9269,7 +9273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -9283,7 +9287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -9297,7 +9301,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>367</v>
       </c>
@@ -9311,7 +9315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -9331,7 +9335,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -9348,7 +9352,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -9368,7 +9372,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -9382,7 +9386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -9396,7 +9400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -9416,7 +9420,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -9430,7 +9434,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -9444,7 +9448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>427</v>
       </c>
@@ -9464,7 +9468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>298</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -9498,7 +9502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -9518,7 +9522,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -9558,7 +9562,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>437</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>329</v>
       </c>
@@ -9598,7 +9602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -9612,7 +9616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>297</v>
       </c>
@@ -9626,7 +9630,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -9654,7 +9658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>444</v>
       </c>
@@ -9674,7 +9678,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -9688,7 +9692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -9702,7 +9706,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>447</v>
       </c>
@@ -9722,7 +9726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -9736,7 +9740,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -9750,7 +9754,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -9764,7 +9768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -9784,7 +9788,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>355</v>
       </c>
@@ -9798,7 +9802,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -9818,7 +9822,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>297</v>
       </c>
@@ -9832,7 +9836,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>298</v>
       </c>
@@ -9846,7 +9850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>302</v>
       </c>
@@ -9860,7 +9864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>455</v>
       </c>
@@ -9880,7 +9884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>456</v>
       </c>
@@ -9900,7 +9904,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>458</v>
       </c>
@@ -9920,7 +9924,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>373</v>
       </c>
@@ -9940,7 +9944,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>381</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>462</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -10000,7 +10004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -10020,7 +10024,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -10034,7 +10038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>302</v>
       </c>
@@ -10048,7 +10052,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>468</v>
       </c>
@@ -10068,7 +10072,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>298</v>
       </c>
@@ -10082,7 +10086,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>302</v>
       </c>
@@ -10096,7 +10100,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>471</v>
       </c>
@@ -10134,17 +10138,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10164,7 +10168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -10184,7 +10188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -10204,7 +10208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>44</v>
       </c>
@@ -10218,7 +10222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>297</v>
       </c>
@@ -10232,7 +10236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -10246,7 +10250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>302</v>
       </c>
@@ -10260,7 +10264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>303</v>
       </c>
@@ -10274,7 +10278,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>367</v>
       </c>
@@ -10288,7 +10292,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -10308,7 +10312,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>355</v>
       </c>
@@ -10322,7 +10326,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -10342,7 +10346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>408</v>
       </c>
@@ -10362,7 +10366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -10376,7 +10380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -10390,7 +10394,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -10404,7 +10408,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -10418,7 +10422,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -10438,7 +10442,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>355</v>
       </c>
@@ -10452,7 +10456,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>297</v>
       </c>
@@ -10466,7 +10470,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>488</v>
       </c>
@@ -10486,7 +10490,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -10500,7 +10504,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>418</v>
       </c>
@@ -10517,7 +10521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -10537,7 +10541,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>297</v>
       </c>
@@ -10551,7 +10555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>492</v>
       </c>
@@ -10571,7 +10575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>607</v>
       </c>
@@ -10591,7 +10595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>494</v>
       </c>
@@ -10611,7 +10615,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>437</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -10651,7 +10655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -10665,7 +10669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>444</v>
       </c>
@@ -10685,7 +10689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -10699,7 +10703,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>447</v>
       </c>
@@ -10719,7 +10723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>340</v>
       </c>
@@ -10739,7 +10743,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>355</v>
       </c>
@@ -10753,7 +10757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>297</v>
       </c>
@@ -10767,7 +10771,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>450</v>
       </c>
@@ -10787,7 +10791,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -10801,7 +10805,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>455</v>
       </c>
@@ -10821,7 +10825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -10835,7 +10839,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>355</v>
       </c>
@@ -10849,7 +10853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>297</v>
       </c>
@@ -10863,7 +10867,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -10877,7 +10881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>456</v>
       </c>
@@ -10897,7 +10901,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -10911,7 +10915,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -10925,7 +10929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>458</v>
       </c>
@@ -10945,7 +10949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>297</v>
       </c>
@@ -10959,7 +10963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>298</v>
       </c>
@@ -10973,7 +10977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>302</v>
       </c>
@@ -10987,7 +10991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>303</v>
       </c>
@@ -11001,7 +11005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>367</v>
       </c>
@@ -11015,7 +11019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>373</v>
       </c>
@@ -11035,7 +11039,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>355</v>
       </c>
@@ -11049,7 +11053,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>297</v>
       </c>
@@ -11063,7 +11067,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>381</v>
       </c>
@@ -11083,7 +11087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -11097,7 +11101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>302</v>
       </c>
@@ -11111,7 +11115,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>462</v>
       </c>
@@ -11131,7 +11135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -11145,7 +11149,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>297</v>
       </c>
@@ -11159,7 +11163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>298</v>
       </c>
@@ -11173,7 +11177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>302</v>
       </c>
@@ -11187,7 +11191,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>303</v>
       </c>
@@ -11201,7 +11205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>367</v>
       </c>
@@ -11215,7 +11219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>464</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>297</v>
       </c>
@@ -11249,7 +11253,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -11269,7 +11273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -11283,7 +11287,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>303</v>
       </c>
@@ -11297,7 +11301,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>515</v>
       </c>
@@ -11317,7 +11321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>298</v>
       </c>
@@ -11331,7 +11335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>302</v>
       </c>
@@ -11345,7 +11349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>303</v>
       </c>
@@ -11359,7 +11363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>471</v>
       </c>
@@ -11379,7 +11383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>297</v>
       </c>
@@ -11411,17 +11415,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11441,7 +11445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>517</v>
       </c>
@@ -11461,7 +11465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>302</v>
       </c>
@@ -11475,7 +11479,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>303</v>
       </c>
@@ -11489,7 +11493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>367</v>
       </c>
@@ -11503,7 +11507,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -11523,7 +11527,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -11537,7 +11541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -11551,7 +11555,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -11565,7 +11569,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -11582,7 +11586,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>522</v>
       </c>
@@ -11602,7 +11606,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>302</v>
       </c>
@@ -11616,7 +11620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>303</v>
       </c>
@@ -11630,7 +11634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>367</v>
       </c>
@@ -11644,7 +11648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -11664,7 +11668,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -11678,7 +11682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -11692,7 +11696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>303</v>
       </c>
@@ -11706,7 +11710,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>427</v>
       </c>
@@ -11726,7 +11730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>430</v>
       </c>
@@ -11746,7 +11750,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -11760,7 +11764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -11780,7 +11784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>297</v>
       </c>
@@ -11794,7 +11798,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -11808,7 +11812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -11828,7 +11832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -11842,7 +11846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -11856,7 +11860,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -11870,7 +11874,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -11884,7 +11888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>526</v>
       </c>
@@ -11904,7 +11908,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -11918,7 +11922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -11932,7 +11936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>303</v>
       </c>
@@ -11946,7 +11950,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>367</v>
       </c>
@@ -11960,7 +11964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>607</v>
       </c>
@@ -11980,7 +11984,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>494</v>
       </c>
@@ -12000,7 +12004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>437</v>
       </c>
@@ -12020,7 +12024,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -12040,7 +12044,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>444</v>
       </c>
@@ -12060,7 +12064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>298</v>
       </c>
@@ -12074,7 +12078,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>302</v>
       </c>
@@ -12088,7 +12092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>303</v>
       </c>
@@ -12102,7 +12106,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>340</v>
       </c>
@@ -12122,7 +12126,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>355</v>
       </c>
@@ -12136,7 +12140,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>297</v>
       </c>
@@ -12150,7 +12154,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -12170,7 +12174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>298</v>
       </c>
@@ -12184,7 +12188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>302</v>
       </c>
@@ -12198,7 +12202,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>303</v>
       </c>
@@ -12212,7 +12216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>367</v>
       </c>
@@ -12226,7 +12230,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>455</v>
       </c>
@@ -12246,7 +12250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -12260,7 +12264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -12274,7 +12278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -12288,7 +12292,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -12302,7 +12306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>456</v>
       </c>
@@ -12322,7 +12326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>297</v>
       </c>
@@ -12336,7 +12340,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>298</v>
       </c>
@@ -12350,7 +12354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>302</v>
       </c>
@@ -12364,7 +12368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>303</v>
       </c>
@@ -12378,7 +12382,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>367</v>
       </c>
@@ -12392,7 +12396,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>373</v>
       </c>
@@ -12412,7 +12416,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>355</v>
       </c>
@@ -12426,7 +12430,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>297</v>
       </c>
@@ -12440,7 +12444,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>298</v>
       </c>
@@ -12454,7 +12458,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>302</v>
       </c>
@@ -12468,7 +12472,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>303</v>
       </c>
@@ -12482,7 +12486,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -12496,7 +12500,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -12516,7 +12520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>302</v>
       </c>
@@ -12530,7 +12534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>303</v>
       </c>
@@ -12544,7 +12548,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>367</v>
       </c>
@@ -12558,7 +12562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>464</v>
       </c>
@@ -12578,7 +12582,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>298</v>
       </c>
@@ -12592,7 +12596,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>302</v>
       </c>
@@ -12606,7 +12610,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>303</v>
       </c>
@@ -12620,7 +12624,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>367</v>
       </c>
@@ -12634,7 +12638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>471</v>
       </c>
@@ -12654,7 +12658,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>544</v>
       </c>
@@ -12674,7 +12678,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>545</v>
       </c>
@@ -12688,7 +12692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>545</v>
       </c>
@@ -12719,17 +12723,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12749,7 +12753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -12769,7 +12773,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -12783,7 +12787,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -12797,7 +12801,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -12811,7 +12815,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -12831,7 +12835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>424</v>
       </c>
@@ -12851,7 +12855,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>302</v>
       </c>
@@ -12865,7 +12869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -12885,7 +12889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -12899,7 +12903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -12913,7 +12917,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>373</v>
       </c>
@@ -12933,7 +12937,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>355</v>
       </c>
@@ -12947,7 +12951,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -12961,7 +12965,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -12975,7 +12979,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -12989,7 +12993,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>303</v>
       </c>
@@ -13003,7 +13007,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -13023,7 +13027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -13043,7 +13047,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>381</v>
       </c>
@@ -13063,7 +13067,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -13077,7 +13081,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>553</v>
       </c>
@@ -13097,7 +13101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -13111,7 +13115,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>302</v>
       </c>
@@ -13125,7 +13129,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>471</v>
       </c>
@@ -13145,7 +13149,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -13159,7 +13163,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -13173,7 +13177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -13187,7 +13191,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -13201,7 +13205,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>544</v>
       </c>
@@ -13221,7 +13225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>545</v>
       </c>
@@ -13235,7 +13239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>545</v>
       </c>
@@ -13249,7 +13253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>303</v>
       </c>
@@ -13263,7 +13267,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>367</v>
       </c>
@@ -13294,17 +13298,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13324,7 +13328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -13344,7 +13348,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -13358,7 +13362,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -13372,7 +13376,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -13386,7 +13390,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -13400,7 +13404,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -13414,7 +13418,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -13428,7 +13432,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -13448,7 +13452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>424</v>
       </c>
@@ -13468,7 +13472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -13482,7 +13486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -13496,7 +13500,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -13510,7 +13514,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>488</v>
       </c>
@@ -13530,7 +13534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -13544,7 +13548,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -13558,7 +13562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -13572,7 +13576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>607</v>
       </c>
@@ -13592,7 +13596,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -13606,7 +13610,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>494</v>
       </c>
@@ -13626,7 +13630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>437</v>
       </c>
@@ -13646,7 +13650,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -13660,7 +13664,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -13674,7 +13678,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -13688,7 +13692,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -13702,7 +13706,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>530</v>
       </c>
@@ -13722,7 +13726,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>560</v>
       </c>
@@ -13742,7 +13746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -13756,7 +13760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -13770,7 +13774,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -13784,7 +13788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -13804,7 +13808,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>355</v>
       </c>
@@ -13818,7 +13822,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>297</v>
       </c>
@@ -13832,7 +13836,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -13846,7 +13850,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>566</v>
       </c>
@@ -13866,7 +13870,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>297</v>
       </c>
@@ -13880,7 +13884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -13894,7 +13898,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>302</v>
       </c>
@@ -13908,7 +13912,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>455</v>
       </c>
@@ -13928,7 +13932,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>298</v>
       </c>
@@ -13942,7 +13946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>302</v>
       </c>
@@ -13956,7 +13960,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>303</v>
       </c>
@@ -13970,7 +13974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>367</v>
       </c>
@@ -13984,7 +13988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>456</v>
       </c>
@@ -14004,7 +14008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -14018,7 +14022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>302</v>
       </c>
@@ -14032,7 +14036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>303</v>
       </c>
@@ -14046,7 +14050,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>373</v>
       </c>
@@ -14066,7 +14070,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>355</v>
       </c>
@@ -14080,7 +14084,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>297</v>
       </c>
@@ -14094,7 +14098,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -14108,7 +14112,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -14122,7 +14126,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -14136,7 +14140,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -14150,7 +14154,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>430</v>
       </c>
@@ -14170,7 +14174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>297</v>
       </c>
@@ -14184,7 +14188,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -14198,7 +14202,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -14218,7 +14222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>298</v>
       </c>
@@ -14232,7 +14236,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>302</v>
       </c>
@@ -14246,7 +14250,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>303</v>
       </c>
@@ -14260,7 +14264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -14274,7 +14278,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>544</v>
       </c>
@@ -14294,7 +14298,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>545</v>
       </c>
@@ -14308,7 +14312,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>545</v>
       </c>
@@ -14322,7 +14326,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>303</v>
       </c>
@@ -14336,7 +14340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -14350,7 +14354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>418</v>
       </c>
@@ -14367,7 +14371,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>467</v>
       </c>
@@ -14378,7 +14382,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>574</v>
       </c>
@@ -14389,7 +14393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>362</v>
       </c>
@@ -14400,7 +14404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>535</v>
       </c>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23878" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66EA6BBC-CEF9-4FE2-9588-E80AB2C7C4E1}"/>
+  <xr:revisionPtr revIDLastSave="23879" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77DC1A6E-C4F4-48F9-81AE-BDB461032640}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -4353,10 +4353,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4663,17 +4659,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4693,7 +4689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -4730,17 +4726,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4760,7 +4756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -4780,7 +4776,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -4794,7 +4790,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -4808,7 +4804,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -4822,7 +4818,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -4836,7 +4832,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -4850,7 +4846,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -4864,7 +4860,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>576</v>
       </c>
@@ -4884,7 +4880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -4898,7 +4894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -4912,7 +4908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -4926,7 +4922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -4946,7 +4942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -4960,7 +4956,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>488</v>
       </c>
@@ -4980,7 +4976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -4994,7 +4990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -5008,7 +5004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -5022,7 +5018,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>579</v>
       </c>
@@ -5042,7 +5038,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -5062,7 +5058,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>355</v>
       </c>
@@ -5076,7 +5072,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -5090,7 +5086,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -5104,7 +5100,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -5124,7 +5120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -5138,7 +5134,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -5152,7 +5148,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -5166,7 +5162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>530</v>
       </c>
@@ -5186,7 +5182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -5200,7 +5196,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -5214,7 +5210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>303</v>
       </c>
@@ -5228,7 +5224,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>367</v>
       </c>
@@ -5242,7 +5238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>593</v>
       </c>
@@ -5262,7 +5258,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>302</v>
       </c>
@@ -5276,7 +5272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5296,7 +5292,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -5310,7 +5306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -5324,7 +5320,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>367</v>
       </c>
@@ -5338,7 +5334,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>455</v>
       </c>
@@ -5358,7 +5354,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>456</v>
       </c>
@@ -5378,7 +5374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -5392,7 +5388,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -5406,7 +5402,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -5420,7 +5416,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -5440,7 +5436,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>355</v>
       </c>
@@ -5454,7 +5450,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>297</v>
       </c>
@@ -5468,7 +5464,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>298</v>
       </c>
@@ -5482,7 +5478,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>588</v>
       </c>
@@ -5502,7 +5498,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -5522,7 +5518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -5536,7 +5532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -5550,7 +5546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -5564,7 +5560,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>553</v>
       </c>
@@ -5584,7 +5580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -5598,7 +5594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -5612,7 +5608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -5626,7 +5622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -5640,7 +5636,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>471</v>
       </c>
@@ -5660,7 +5656,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>544</v>
       </c>
@@ -5680,7 +5676,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>545</v>
       </c>
@@ -5694,7 +5690,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>545</v>
       </c>
@@ -5726,17 +5722,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5756,7 +5752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -5776,7 +5772,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -5790,7 +5786,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -5804,7 +5800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -5818,7 +5814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -5838,7 +5834,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -5852,7 +5848,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -5866,7 +5862,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>408</v>
       </c>
@@ -5886,7 +5882,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>298</v>
       </c>
@@ -5900,7 +5896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -5914,7 +5910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -5928,7 +5924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -5942,7 +5938,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>594</v>
       </c>
@@ -5962,7 +5958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -5976,7 +5972,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -5990,7 +5986,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -6004,7 +6000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -6024,7 +6020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -6038,7 +6034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>302</v>
       </c>
@@ -6052,7 +6048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>303</v>
       </c>
@@ -6066,7 +6062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>367</v>
       </c>
@@ -6080,7 +6076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -6100,7 +6096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -6114,7 +6110,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -6128,7 +6124,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -6142,7 +6138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -6156,7 +6152,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -6170,7 +6166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -6190,7 +6186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>297</v>
       </c>
@@ -6204,7 +6200,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>298</v>
       </c>
@@ -6218,7 +6214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>302</v>
       </c>
@@ -6232,7 +6228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>303</v>
       </c>
@@ -6246,7 +6242,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>367</v>
       </c>
@@ -6260,7 +6256,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -6280,7 +6276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -6294,7 +6290,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>302</v>
       </c>
@@ -6308,7 +6304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>607</v>
       </c>
@@ -6328,7 +6324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>297</v>
       </c>
@@ -6342,7 +6338,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>298</v>
       </c>
@@ -6356,7 +6352,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>494</v>
       </c>
@@ -6376,7 +6372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>297</v>
       </c>
@@ -6390,7 +6386,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -6404,7 +6400,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -6418,7 +6414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -6432,7 +6428,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>367</v>
       </c>
@@ -6446,7 +6442,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>437</v>
       </c>
@@ -6466,7 +6462,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>631</v>
       </c>
@@ -6486,7 +6482,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>632</v>
       </c>
@@ -6506,7 +6502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -6520,7 +6516,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>302</v>
       </c>
@@ -6534,7 +6530,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -6554,7 +6550,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -6568,7 +6564,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>297</v>
       </c>
@@ -6582,7 +6578,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>298</v>
       </c>
@@ -6596,7 +6592,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>302</v>
       </c>
@@ -6610,7 +6606,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>303</v>
       </c>
@@ -6624,7 +6620,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>455</v>
       </c>
@@ -6644,7 +6640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>298</v>
       </c>
@@ -6658,7 +6654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>302</v>
       </c>
@@ -6672,7 +6668,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>456</v>
       </c>
@@ -6692,7 +6688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>298</v>
       </c>
@@ -6706,7 +6702,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>373</v>
       </c>
@@ -6726,7 +6722,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>355</v>
       </c>
@@ -6740,7 +6736,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>297</v>
       </c>
@@ -6754,7 +6750,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>298</v>
       </c>
@@ -6768,7 +6764,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>302</v>
       </c>
@@ -6782,7 +6778,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>303</v>
       </c>
@@ -6796,7 +6792,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>367</v>
       </c>
@@ -6810,7 +6806,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>653</v>
       </c>
@@ -6830,7 +6826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>298</v>
       </c>
@@ -6844,7 +6840,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>302</v>
       </c>
@@ -6858,7 +6854,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>303</v>
       </c>
@@ -6872,7 +6868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>367</v>
       </c>
@@ -6886,7 +6882,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>464</v>
       </c>
@@ -6906,7 +6902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -6920,7 +6916,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>553</v>
       </c>
@@ -6940,7 +6936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>298</v>
       </c>
@@ -6954,7 +6950,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>302</v>
       </c>
@@ -6968,7 +6964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>303</v>
       </c>
@@ -6982,7 +6978,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>367</v>
       </c>
@@ -6996,7 +6992,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>471</v>
       </c>
@@ -7016,7 +7012,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>544</v>
       </c>
@@ -7036,7 +7032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>545</v>
       </c>
@@ -7050,7 +7046,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>545</v>
       </c>
@@ -7064,7 +7060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>303</v>
       </c>
@@ -7095,18 +7091,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7126,7 +7122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -7147,7 +7143,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -7168,7 +7164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -7189,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -7210,7 +7206,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -7231,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -7252,7 +7248,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -7273,7 +7269,7 @@
         <v>0.64406779661016944</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7294,7 +7290,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -7315,7 +7311,7 @@
         <v>0.77586206896551724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -7336,7 +7332,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -7357,7 +7353,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -7382,7 +7378,7 @@
         <v>0.58481012658227849</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -7433,17 +7429,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7463,7 +7459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -7483,7 +7479,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7515,17 +7511,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7545,7 +7541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -7565,7 +7561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7579,7 +7575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -7599,7 +7595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -7613,7 +7609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>610</v>
       </c>
@@ -7633,7 +7629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>298</v>
       </c>
@@ -7647,7 +7643,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>611</v>
       </c>
@@ -7667,7 +7663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -7681,7 +7677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>293</v>
       </c>
@@ -7695,7 +7691,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -7715,7 +7711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -7735,7 +7731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>298</v>
       </c>
@@ -7749,7 +7745,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>302</v>
       </c>
@@ -7763,7 +7759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>303</v>
       </c>
@@ -7777,7 +7773,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>621</v>
       </c>
@@ -7797,7 +7793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -7835,17 +7831,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7865,7 +7861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -7885,7 +7881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7899,7 +7895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>293</v>
       </c>
@@ -7913,7 +7909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -7933,7 +7929,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -7947,7 +7943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -7967,7 +7963,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -7981,7 +7977,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>302</v>
       </c>
@@ -7995,7 +7991,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>303</v>
       </c>
@@ -8009,7 +8005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>307</v>
       </c>
@@ -8029,7 +8025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>298</v>
       </c>
@@ -8043,7 +8039,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -8063,7 +8059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>312</v>
       </c>
@@ -8083,7 +8079,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -8097,7 +8093,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -8117,7 +8113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -8131,7 +8127,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -8151,7 +8147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>44</v>
       </c>
@@ -8165,7 +8161,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>293</v>
       </c>
@@ -8179,7 +8175,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>297</v>
       </c>
@@ -8193,7 +8189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -8207,7 +8203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>302</v>
       </c>
@@ -8221,7 +8217,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>325</v>
       </c>
@@ -8241,7 +8237,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8255,7 +8251,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -8269,7 +8265,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>329</v>
       </c>
@@ -8289,7 +8285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -8303,7 +8299,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>297</v>
       </c>
@@ -8317,7 +8313,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>298</v>
       </c>
@@ -8331,7 +8327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>334</v>
       </c>
@@ -8351,7 +8347,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -8365,7 +8361,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>293</v>
       </c>
@@ -8379,7 +8375,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>297</v>
       </c>
@@ -8393,7 +8389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>298</v>
       </c>
@@ -8407,7 +8403,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>340</v>
       </c>
@@ -8427,7 +8423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>44</v>
       </c>
@@ -8441,7 +8437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>293</v>
       </c>
@@ -8455,7 +8451,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>356</v>
       </c>
@@ -8475,7 +8471,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -8489,7 +8485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -8509,7 +8505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>44</v>
       </c>
@@ -8523,7 +8519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -8537,7 +8533,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -8551,7 +8547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>363</v>
       </c>
@@ -8571,7 +8567,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>298</v>
       </c>
@@ -8585,7 +8581,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>302</v>
       </c>
@@ -8599,7 +8595,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>366</v>
       </c>
@@ -8619,7 +8615,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -8633,7 +8629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -8647,7 +8643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -8661,7 +8657,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -8675,7 +8671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>373</v>
       </c>
@@ -8695,7 +8691,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>375</v>
       </c>
@@ -8715,7 +8711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>298</v>
       </c>
@@ -8729,7 +8725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>302</v>
       </c>
@@ -8743,7 +8739,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>303</v>
       </c>
@@ -8757,7 +8753,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>367</v>
       </c>
@@ -8771,7 +8767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>381</v>
       </c>
@@ -8791,7 +8787,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>44</v>
       </c>
@@ -8805,7 +8801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>297</v>
       </c>
@@ -8819,7 +8815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -8833,7 +8829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>385</v>
       </c>
@@ -8853,7 +8849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>298</v>
       </c>
@@ -8867,7 +8863,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>302</v>
       </c>
@@ -8881,7 +8877,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>388</v>
       </c>
@@ -8901,7 +8897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>298</v>
       </c>
@@ -8915,7 +8911,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>302</v>
       </c>
@@ -8929,7 +8925,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>303</v>
       </c>
@@ -8943,7 +8939,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -8963,7 +8959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>44</v>
       </c>
@@ -8977,7 +8973,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>297</v>
       </c>
@@ -8991,7 +8987,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -9005,7 +9001,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -9019,7 +9015,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -9039,7 +9035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>298</v>
       </c>
@@ -9053,7 +9049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>302</v>
       </c>
@@ -9067,7 +9063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>303</v>
       </c>
@@ -9081,7 +9077,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -9101,7 +9097,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>298</v>
       </c>
@@ -9115,7 +9111,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>302</v>
       </c>
@@ -9129,7 +9125,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>404</v>
       </c>
@@ -9149,7 +9145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>298</v>
       </c>
@@ -9163,7 +9159,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>302</v>
       </c>
@@ -9177,7 +9173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>303</v>
       </c>
@@ -9209,17 +9205,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9239,7 +9235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -9259,7 +9255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -9273,7 +9269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -9287,7 +9283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -9301,7 +9297,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>367</v>
       </c>
@@ -9315,7 +9311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -9335,7 +9331,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -9352,7 +9348,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -9372,7 +9368,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -9386,7 +9382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -9400,7 +9396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -9420,7 +9416,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -9434,7 +9430,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -9448,7 +9444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>427</v>
       </c>
@@ -9468,7 +9464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>298</v>
       </c>
@@ -9482,7 +9478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -9502,7 +9498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -9522,7 +9518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -9542,7 +9538,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -9562,7 +9558,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>437</v>
       </c>
@@ -9582,7 +9578,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>329</v>
       </c>
@@ -9602,7 +9598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -9616,7 +9612,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>297</v>
       </c>
@@ -9630,7 +9626,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -9644,7 +9640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -9658,7 +9654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>444</v>
       </c>
@@ -9678,7 +9674,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -9692,7 +9688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -9706,7 +9702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>447</v>
       </c>
@@ -9726,7 +9722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -9740,7 +9736,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -9754,7 +9750,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -9768,7 +9764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -9788,7 +9784,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>355</v>
       </c>
@@ -9802,7 +9798,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>297</v>
       </c>
@@ -9836,7 +9832,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>298</v>
       </c>
@@ -9850,7 +9846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>302</v>
       </c>
@@ -9864,7 +9860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>455</v>
       </c>
@@ -9884,7 +9880,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>456</v>
       </c>
@@ -9904,7 +9900,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>458</v>
       </c>
@@ -9924,7 +9920,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>373</v>
       </c>
@@ -9944,7 +9940,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>381</v>
       </c>
@@ -9964,7 +9960,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>462</v>
       </c>
@@ -9984,7 +9980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -10004,7 +10000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -10024,7 +10020,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -10038,7 +10034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>302</v>
       </c>
@@ -10052,7 +10048,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>468</v>
       </c>
@@ -10072,7 +10068,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>298</v>
       </c>
@@ -10086,7 +10082,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>302</v>
       </c>
@@ -10100,7 +10096,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>471</v>
       </c>
@@ -10138,17 +10134,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10168,7 +10164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -10188,7 +10184,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -10208,7 +10204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>44</v>
       </c>
@@ -10222,7 +10218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>297</v>
       </c>
@@ -10236,7 +10232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -10250,7 +10246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>302</v>
       </c>
@@ -10264,7 +10260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>303</v>
       </c>
@@ -10278,7 +10274,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>367</v>
       </c>
@@ -10292,7 +10288,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -10312,7 +10308,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>355</v>
       </c>
@@ -10326,7 +10322,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -10346,7 +10342,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>408</v>
       </c>
@@ -10366,7 +10362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -10380,7 +10376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -10394,7 +10390,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -10408,7 +10404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -10422,7 +10418,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -10442,7 +10438,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>355</v>
       </c>
@@ -10456,7 +10452,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>297</v>
       </c>
@@ -10470,7 +10466,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>488</v>
       </c>
@@ -10490,7 +10486,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -10504,7 +10500,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>418</v>
       </c>
@@ -10521,7 +10517,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -10541,7 +10537,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>297</v>
       </c>
@@ -10555,7 +10551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>492</v>
       </c>
@@ -10575,7 +10571,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>607</v>
       </c>
@@ -10595,7 +10591,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>494</v>
       </c>
@@ -10615,7 +10611,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>437</v>
       </c>
@@ -10635,7 +10631,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -10655,7 +10651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -10669,7 +10665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>444</v>
       </c>
@@ -10689,7 +10685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -10703,7 +10699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>447</v>
       </c>
@@ -10723,7 +10719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>340</v>
       </c>
@@ -10743,7 +10739,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>355</v>
       </c>
@@ -10757,7 +10753,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>297</v>
       </c>
@@ -10771,7 +10767,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>450</v>
       </c>
@@ -10791,7 +10787,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -10805,7 +10801,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>455</v>
       </c>
@@ -10825,7 +10821,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -10839,7 +10835,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>355</v>
       </c>
@@ -10853,7 +10849,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>297</v>
       </c>
@@ -10867,7 +10863,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -10881,7 +10877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>456</v>
       </c>
@@ -10901,7 +10897,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -10915,7 +10911,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -10929,7 +10925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>458</v>
       </c>
@@ -10949,7 +10945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>297</v>
       </c>
@@ -10963,7 +10959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>298</v>
       </c>
@@ -10977,7 +10973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>302</v>
       </c>
@@ -10991,7 +10987,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>303</v>
       </c>
@@ -11005,7 +11001,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>367</v>
       </c>
@@ -11019,7 +11015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>373</v>
       </c>
@@ -11039,7 +11035,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>355</v>
       </c>
@@ -11053,7 +11049,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>297</v>
       </c>
@@ -11067,7 +11063,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>381</v>
       </c>
@@ -11087,7 +11083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -11101,7 +11097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>302</v>
       </c>
@@ -11115,7 +11111,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>462</v>
       </c>
@@ -11135,7 +11131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -11149,7 +11145,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>297</v>
       </c>
@@ -11163,7 +11159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>298</v>
       </c>
@@ -11177,7 +11173,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>302</v>
       </c>
@@ -11191,7 +11187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>303</v>
       </c>
@@ -11205,7 +11201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>367</v>
       </c>
@@ -11219,7 +11215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>464</v>
       </c>
@@ -11239,7 +11235,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>297</v>
       </c>
@@ -11253,7 +11249,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -11273,7 +11269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -11287,7 +11283,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>303</v>
       </c>
@@ -11301,7 +11297,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>515</v>
       </c>
@@ -11321,7 +11317,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>298</v>
       </c>
@@ -11335,7 +11331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>302</v>
       </c>
@@ -11349,7 +11345,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>303</v>
       </c>
@@ -11363,7 +11359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>471</v>
       </c>
@@ -11383,7 +11379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>297</v>
       </c>
@@ -11415,17 +11411,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11445,7 +11441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>517</v>
       </c>
@@ -11465,7 +11461,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>302</v>
       </c>
@@ -11479,7 +11475,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>303</v>
       </c>
@@ -11493,7 +11489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>367</v>
       </c>
@@ -11507,7 +11503,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -11527,7 +11523,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -11541,7 +11537,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -11555,7 +11551,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -11569,7 +11565,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -11586,7 +11582,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>522</v>
       </c>
@@ -11606,7 +11602,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>302</v>
       </c>
@@ -11620,7 +11616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>303</v>
       </c>
@@ -11634,7 +11630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>367</v>
       </c>
@@ -11648,7 +11644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -11668,7 +11664,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -11682,7 +11678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -11696,7 +11692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>303</v>
       </c>
@@ -11710,7 +11706,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>427</v>
       </c>
@@ -11730,7 +11726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>430</v>
       </c>
@@ -11750,7 +11746,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -11764,7 +11760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -11784,7 +11780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>297</v>
       </c>
@@ -11798,7 +11794,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -11812,7 +11808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -11832,7 +11828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -11846,7 +11842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -11860,7 +11856,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -11874,7 +11870,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -11888,7 +11884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>526</v>
       </c>
@@ -11908,7 +11904,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -11922,7 +11918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -11936,7 +11932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>303</v>
       </c>
@@ -11950,7 +11946,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>367</v>
       </c>
@@ -11964,7 +11960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>607</v>
       </c>
@@ -11984,7 +11980,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>494</v>
       </c>
@@ -12004,7 +12000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>437</v>
       </c>
@@ -12024,7 +12020,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -12044,7 +12040,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>444</v>
       </c>
@@ -12064,7 +12060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>298</v>
       </c>
@@ -12078,7 +12074,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>302</v>
       </c>
@@ -12092,7 +12088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>303</v>
       </c>
@@ -12106,7 +12102,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>340</v>
       </c>
@@ -12126,7 +12122,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>355</v>
       </c>
@@ -12140,7 +12136,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>297</v>
       </c>
@@ -12154,7 +12150,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -12174,7 +12170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>298</v>
       </c>
@@ -12188,7 +12184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>302</v>
       </c>
@@ -12202,7 +12198,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>303</v>
       </c>
@@ -12216,7 +12212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>367</v>
       </c>
@@ -12230,7 +12226,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>455</v>
       </c>
@@ -12250,7 +12246,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -12264,7 +12260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -12278,7 +12274,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -12292,7 +12288,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -12306,7 +12302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>456</v>
       </c>
@@ -12326,7 +12322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>297</v>
       </c>
@@ -12340,7 +12336,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>298</v>
       </c>
@@ -12354,7 +12350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>302</v>
       </c>
@@ -12368,7 +12364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>303</v>
       </c>
@@ -12382,7 +12378,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>367</v>
       </c>
@@ -12396,7 +12392,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>373</v>
       </c>
@@ -12416,7 +12412,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>355</v>
       </c>
@@ -12430,7 +12426,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>297</v>
       </c>
@@ -12444,7 +12440,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>298</v>
       </c>
@@ -12458,7 +12454,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>302</v>
       </c>
@@ -12472,7 +12468,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>303</v>
       </c>
@@ -12486,7 +12482,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -12500,7 +12496,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -12520,7 +12516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>302</v>
       </c>
@@ -12534,7 +12530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>303</v>
       </c>
@@ -12548,7 +12544,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>367</v>
       </c>
@@ -12562,7 +12558,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>464</v>
       </c>
@@ -12582,7 +12578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>298</v>
       </c>
@@ -12596,7 +12592,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>302</v>
       </c>
@@ -12610,7 +12606,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>303</v>
       </c>
@@ -12624,7 +12620,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>367</v>
       </c>
@@ -12638,7 +12634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>471</v>
       </c>
@@ -12658,7 +12654,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>544</v>
       </c>
@@ -12678,7 +12674,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>545</v>
       </c>
@@ -12692,7 +12688,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>545</v>
       </c>
@@ -12723,17 +12719,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12753,7 +12749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -12773,7 +12769,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -12787,7 +12783,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -12801,7 +12797,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -12815,7 +12811,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -12835,7 +12831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>424</v>
       </c>
@@ -12855,7 +12851,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>302</v>
       </c>
@@ -12869,7 +12865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -12889,7 +12885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -12903,7 +12899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -12917,7 +12913,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>373</v>
       </c>
@@ -12937,7 +12933,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>355</v>
       </c>
@@ -12951,7 +12947,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -12965,7 +12961,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -12979,7 +12975,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -12993,7 +12989,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>303</v>
       </c>
@@ -13007,7 +13003,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -13027,7 +13023,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -13047,7 +13043,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>381</v>
       </c>
@@ -13067,7 +13063,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -13081,7 +13077,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>553</v>
       </c>
@@ -13101,7 +13097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -13115,7 +13111,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>302</v>
       </c>
@@ -13129,7 +13125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>471</v>
       </c>
@@ -13149,7 +13145,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -13163,7 +13159,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -13177,7 +13173,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -13191,7 +13187,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -13205,7 +13201,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>544</v>
       </c>
@@ -13225,7 +13221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>545</v>
       </c>
@@ -13239,7 +13235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>545</v>
       </c>
@@ -13253,7 +13249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>303</v>
       </c>
@@ -13267,7 +13263,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>367</v>
       </c>
@@ -13298,17 +13294,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13328,7 +13324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -13348,7 +13344,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -13362,7 +13358,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -13376,7 +13372,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -13390,7 +13386,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -13404,7 +13400,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -13418,7 +13414,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -13432,7 +13428,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -13452,7 +13448,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>424</v>
       </c>
@@ -13472,7 +13468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -13486,7 +13482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -13500,7 +13496,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -13514,7 +13510,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>488</v>
       </c>
@@ -13534,7 +13530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -13548,7 +13544,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -13562,7 +13558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -13576,7 +13572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>607</v>
       </c>
@@ -13596,7 +13592,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -13610,7 +13606,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>494</v>
       </c>
@@ -13630,7 +13626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>437</v>
       </c>
@@ -13650,7 +13646,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -13664,7 +13660,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -13678,7 +13674,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -13692,7 +13688,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -13706,7 +13702,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>530</v>
       </c>
@@ -13726,7 +13722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>560</v>
       </c>
@@ -13746,7 +13742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -13760,7 +13756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -13774,7 +13770,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -13788,7 +13784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -13808,7 +13804,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>355</v>
       </c>
@@ -13822,7 +13818,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>297</v>
       </c>
@@ -13836,7 +13832,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -13850,7 +13846,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>566</v>
       </c>
@@ -13870,7 +13866,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>297</v>
       </c>
@@ -13884,7 +13880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -13898,7 +13894,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>302</v>
       </c>
@@ -13912,7 +13908,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>455</v>
       </c>
@@ -13932,7 +13928,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>298</v>
       </c>
@@ -13946,7 +13942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>302</v>
       </c>
@@ -13960,7 +13956,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>303</v>
       </c>
@@ -13974,7 +13970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>367</v>
       </c>
@@ -13988,7 +13984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>456</v>
       </c>
@@ -14008,7 +14004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -14022,7 +14018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>302</v>
       </c>
@@ -14036,7 +14032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>303</v>
       </c>
@@ -14050,7 +14046,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>373</v>
       </c>
@@ -14070,7 +14066,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>355</v>
       </c>
@@ -14084,7 +14080,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>297</v>
       </c>
@@ -14098,7 +14094,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -14112,7 +14108,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -14126,7 +14122,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -14140,7 +14136,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -14154,7 +14150,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>430</v>
       </c>
@@ -14174,7 +14170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>297</v>
       </c>
@@ -14188,7 +14184,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -14202,7 +14198,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -14222,7 +14218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>298</v>
       </c>
@@ -14236,7 +14232,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>302</v>
       </c>
@@ -14250,7 +14246,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>303</v>
       </c>
@@ -14264,7 +14260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -14278,7 +14274,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>544</v>
       </c>
@@ -14298,7 +14294,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>545</v>
       </c>
@@ -14312,7 +14308,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>545</v>
       </c>
@@ -14326,7 +14322,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>303</v>
       </c>
@@ -14340,7 +14336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -14354,7 +14350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>418</v>
       </c>
@@ -14371,7 +14367,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>467</v>
       </c>
@@ -14382,7 +14378,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>574</v>
       </c>
@@ -14393,7 +14389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>362</v>
       </c>
@@ -14404,7 +14400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>535</v>
       </c>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23879" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77DC1A6E-C4F4-48F9-81AE-BDB461032640}"/>
+  <xr:revisionPtr revIDLastSave="23881" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ABD29F0-05FD-408E-AF74-FE52AD76202F}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -4353,6 +4353,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4659,17 +4663,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4689,7 +4693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -4726,17 +4730,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4756,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -4776,7 +4780,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -4790,7 +4794,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -4804,7 +4808,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -4818,7 +4822,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -4832,7 +4836,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -4846,7 +4850,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -4860,7 +4864,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>576</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -4894,7 +4898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -4908,7 +4912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -4922,7 +4926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -4956,7 +4960,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>488</v>
       </c>
@@ -4976,7 +4980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -4990,7 +4994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -5004,7 +5008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -5018,7 +5022,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>579</v>
       </c>
@@ -5038,7 +5042,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -5058,7 +5062,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>355</v>
       </c>
@@ -5072,7 +5076,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -5086,7 +5090,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -5100,7 +5104,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -5120,7 +5124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -5134,7 +5138,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -5148,7 +5152,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -5162,7 +5166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>530</v>
       </c>
@@ -5182,7 +5186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -5196,7 +5200,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -5210,7 +5214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>303</v>
       </c>
@@ -5224,7 +5228,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>367</v>
       </c>
@@ -5238,7 +5242,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>593</v>
       </c>
@@ -5258,7 +5262,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>302</v>
       </c>
@@ -5272,7 +5276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5292,7 +5296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -5306,7 +5310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>367</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>455</v>
       </c>
@@ -5354,7 +5358,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>456</v>
       </c>
@@ -5374,7 +5378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -5388,7 +5392,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -5402,7 +5406,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -5416,7 +5420,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -5436,7 +5440,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>355</v>
       </c>
@@ -5450,7 +5454,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>297</v>
       </c>
@@ -5464,7 +5468,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>298</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>588</v>
       </c>
@@ -5498,7 +5502,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -5518,7 +5522,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -5546,7 +5550,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -5560,7 +5564,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>553</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -5608,7 +5612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -5622,7 +5626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -5636,7 +5640,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>471</v>
       </c>
@@ -5656,7 +5660,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>544</v>
       </c>
@@ -5676,7 +5680,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>545</v>
       </c>
@@ -5690,7 +5694,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>545</v>
       </c>
@@ -5722,17 +5726,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5752,7 +5756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -5772,7 +5776,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -5786,7 +5790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -5814,7 +5818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -5834,7 +5838,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -5862,7 +5866,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>408</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>298</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -5910,7 +5914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -5924,7 +5928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -5938,7 +5942,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>594</v>
       </c>
@@ -5958,7 +5962,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -5972,7 +5976,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -5986,7 +5990,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -6020,7 +6024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>302</v>
       </c>
@@ -6048,7 +6052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>303</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>367</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -6110,7 +6114,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -6124,7 +6128,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -6152,7 +6156,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -6166,7 +6170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -6186,7 +6190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>297</v>
       </c>
@@ -6200,7 +6204,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>298</v>
       </c>
@@ -6214,7 +6218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>302</v>
       </c>
@@ -6228,7 +6232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>303</v>
       </c>
@@ -6242,7 +6246,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>367</v>
       </c>
@@ -6256,7 +6260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -6276,7 +6280,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -6290,7 +6294,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>302</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>607</v>
       </c>
@@ -6324,7 +6328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>297</v>
       </c>
@@ -6338,7 +6342,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>298</v>
       </c>
@@ -6352,7 +6356,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>494</v>
       </c>
@@ -6372,7 +6376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>297</v>
       </c>
@@ -6386,7 +6390,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -6414,7 +6418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -6428,7 +6432,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>367</v>
       </c>
@@ -6442,7 +6446,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>437</v>
       </c>
@@ -6462,7 +6466,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>631</v>
       </c>
@@ -6482,7 +6486,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>632</v>
       </c>
@@ -6502,7 +6506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -6516,7 +6520,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>302</v>
       </c>
@@ -6530,7 +6534,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -6550,7 +6554,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>297</v>
       </c>
@@ -6578,7 +6582,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>298</v>
       </c>
@@ -6592,7 +6596,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>302</v>
       </c>
@@ -6606,7 +6610,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>303</v>
       </c>
@@ -6620,7 +6624,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>455</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>298</v>
       </c>
@@ -6654,7 +6658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>302</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>456</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>298</v>
       </c>
@@ -6702,7 +6706,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>373</v>
       </c>
@@ -6722,7 +6726,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>355</v>
       </c>
@@ -6736,7 +6740,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>297</v>
       </c>
@@ -6750,7 +6754,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>298</v>
       </c>
@@ -6764,7 +6768,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>302</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>303</v>
       </c>
@@ -6792,7 +6796,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>367</v>
       </c>
@@ -6806,7 +6810,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>653</v>
       </c>
@@ -6826,7 +6830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>298</v>
       </c>
@@ -6840,7 +6844,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>302</v>
       </c>
@@ -6854,7 +6858,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>303</v>
       </c>
@@ -6868,7 +6872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>367</v>
       </c>
@@ -6882,7 +6886,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>464</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -6916,7 +6920,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>553</v>
       </c>
@@ -6936,7 +6940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>298</v>
       </c>
@@ -6950,7 +6954,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>302</v>
       </c>
@@ -6964,7 +6968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>303</v>
       </c>
@@ -6978,7 +6982,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>367</v>
       </c>
@@ -6992,7 +6996,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>471</v>
       </c>
@@ -7012,7 +7016,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>544</v>
       </c>
@@ -7032,7 +7036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>545</v>
       </c>
@@ -7046,7 +7050,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>545</v>
       </c>
@@ -7060,7 +7064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>303</v>
       </c>
@@ -7091,18 +7095,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7122,7 +7126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -7143,7 +7147,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -7164,7 +7168,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -7185,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -7206,7 +7210,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -7227,7 +7231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -7248,7 +7252,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -7269,7 +7273,7 @@
         <v>0.64406779661016944</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7290,7 +7294,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -7311,7 +7315,7 @@
         <v>0.77586206896551724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -7332,7 +7336,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -7353,7 +7357,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -7378,7 +7382,7 @@
         <v>0.58481012658227849</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -7429,17 +7433,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7459,7 +7463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -7479,7 +7483,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7511,17 +7515,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7541,7 +7545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -7561,7 +7565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7575,7 +7579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -7595,7 +7599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>610</v>
       </c>
@@ -7629,7 +7633,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>298</v>
       </c>
@@ -7643,7 +7647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>611</v>
       </c>
@@ -7663,7 +7667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -7677,7 +7681,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>293</v>
       </c>
@@ -7691,7 +7695,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -7711,7 +7715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -7731,7 +7735,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>298</v>
       </c>
@@ -7745,7 +7749,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>302</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>303</v>
       </c>
@@ -7773,7 +7777,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>621</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -7831,17 +7835,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7861,7 +7865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -7881,7 +7885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7895,7 +7899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>293</v>
       </c>
@@ -7909,7 +7913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -7929,7 +7933,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -7943,7 +7947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -7963,7 +7967,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -7977,7 +7981,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>302</v>
       </c>
@@ -7991,7 +7995,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>303</v>
       </c>
@@ -8005,7 +8009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>307</v>
       </c>
@@ -8025,7 +8029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>298</v>
       </c>
@@ -8039,7 +8043,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -8059,7 +8063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>312</v>
       </c>
@@ -8079,7 +8083,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -8093,7 +8097,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -8113,7 +8117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -8127,7 +8131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -8147,7 +8151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>44</v>
       </c>
@@ -8161,7 +8165,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>293</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>297</v>
       </c>
@@ -8189,7 +8193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -8203,7 +8207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>302</v>
       </c>
@@ -8217,7 +8221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>325</v>
       </c>
@@ -8237,7 +8241,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8251,7 +8255,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -8265,7 +8269,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>329</v>
       </c>
@@ -8285,7 +8289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -8299,7 +8303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>297</v>
       </c>
@@ -8313,7 +8317,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>298</v>
       </c>
@@ -8327,7 +8331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>334</v>
       </c>
@@ -8347,7 +8351,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -8361,7 +8365,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>293</v>
       </c>
@@ -8375,7 +8379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>297</v>
       </c>
@@ -8389,7 +8393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>298</v>
       </c>
@@ -8403,7 +8407,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>340</v>
       </c>
@@ -8423,7 +8427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>44</v>
       </c>
@@ -8437,7 +8441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>293</v>
       </c>
@@ -8451,7 +8455,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>356</v>
       </c>
@@ -8471,7 +8475,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -8485,7 +8489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -8505,7 +8509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>44</v>
       </c>
@@ -8519,7 +8523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -8533,7 +8537,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -8547,7 +8551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>363</v>
       </c>
@@ -8567,7 +8571,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>298</v>
       </c>
@@ -8581,7 +8585,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>302</v>
       </c>
@@ -8595,7 +8599,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>366</v>
       </c>
@@ -8615,7 +8619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -8629,7 +8633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -8643,7 +8647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -8657,7 +8661,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -8671,7 +8675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>373</v>
       </c>
@@ -8691,7 +8695,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>375</v>
       </c>
@@ -8711,7 +8715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>298</v>
       </c>
@@ -8725,7 +8729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>302</v>
       </c>
@@ -8739,7 +8743,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>303</v>
       </c>
@@ -8753,7 +8757,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>367</v>
       </c>
@@ -8767,7 +8771,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>381</v>
       </c>
@@ -8787,7 +8791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>44</v>
       </c>
@@ -8801,7 +8805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>297</v>
       </c>
@@ -8815,7 +8819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -8829,7 +8833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>385</v>
       </c>
@@ -8849,7 +8853,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>298</v>
       </c>
@@ -8863,7 +8867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>302</v>
       </c>
@@ -8877,7 +8881,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>388</v>
       </c>
@@ -8897,7 +8901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>298</v>
       </c>
@@ -8911,7 +8915,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>302</v>
       </c>
@@ -8925,7 +8929,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>303</v>
       </c>
@@ -8939,7 +8943,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -8959,7 +8963,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>44</v>
       </c>
@@ -8973,7 +8977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>297</v>
       </c>
@@ -8987,7 +8991,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -9001,7 +9005,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -9015,7 +9019,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -9035,7 +9039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>298</v>
       </c>
@@ -9049,7 +9053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>302</v>
       </c>
@@ -9063,7 +9067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>303</v>
       </c>
@@ -9077,7 +9081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -9097,7 +9101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>298</v>
       </c>
@@ -9111,7 +9115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>302</v>
       </c>
@@ -9125,7 +9129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>404</v>
       </c>
@@ -9145,7 +9149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>298</v>
       </c>
@@ -9159,7 +9163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>302</v>
       </c>
@@ -9173,7 +9177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>303</v>
       </c>
@@ -9205,17 +9209,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9235,7 +9239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -9255,7 +9259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -9269,7 +9273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -9283,7 +9287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -9297,7 +9301,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>367</v>
       </c>
@@ -9311,7 +9315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -9331,7 +9335,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -9348,7 +9352,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -9368,7 +9372,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -9382,7 +9386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -9396,7 +9400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -9416,7 +9420,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -9430,7 +9434,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -9444,7 +9448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>427</v>
       </c>
@@ -9464,7 +9468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>298</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -9498,7 +9502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -9518,7 +9522,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -9538,7 +9542,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -9558,7 +9562,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>437</v>
       </c>
@@ -9578,7 +9582,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>329</v>
       </c>
@@ -9598,7 +9602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -9612,7 +9616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>297</v>
       </c>
@@ -9626,7 +9630,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -9654,7 +9658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>444</v>
       </c>
@@ -9674,7 +9678,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -9688,7 +9692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -9702,7 +9706,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>447</v>
       </c>
@@ -9722,7 +9726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -9736,7 +9740,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -9750,7 +9754,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -9764,7 +9768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -9784,7 +9788,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>355</v>
       </c>
@@ -9798,7 +9802,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -9818,7 +9822,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>297</v>
       </c>
@@ -9832,7 +9836,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>298</v>
       </c>
@@ -9846,7 +9850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>302</v>
       </c>
@@ -9860,7 +9864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>455</v>
       </c>
@@ -9880,7 +9884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>456</v>
       </c>
@@ -9900,7 +9904,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>458</v>
       </c>
@@ -9920,7 +9924,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>373</v>
       </c>
@@ -9940,7 +9944,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>381</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>462</v>
       </c>
@@ -9980,7 +9984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -10000,7 +10004,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -10020,7 +10024,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -10034,7 +10038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>302</v>
       </c>
@@ -10048,7 +10052,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>468</v>
       </c>
@@ -10068,7 +10072,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>298</v>
       </c>
@@ -10082,7 +10086,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>302</v>
       </c>
@@ -10096,7 +10100,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>471</v>
       </c>
@@ -10134,17 +10138,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10164,7 +10168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -10184,7 +10188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -10204,7 +10208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>44</v>
       </c>
@@ -10218,7 +10222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>297</v>
       </c>
@@ -10232,7 +10236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -10246,7 +10250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>302</v>
       </c>
@@ -10260,7 +10264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>303</v>
       </c>
@@ -10274,7 +10278,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>367</v>
       </c>
@@ -10288,7 +10292,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -10308,7 +10312,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>355</v>
       </c>
@@ -10322,7 +10326,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -10342,7 +10346,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>408</v>
       </c>
@@ -10362,7 +10366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -10376,7 +10380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -10390,7 +10394,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -10404,7 +10408,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -10418,7 +10422,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -10438,7 +10442,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>355</v>
       </c>
@@ -10452,7 +10456,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>297</v>
       </c>
@@ -10466,7 +10470,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>488</v>
       </c>
@@ -10486,7 +10490,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -10500,7 +10504,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>418</v>
       </c>
@@ -10517,7 +10521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -10537,7 +10541,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>297</v>
       </c>
@@ -10551,7 +10555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>492</v>
       </c>
@@ -10571,7 +10575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>607</v>
       </c>
@@ -10591,7 +10595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>494</v>
       </c>
@@ -10611,7 +10615,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>437</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -10651,7 +10655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -10665,7 +10669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>444</v>
       </c>
@@ -10685,7 +10689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -10699,7 +10703,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>447</v>
       </c>
@@ -10719,7 +10723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>340</v>
       </c>
@@ -10739,7 +10743,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>355</v>
       </c>
@@ -10753,7 +10757,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>297</v>
       </c>
@@ -10767,7 +10771,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>450</v>
       </c>
@@ -10787,7 +10791,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -10801,7 +10805,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>455</v>
       </c>
@@ -10821,7 +10825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -10835,7 +10839,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>355</v>
       </c>
@@ -10849,7 +10853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>297</v>
       </c>
@@ -10863,7 +10867,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -10877,7 +10881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>456</v>
       </c>
@@ -10897,7 +10901,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -10911,7 +10915,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -10925,7 +10929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>458</v>
       </c>
@@ -10945,7 +10949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>297</v>
       </c>
@@ -10959,7 +10963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>298</v>
       </c>
@@ -10973,7 +10977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>302</v>
       </c>
@@ -10987,7 +10991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>303</v>
       </c>
@@ -11001,7 +11005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>367</v>
       </c>
@@ -11015,7 +11019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>373</v>
       </c>
@@ -11035,7 +11039,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>355</v>
       </c>
@@ -11049,7 +11053,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>297</v>
       </c>
@@ -11063,7 +11067,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>381</v>
       </c>
@@ -11083,7 +11087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -11097,7 +11101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>302</v>
       </c>
@@ -11111,7 +11115,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>462</v>
       </c>
@@ -11131,7 +11135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -11145,7 +11149,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>297</v>
       </c>
@@ -11159,7 +11163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>298</v>
       </c>
@@ -11173,7 +11177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>302</v>
       </c>
@@ -11187,7 +11191,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>303</v>
       </c>
@@ -11201,7 +11205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>367</v>
       </c>
@@ -11215,7 +11219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>464</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>297</v>
       </c>
@@ -11249,7 +11253,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -11269,7 +11273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -11283,7 +11287,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>303</v>
       </c>
@@ -11297,7 +11301,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>515</v>
       </c>
@@ -11317,7 +11321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>298</v>
       </c>
@@ -11331,7 +11335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>302</v>
       </c>
@@ -11345,7 +11349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>303</v>
       </c>
@@ -11359,7 +11363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>471</v>
       </c>
@@ -11379,7 +11383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>297</v>
       </c>
@@ -11411,17 +11415,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11441,7 +11445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>517</v>
       </c>
@@ -11461,7 +11465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>302</v>
       </c>
@@ -11475,7 +11479,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>303</v>
       </c>
@@ -11489,7 +11493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>367</v>
       </c>
@@ -11503,7 +11507,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -11523,7 +11527,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -11537,7 +11541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -11551,7 +11555,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -11565,7 +11569,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -11582,7 +11586,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>522</v>
       </c>
@@ -11602,7 +11606,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>302</v>
       </c>
@@ -11616,7 +11620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>303</v>
       </c>
@@ -11630,7 +11634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>367</v>
       </c>
@@ -11644,7 +11648,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -11664,7 +11668,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -11678,7 +11682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -11692,7 +11696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>303</v>
       </c>
@@ -11706,7 +11710,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>427</v>
       </c>
@@ -11726,7 +11730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>430</v>
       </c>
@@ -11746,7 +11750,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -11760,7 +11764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -11780,7 +11784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>297</v>
       </c>
@@ -11794,7 +11798,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -11808,7 +11812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -11828,7 +11832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -11842,7 +11846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -11856,7 +11860,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -11870,7 +11874,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -11884,7 +11888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>526</v>
       </c>
@@ -11904,7 +11908,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -11918,7 +11922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -11932,7 +11936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>303</v>
       </c>
@@ -11946,7 +11950,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>367</v>
       </c>
@@ -11960,7 +11964,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>607</v>
       </c>
@@ -11980,7 +11984,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>494</v>
       </c>
@@ -12000,7 +12004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>437</v>
       </c>
@@ -12020,7 +12024,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -12040,7 +12044,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>444</v>
       </c>
@@ -12060,7 +12064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>298</v>
       </c>
@@ -12074,7 +12078,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>302</v>
       </c>
@@ -12088,7 +12092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>303</v>
       </c>
@@ -12102,7 +12106,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>340</v>
       </c>
@@ -12122,7 +12126,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>355</v>
       </c>
@@ -12136,7 +12140,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>297</v>
       </c>
@@ -12150,7 +12154,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -12170,7 +12174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>298</v>
       </c>
@@ -12184,7 +12188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>302</v>
       </c>
@@ -12198,7 +12202,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>303</v>
       </c>
@@ -12212,7 +12216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>367</v>
       </c>
@@ -12226,7 +12230,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>455</v>
       </c>
@@ -12246,7 +12250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -12260,7 +12264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -12274,7 +12278,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -12288,7 +12292,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -12302,7 +12306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>456</v>
       </c>
@@ -12322,7 +12326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>297</v>
       </c>
@@ -12336,7 +12340,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>298</v>
       </c>
@@ -12350,7 +12354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>302</v>
       </c>
@@ -12364,7 +12368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>303</v>
       </c>
@@ -12378,7 +12382,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>367</v>
       </c>
@@ -12392,7 +12396,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>373</v>
       </c>
@@ -12412,7 +12416,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>355</v>
       </c>
@@ -12426,7 +12430,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>297</v>
       </c>
@@ -12440,7 +12444,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>298</v>
       </c>
@@ -12454,7 +12458,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>302</v>
       </c>
@@ -12468,7 +12472,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>303</v>
       </c>
@@ -12482,7 +12486,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -12496,7 +12500,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -12516,7 +12520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>302</v>
       </c>
@@ -12530,7 +12534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>303</v>
       </c>
@@ -12544,7 +12548,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>367</v>
       </c>
@@ -12558,7 +12562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>464</v>
       </c>
@@ -12578,7 +12582,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>298</v>
       </c>
@@ -12592,7 +12596,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>302</v>
       </c>
@@ -12606,7 +12610,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>303</v>
       </c>
@@ -12620,7 +12624,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>367</v>
       </c>
@@ -12634,7 +12638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>471</v>
       </c>
@@ -12654,7 +12658,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>544</v>
       </c>
@@ -12674,7 +12678,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>545</v>
       </c>
@@ -12688,7 +12692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>545</v>
       </c>
@@ -12719,17 +12723,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12749,7 +12753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -12769,7 +12773,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -12783,7 +12787,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -12797,7 +12801,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -12811,7 +12815,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -12831,7 +12835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>424</v>
       </c>
@@ -12851,7 +12855,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>302</v>
       </c>
@@ -12865,7 +12869,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -12885,7 +12889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -12899,7 +12903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -12913,7 +12917,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>373</v>
       </c>
@@ -12933,7 +12937,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>355</v>
       </c>
@@ -12947,7 +12951,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -12961,7 +12965,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -12975,7 +12979,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -12989,7 +12993,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>303</v>
       </c>
@@ -13003,7 +13007,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -13023,7 +13027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -13043,7 +13047,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>381</v>
       </c>
@@ -13063,7 +13067,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -13077,7 +13081,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>553</v>
       </c>
@@ -13097,7 +13101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -13111,7 +13115,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>302</v>
       </c>
@@ -13125,7 +13129,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>471</v>
       </c>
@@ -13145,7 +13149,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -13159,7 +13163,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -13173,7 +13177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -13187,7 +13191,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -13201,7 +13205,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>544</v>
       </c>
@@ -13221,7 +13225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>545</v>
       </c>
@@ -13235,7 +13239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>545</v>
       </c>
@@ -13249,7 +13253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>303</v>
       </c>
@@ -13263,7 +13267,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>367</v>
       </c>
@@ -13294,17 +13298,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13324,7 +13328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -13344,7 +13348,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -13358,7 +13362,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -13372,7 +13376,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -13386,7 +13390,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -13400,7 +13404,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -13414,7 +13418,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -13428,7 +13432,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -13448,7 +13452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>424</v>
       </c>
@@ -13468,7 +13472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -13482,7 +13486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -13496,7 +13500,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -13510,7 +13514,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>488</v>
       </c>
@@ -13530,7 +13534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -13544,7 +13548,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -13558,7 +13562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -13572,7 +13576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>607</v>
       </c>
@@ -13592,7 +13596,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -13606,7 +13610,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>494</v>
       </c>
@@ -13626,7 +13630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>437</v>
       </c>
@@ -13646,7 +13650,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -13660,7 +13664,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -13674,7 +13678,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -13688,7 +13692,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -13702,7 +13706,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>530</v>
       </c>
@@ -13722,7 +13726,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>560</v>
       </c>
@@ -13742,7 +13746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -13756,7 +13760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -13770,7 +13774,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -13784,7 +13788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -13804,7 +13808,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>355</v>
       </c>
@@ -13818,7 +13822,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>297</v>
       </c>
@@ -13832,7 +13836,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -13846,7 +13850,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>566</v>
       </c>
@@ -13866,7 +13870,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>297</v>
       </c>
@@ -13880,7 +13884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -13894,7 +13898,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>302</v>
       </c>
@@ -13908,7 +13912,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>455</v>
       </c>
@@ -13928,7 +13932,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>298</v>
       </c>
@@ -13942,7 +13946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>302</v>
       </c>
@@ -13956,7 +13960,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>303</v>
       </c>
@@ -13970,7 +13974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>367</v>
       </c>
@@ -13984,7 +13988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>456</v>
       </c>
@@ -14004,7 +14008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -14018,7 +14022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>302</v>
       </c>
@@ -14032,7 +14036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>303</v>
       </c>
@@ -14046,7 +14050,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>373</v>
       </c>
@@ -14066,7 +14070,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>355</v>
       </c>
@@ -14080,7 +14084,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>297</v>
       </c>
@@ -14094,7 +14098,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -14108,7 +14112,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -14122,7 +14126,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -14136,7 +14140,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -14150,7 +14154,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>430</v>
       </c>
@@ -14170,7 +14174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>297</v>
       </c>
@@ -14184,7 +14188,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -14198,7 +14202,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -14218,7 +14222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>298</v>
       </c>
@@ -14232,7 +14236,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>302</v>
       </c>
@@ -14246,7 +14250,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>303</v>
       </c>
@@ -14260,7 +14264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -14274,7 +14278,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>544</v>
       </c>
@@ -14294,7 +14298,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>545</v>
       </c>
@@ -14308,7 +14312,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>545</v>
       </c>
@@ -14322,7 +14326,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>303</v>
       </c>
@@ -14336,7 +14340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -14350,7 +14354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>418</v>
       </c>
@@ -14367,7 +14371,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>467</v>
       </c>
@@ -14378,7 +14382,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>574</v>
       </c>
@@ -14389,7 +14393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>362</v>
       </c>
@@ -14400,7 +14404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>535</v>
       </c>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23881" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ABD29F0-05FD-408E-AF74-FE52AD76202F}"/>
+  <xr:revisionPtr revIDLastSave="23936" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{649AEFB8-6AB8-413A-8104-57BB1464D1BC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="30870" windowHeight="15285" firstSheet="5" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="2021" sheetId="33" r:id="rId9"/>
     <sheet name="2022" sheetId="28" r:id="rId10"/>
     <sheet name="2023" sheetId="36" r:id="rId11"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId12"/>
-    <sheet name="Wins-Losses" sheetId="38" r:id="rId13"/>
-    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId14"/>
+    <sheet name="2024" sheetId="40" r:id="rId12"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId13"/>
+    <sheet name="Wins-Losses" sheetId="41" r:id="rId14"/>
+    <sheet name="Winning Percentile Range" sheetId="42" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="673">
   <si>
     <t>ROUND</t>
   </si>
@@ -2035,6 +2036,36 @@
   </si>
   <si>
     <t>6-3 6-7(4) 6-1</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Térence Atmane (FRANCE)</t>
+  </si>
+  <si>
+    <t>Nuno Borges (PORTUGAL)</t>
+  </si>
+  <si>
+    <t>5-7 6-2 6-4 1-0 RETIRED</t>
+  </si>
+  <si>
+    <t>3-6 6-7(1) 6-4 7-6(1) 6-0</t>
+  </si>
+  <si>
+    <t>6-3 7-6(4) 5-7 6-1</t>
+  </si>
+  <si>
+    <t>7-6(4) 2-6 6-3 5-7 6-4</t>
+  </si>
+  <si>
+    <t>5-7 3-6 7-6(4) 7-6(5) 6-3</t>
+  </si>
+  <si>
+    <t>3-6 3-6 6-4 6-4 6-3</t>
   </si>
 </sst>
 </file>
@@ -2188,13 +2219,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Daniil Medvedev</a:t>
+              <a:t>Daniil Medvedev (RUSSIA)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> (RUSSIA)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2260,10 +2286,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2297,15 +2323,18 @@
                 <c:pt idx="10">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$12</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2339,12 +2368,15 @@
                 <c:pt idx="10">
                   <c:v>66</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5FC2-4F90-A7B6-127982BB75BC}"/>
+              <c16:uniqueId val="{00000000-DAF2-4B27-8F67-51C46E3A4853}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2374,10 +2406,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2411,15 +2443,18 @@
                 <c:pt idx="10">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$12</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2453,12 +2488,15 @@
                 <c:pt idx="10">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5FC2-4F90-A7B6-127982BB75BC}"/>
+              <c16:uniqueId val="{00000001-DAF2-4B27-8F67-51C46E3A4853}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2472,11 +2510,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="722836975"/>
-        <c:axId val="722844879"/>
+        <c:axId val="717109695"/>
+        <c:axId val="1041309791"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="722836975"/>
+        <c:axId val="717109695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,7 +2612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="722844879"/>
+        <c:crossAx val="1041309791"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2582,7 +2620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="722844879"/>
+        <c:axId val="1041309791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,8 +2661,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF MATCHES</a:t>
+                  <a:t>NUMBER</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> OF AMTCHES</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2688,7 +2731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="722836975"/>
+        <c:crossAx val="717109695"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2798,13 +2841,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Daniil</a:t>
+              <a:t>Daniil Medvedev (RUSSIA): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Medvedev (RUSSIA): Winning Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2897,10 +2935,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$12</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2013</c:v>
                 </c:pt>
@@ -2934,15 +2972,18 @@
                 <c:pt idx="10">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$12</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2976,13 +3017,16 @@
                 <c:pt idx="10">
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FD13-49EA-8E65-E5DA2F7E693B}"/>
+              <c16:uniqueId val="{00000001-30E4-491D-AA3A-A4903A05BABF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2996,16 +3040,71 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="715182079"/>
-        <c:axId val="715182495"/>
+        <c:axId val="18737887"/>
+        <c:axId val="24083711"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="715182079"/>
+        <c:axId val="18737887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>YEAR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3043,7 +3142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="715182495"/>
+        <c:crossAx val="24083711"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3051,7 +3150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="715182495"/>
+        <c:axId val="24083711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3071,6 +3170,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>PERCENTAGE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3102,7 +3256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="715182079"/>
+        <c:crossAx val="18737887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4264,26 +4418,25 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F5426898-72E0-4038-BEB0-23E01A76D388}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4A1689BE-E4C0-401D-BFA7-288EC9771B3D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{42B570F3-198C-4935-9F8D-F5D11F8C7A7A}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{43D1BB71-7A47-4E96-AA70-781716E67DE3}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -4291,13 +4444,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679615BB-3F30-F9DE-7182-AB7BE58B00F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAE55DE-D3A0-2D5F-BFB2-2B8D5848E5DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4324,13 +4477,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8572500" cy="5827568"/>
+    <xdr:ext cx="8659091" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE30386F-205E-055B-1FD8-24F309FDFF94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1711FD7F-A046-A8A3-2021-754DAE30C43C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4659,7 +4812,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4726,8 +4879,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5722,8 +5875,8 @@
   </sheetPr>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7085,14 +7238,165 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2726927A-3A68-4B65-B4F5-B065DDEDB273}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="F8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7185,7 +7489,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F12" si="1">(D4-E4)/D4</f>
+        <f t="shared" ref="F4:F13" si="1">(D4-E4)/D4</f>
         <v>0</v>
       </c>
     </row>
@@ -7358,57 +7662,78 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13">
+        <v>2024</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
-        <f>SUM(B2:B12)</f>
-        <v>182</v>
-      </c>
-      <c r="C13" s="2">
-        <f>SUM(C2:C12)</f>
-        <v>21</v>
-      </c>
-      <c r="D13" s="2">
-        <f>SUM(D2:D12)</f>
-        <v>395</v>
-      </c>
-      <c r="E13" s="2">
-        <f>SUM(E2:E12)</f>
-        <v>164</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" ref="F13:F14" si="2">(D13-E13)/D13</f>
-        <v>0.58481012658227849</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <f>SUM(B2:B13)</f>
+        <v>183</v>
+      </c>
+      <c r="C14" s="2">
+        <f>SUM(C2:C13)</f>
+        <v>21</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(D2:D13)</f>
+        <v>401</v>
+      </c>
+      <c r="E14" s="2">
+        <f>SUM(E2:E13)</f>
+        <v>165</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
+        <v>0.58852867830423938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
-        <f>AVERAGE(B2:B12)</f>
-        <v>16.545454545454547</v>
-      </c>
-      <c r="C14" s="2">
-        <f>AVERAGE(C2:C12)</f>
-        <v>1.9090909090909092</v>
-      </c>
-      <c r="D14" s="2">
-        <f>AVERAGE(D2:D12)</f>
-        <v>35.909090909090907</v>
-      </c>
-      <c r="E14" s="2">
-        <f>AVERAGE(E2:E12)</f>
-        <v>14.909090909090908</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="B15" s="2">
+        <f>AVERAGE(B2:B13)</f>
+        <v>15.25</v>
+      </c>
+      <c r="C15" s="2">
+        <f>AVERAGE(C2:C13)</f>
+        <v>1.75</v>
+      </c>
+      <c r="D15" s="2">
+        <f>AVERAGE(D2:D13)</f>
+        <v>33.416666666666664</v>
+      </c>
+      <c r="E15" s="2">
+        <f>AVERAGE(E2:E13)</f>
+        <v>13.75</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>0.58481012658227849</v>
+        <v>0.58852867830423938</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3:F12">
+  <conditionalFormatting sqref="F3:F13">
     <cfRule type="iconSet" priority="18">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -7429,7 +7754,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7511,7 +7836,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7831,7 +8156,7 @@
   </sheetPr>
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9205,7 +9530,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10134,7 +10459,7 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11411,7 +11736,7 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12719,7 +13044,7 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13294,7 +13619,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23936" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{649AEFB8-6AB8-413A-8104-57BB1464D1BC}"/>
+  <xr:revisionPtr revIDLastSave="23939" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE181B1D-F98F-49AB-917C-ED9C35AD6E53}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="30870" windowHeight="15285" firstSheet="5" activeTab="14" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="6750" yWindow="3750" windowWidth="19305" windowHeight="17130" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="671">
   <si>
     <t>ROUND</t>
   </si>
@@ -2036,12 +2036,6 @@
   </si>
   <si>
     <t>6-3 6-7(4) 6-1</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
   <si>
     <t>Térence Atmane (FRANCE)</t>
@@ -4433,7 +4427,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{43D1BB71-7A47-4E96-AA70-781716E67DE3}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4477,7 +4471,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659091" cy="6286500"/>
+    <xdr:ext cx="8676680" cy="6295430"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7244,8 +7238,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7289,13 +7283,13 @@
         <v>354</v>
       </c>
       <c r="D2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>665</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="F2" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7306,10 +7300,10 @@
         <v>590</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>663</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7320,7 +7314,7 @@
         <v>412</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>663</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>235</v>
@@ -7331,13 +7325,13 @@
         <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>663</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7348,10 +7342,10 @@
         <v>565</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>663</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7362,10 +7356,10 @@
         <v>384</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>663</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7376,10 +7370,10 @@
         <v>547</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>664</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23939" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE181B1D-F98F-49AB-917C-ED9C35AD6E53}"/>
+  <xr:revisionPtr revIDLastSave="23958" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2D4BBF-9D51-4883-B509-A549820D9AE8}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="3750" windowWidth="19305" windowHeight="17130" firstSheet="5" activeTab="11" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="672">
   <si>
     <t>ROUND</t>
   </si>
@@ -2060,6 +2060,9 @@
   </si>
   <si>
     <t>3-6 3-6 6-4 6-4 6-3</t>
+  </si>
+  <si>
+    <t>Alexander Shevchenko (KAZAKHSTAN)</t>
   </si>
 </sst>
 </file>
@@ -2363,7 +2366,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2483,7 +2486,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3012,7 +3015,7 @@
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4505,9 +4508,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4545,7 +4548,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4651,7 +4654,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4793,7 +4796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5869,8 +5872,8 @@
   </sheetPr>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79:C85"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7236,18 +7239,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" activeCellId="1" sqref="E2:E7 E10:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7374,6 +7377,68 @@
       </c>
       <c r="F8" t="s">
         <v>670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" t="s">
+        <v>671</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" t="s">
+        <v>409</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" t="s">
+        <v>552</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7389,8 +7454,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7660,20 +7725,20 @@
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7682,7 +7747,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -7690,15 +7755,15 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
-        <v>0.58852867830423938</v>
+        <v>0.58910891089108908</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7707,7 +7772,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.25</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -7715,15 +7780,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>33.416666666666664</v>
+        <v>33.666666666666664</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>13.75</v>
+        <v>13.833333333333334</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>0.58852867830423938</v>
+        <v>0.58910891089108897</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23958" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2D4BBF-9D51-4883-B509-A549820D9AE8}"/>
+  <xr:revisionPtr revIDLastSave="23988" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F586471-442E-4CEA-BC62-15AAD3D72A0D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="675">
   <si>
     <t>ROUND</t>
   </si>
@@ -2063,6 +2063,15 @@
   </si>
   <si>
     <t>Alexander Shevchenko (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>6-4 5-7 6-3</t>
+  </si>
+  <si>
+    <t>1-6 7-6(3) 6-2</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-1</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2375,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2486,7 +2495,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3015,7 +3024,7 @@
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.77777777777777779</c:v>
+                  <c:v>0.7857142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4503,10 +4512,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -7239,10 +7244,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" activeCellId="1" sqref="E2:E7 E10:E12"/>
+      <selection activeCell="E15" activeCellId="2" sqref="E2:E7 E10:E12 E15:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7439,6 +7444,96 @@
       </c>
       <c r="F13" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D15" t="s">
+        <v>556</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" t="s">
+        <v>446</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" t="s">
+        <v>605</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" t="s">
+        <v>559</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20" t="s">
+        <v>563</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -7725,20 +7820,20 @@
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>0.77777777777777779</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7747,7 +7842,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -7755,15 +7850,15 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
-        <v>0.58910891089108908</v>
+        <v>0.59168704156479213</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7772,7 +7867,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.333333333333334</v>
+        <v>15.416666666666666</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -7780,15 +7875,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>33.666666666666664</v>
+        <v>34.083333333333336</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>13.833333333333334</v>
+        <v>13.916666666666666</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>0.58910891089108897</v>
+        <v>0.59168704156479224</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23988" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F586471-442E-4CEA-BC62-15AAD3D72A0D}"/>
+  <xr:revisionPtr revIDLastSave="24023" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DCCA22A-58AF-4DC6-9A9A-392963EF0F50}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="677">
   <si>
     <t>ROUND</t>
   </si>
@@ -2072,6 +2072,12 @@
   </si>
   <si>
     <t>7-6(5) 6-1</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-0</t>
+  </si>
+  <si>
+    <t>6-2 7-6(7)</t>
   </si>
 </sst>
 </file>
@@ -2375,7 +2381,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,7 +2501,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3024,7 +3030,7 @@
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7857142857142857</c:v>
+                  <c:v>0.73684210526315785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4512,6 +4518,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4818,17 +4828,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4848,7 +4858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -4885,17 +4895,17 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4915,7 +4925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -4935,7 +4945,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -4949,7 +4959,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -4963,7 +4973,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -4977,7 +4987,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -4991,7 +5001,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -5005,7 +5015,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -5019,7 +5029,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>576</v>
       </c>
@@ -5039,7 +5049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -5053,7 +5063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -5067,7 +5077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -5081,7 +5091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -5101,7 +5111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -5115,7 +5125,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>488</v>
       </c>
@@ -5135,7 +5145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -5149,7 +5159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -5163,7 +5173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -5177,7 +5187,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>579</v>
       </c>
@@ -5197,7 +5207,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -5217,7 +5227,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>355</v>
       </c>
@@ -5231,7 +5241,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -5245,7 +5255,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -5259,7 +5269,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -5279,7 +5289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -5293,7 +5303,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -5307,7 +5317,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -5321,7 +5331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>530</v>
       </c>
@@ -5341,7 +5351,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -5355,7 +5365,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -5369,7 +5379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>303</v>
       </c>
@@ -5383,7 +5393,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>367</v>
       </c>
@@ -5397,7 +5407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>593</v>
       </c>
@@ -5417,7 +5427,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>302</v>
       </c>
@@ -5431,7 +5441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5451,7 +5461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -5465,7 +5475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -5479,7 +5489,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>367</v>
       </c>
@@ -5493,7 +5503,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>455</v>
       </c>
@@ -5513,7 +5523,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>456</v>
       </c>
@@ -5533,7 +5543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -5547,7 +5557,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -5561,7 +5571,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -5575,7 +5585,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -5595,7 +5605,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>355</v>
       </c>
@@ -5609,7 +5619,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>297</v>
       </c>
@@ -5623,7 +5633,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>298</v>
       </c>
@@ -5637,7 +5647,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>588</v>
       </c>
@@ -5657,7 +5667,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -5677,7 +5687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -5691,7 +5701,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -5705,7 +5715,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -5719,7 +5729,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>553</v>
       </c>
@@ -5739,7 +5749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -5753,7 +5763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -5767,7 +5777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -5781,7 +5791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -5795,7 +5805,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>471</v>
       </c>
@@ -5815,7 +5825,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>544</v>
       </c>
@@ -5835,7 +5845,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>545</v>
       </c>
@@ -5849,7 +5859,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>545</v>
       </c>
@@ -5877,21 +5887,21 @@
   </sheetPr>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5911,7 +5921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -5931,7 +5941,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -5945,7 +5955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -5959,7 +5969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -5973,7 +5983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -5993,7 +6003,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -6007,7 +6017,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -6021,7 +6031,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>408</v>
       </c>
@@ -6041,7 +6051,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>298</v>
       </c>
@@ -6055,7 +6065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -6069,7 +6079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -6083,7 +6093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -6097,7 +6107,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>594</v>
       </c>
@@ -6117,7 +6127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -6131,7 +6141,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -6145,7 +6155,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -6159,7 +6169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -6179,7 +6189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -6193,7 +6203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>302</v>
       </c>
@@ -6207,7 +6217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>303</v>
       </c>
@@ -6221,7 +6231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>367</v>
       </c>
@@ -6235,7 +6245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -6255,7 +6265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -6269,7 +6279,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -6283,7 +6293,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -6297,7 +6307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -6311,7 +6321,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -6325,7 +6335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -6345,7 +6355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>297</v>
       </c>
@@ -6359,7 +6369,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>298</v>
       </c>
@@ -6373,7 +6383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>302</v>
       </c>
@@ -6387,7 +6397,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>303</v>
       </c>
@@ -6401,7 +6411,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>367</v>
       </c>
@@ -6415,7 +6425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -6435,7 +6445,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -6449,7 +6459,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>302</v>
       </c>
@@ -6463,7 +6473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>607</v>
       </c>
@@ -6483,7 +6493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>297</v>
       </c>
@@ -6497,7 +6507,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>298</v>
       </c>
@@ -6511,7 +6521,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>494</v>
       </c>
@@ -6531,7 +6541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>297</v>
       </c>
@@ -6545,7 +6555,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -6559,7 +6569,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -6573,7 +6583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -6587,7 +6597,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>367</v>
       </c>
@@ -6601,7 +6611,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>437</v>
       </c>
@@ -6621,7 +6631,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>631</v>
       </c>
@@ -6641,7 +6651,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>632</v>
       </c>
@@ -6661,7 +6671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -6675,7 +6685,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>302</v>
       </c>
@@ -6689,7 +6699,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -6709,7 +6719,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -6723,7 +6733,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>297</v>
       </c>
@@ -6737,7 +6747,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>298</v>
       </c>
@@ -6751,7 +6761,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>302</v>
       </c>
@@ -6765,7 +6775,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>303</v>
       </c>
@@ -6779,7 +6789,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>455</v>
       </c>
@@ -6799,7 +6809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>298</v>
       </c>
@@ -6813,7 +6823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>302</v>
       </c>
@@ -6827,7 +6837,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>456</v>
       </c>
@@ -6847,7 +6857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>298</v>
       </c>
@@ -6861,7 +6871,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>373</v>
       </c>
@@ -6881,7 +6891,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>355</v>
       </c>
@@ -6895,7 +6905,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>297</v>
       </c>
@@ -6909,7 +6919,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>298</v>
       </c>
@@ -6923,7 +6933,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>302</v>
       </c>
@@ -6937,7 +6947,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>303</v>
       </c>
@@ -6951,7 +6961,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>367</v>
       </c>
@@ -6965,7 +6975,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>653</v>
       </c>
@@ -6985,7 +6995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>298</v>
       </c>
@@ -6999,7 +7009,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>302</v>
       </c>
@@ -7013,7 +7023,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>303</v>
       </c>
@@ -7027,7 +7037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>367</v>
       </c>
@@ -7041,7 +7051,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>464</v>
       </c>
@@ -7061,7 +7071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -7075,7 +7085,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>553</v>
       </c>
@@ -7095,7 +7105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>298</v>
       </c>
@@ -7109,7 +7119,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>302</v>
       </c>
@@ -7123,7 +7133,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>303</v>
       </c>
@@ -7137,7 +7147,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>367</v>
       </c>
@@ -7151,7 +7161,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>471</v>
       </c>
@@ -7171,7 +7181,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>544</v>
       </c>
@@ -7191,7 +7201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>545</v>
       </c>
@@ -7205,7 +7215,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>545</v>
       </c>
@@ -7219,7 +7229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>303</v>
       </c>
@@ -7244,23 +7254,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" activeCellId="2" sqref="E2:E7 E10:E12 E15:E19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" activeCellId="4" sqref="A2 A10 A15 A22 A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7280,7 +7290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -7300,7 +7310,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -7314,7 +7324,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -7328,7 +7338,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -7342,7 +7352,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -7356,7 +7366,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -7370,7 +7380,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -7384,7 +7394,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>427</v>
       </c>
@@ -7404,7 +7414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -7418,7 +7428,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -7432,7 +7442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -7446,7 +7456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -7466,7 +7476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -7480,7 +7490,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -7494,7 +7504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -7508,7 +7518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -7522,7 +7532,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -7534,6 +7544,116 @@
       </c>
       <c r="F20" t="s">
         <v>674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>488</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D22" t="s">
+        <v>370</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" t="s">
+        <v>542</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D24" t="s">
+        <v>541</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" t="s">
+        <v>528</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" t="s">
+        <v>547</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" t="s">
+        <v>523</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>298</v>
+      </c>
+      <c r="D29" t="s">
+        <v>348</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -7553,18 +7673,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7584,7 +7704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -7605,7 +7725,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -7626,7 +7746,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -7647,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -7668,7 +7788,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -7689,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -7710,7 +7830,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -7731,7 +7851,7 @@
         <v>0.64406779661016944</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7752,7 +7872,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -7773,7 +7893,7 @@
         <v>0.77586206896551724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -7794,7 +7914,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -7815,34 +7935,34 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>0.7857142857142857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -7850,24 +7970,24 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
-        <v>0.59168704156479213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.59178743961352653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.416666666666666</v>
+        <v>15.583333333333334</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -7875,15 +7995,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>34.083333333333336</v>
+        <v>34.5</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>13.916666666666666</v>
+        <v>14.083333333333334</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>0.59168704156479224</v>
+        <v>0.59178743961352653</v>
       </c>
     </row>
   </sheetData>
@@ -7912,17 +8032,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7942,7 +8062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -7962,7 +8082,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -7994,17 +8114,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8024,7 +8144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -8044,7 +8164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8058,7 +8178,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -8078,7 +8198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -8092,7 +8212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>610</v>
       </c>
@@ -8112,7 +8232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>298</v>
       </c>
@@ -8126,7 +8246,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>611</v>
       </c>
@@ -8146,7 +8266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -8160,7 +8280,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>293</v>
       </c>
@@ -8174,7 +8294,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -8194,7 +8314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -8214,7 +8334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>298</v>
       </c>
@@ -8228,7 +8348,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>302</v>
       </c>
@@ -8242,7 +8362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>303</v>
       </c>
@@ -8256,7 +8376,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>621</v>
       </c>
@@ -8276,7 +8396,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -8314,17 +8434,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8344,7 +8464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -8364,7 +8484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8378,7 +8498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>293</v>
       </c>
@@ -8392,7 +8512,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -8412,7 +8532,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -8426,7 +8546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -8446,7 +8566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -8460,7 +8580,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>302</v>
       </c>
@@ -8474,7 +8594,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>303</v>
       </c>
@@ -8488,7 +8608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>307</v>
       </c>
@@ -8508,7 +8628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>298</v>
       </c>
@@ -8522,7 +8642,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -8542,7 +8662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>312</v>
       </c>
@@ -8562,7 +8682,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -8576,7 +8696,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -8596,7 +8716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -8610,7 +8730,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -8630,7 +8750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>44</v>
       </c>
@@ -8644,7 +8764,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>293</v>
       </c>
@@ -8658,7 +8778,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>297</v>
       </c>
@@ -8672,7 +8792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -8686,7 +8806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>302</v>
       </c>
@@ -8700,7 +8820,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>325</v>
       </c>
@@ -8720,7 +8840,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8734,7 +8854,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -8748,7 +8868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>329</v>
       </c>
@@ -8768,7 +8888,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -8782,7 +8902,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>297</v>
       </c>
@@ -8796,7 +8916,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>298</v>
       </c>
@@ -8810,7 +8930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>334</v>
       </c>
@@ -8830,7 +8950,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -8844,7 +8964,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>293</v>
       </c>
@@ -8858,7 +8978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>297</v>
       </c>
@@ -8872,7 +8992,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>298</v>
       </c>
@@ -8886,7 +9006,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>340</v>
       </c>
@@ -8906,7 +9026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>44</v>
       </c>
@@ -8920,7 +9040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>293</v>
       </c>
@@ -8934,7 +9054,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>356</v>
       </c>
@@ -8954,7 +9074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -8968,7 +9088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -8988,7 +9108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>44</v>
       </c>
@@ -9002,7 +9122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -9016,7 +9136,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -9030,7 +9150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>363</v>
       </c>
@@ -9050,7 +9170,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>298</v>
       </c>
@@ -9064,7 +9184,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>302</v>
       </c>
@@ -9078,7 +9198,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>366</v>
       </c>
@@ -9098,7 +9218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -9112,7 +9232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -9126,7 +9246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -9140,7 +9260,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -9154,7 +9274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>373</v>
       </c>
@@ -9174,7 +9294,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>375</v>
       </c>
@@ -9194,7 +9314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>298</v>
       </c>
@@ -9208,7 +9328,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>302</v>
       </c>
@@ -9222,7 +9342,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>303</v>
       </c>
@@ -9236,7 +9356,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>367</v>
       </c>
@@ -9250,7 +9370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>381</v>
       </c>
@@ -9270,7 +9390,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>44</v>
       </c>
@@ -9284,7 +9404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>297</v>
       </c>
@@ -9298,7 +9418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -9312,7 +9432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>385</v>
       </c>
@@ -9332,7 +9452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>298</v>
       </c>
@@ -9346,7 +9466,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>302</v>
       </c>
@@ -9360,7 +9480,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>388</v>
       </c>
@@ -9380,7 +9500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>298</v>
       </c>
@@ -9394,7 +9514,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>302</v>
       </c>
@@ -9408,7 +9528,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>303</v>
       </c>
@@ -9422,7 +9542,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -9442,7 +9562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>44</v>
       </c>
@@ -9456,7 +9576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>297</v>
       </c>
@@ -9470,7 +9590,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -9484,7 +9604,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -9498,7 +9618,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -9518,7 +9638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>298</v>
       </c>
@@ -9532,7 +9652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>302</v>
       </c>
@@ -9546,7 +9666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>303</v>
       </c>
@@ -9560,7 +9680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -9580,7 +9700,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>298</v>
       </c>
@@ -9594,7 +9714,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>302</v>
       </c>
@@ -9608,7 +9728,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>404</v>
       </c>
@@ -9628,7 +9748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>298</v>
       </c>
@@ -9642,7 +9762,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>302</v>
       </c>
@@ -9656,7 +9776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>303</v>
       </c>
@@ -9688,17 +9808,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9718,7 +9838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -9738,7 +9858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -9752,7 +9872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -9766,7 +9886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -9780,7 +9900,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>367</v>
       </c>
@@ -9794,7 +9914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -9814,7 +9934,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -9831,7 +9951,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -9851,7 +9971,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -9865,7 +9985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -9879,7 +9999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -9899,7 +10019,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -9913,7 +10033,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -9927,7 +10047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>427</v>
       </c>
@@ -9947,7 +10067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>298</v>
       </c>
@@ -9961,7 +10081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -9981,7 +10101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -10001,7 +10121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -10021,7 +10141,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -10041,7 +10161,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>437</v>
       </c>
@@ -10061,7 +10181,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>329</v>
       </c>
@@ -10081,7 +10201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -10095,7 +10215,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>297</v>
       </c>
@@ -10109,7 +10229,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -10123,7 +10243,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -10137,7 +10257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>444</v>
       </c>
@@ -10157,7 +10277,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -10171,7 +10291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -10185,7 +10305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>447</v>
       </c>
@@ -10205,7 +10325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -10219,7 +10339,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -10233,7 +10353,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -10247,7 +10367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -10267,7 +10387,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>355</v>
       </c>
@@ -10281,7 +10401,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -10301,7 +10421,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>297</v>
       </c>
@@ -10315,7 +10435,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>298</v>
       </c>
@@ -10329,7 +10449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>302</v>
       </c>
@@ -10343,7 +10463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>455</v>
       </c>
@@ -10363,7 +10483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>456</v>
       </c>
@@ -10383,7 +10503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>458</v>
       </c>
@@ -10403,7 +10523,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>373</v>
       </c>
@@ -10423,7 +10543,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>381</v>
       </c>
@@ -10443,7 +10563,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>462</v>
       </c>
@@ -10463,7 +10583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -10483,7 +10603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -10503,7 +10623,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -10517,7 +10637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>302</v>
       </c>
@@ -10531,7 +10651,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>468</v>
       </c>
@@ -10551,7 +10671,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>298</v>
       </c>
@@ -10565,7 +10685,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>302</v>
       </c>
@@ -10579,7 +10699,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>471</v>
       </c>
@@ -10617,17 +10737,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10647,7 +10767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -10667,7 +10787,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -10687,7 +10807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>44</v>
       </c>
@@ -10701,7 +10821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>297</v>
       </c>
@@ -10715,7 +10835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -10729,7 +10849,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>302</v>
       </c>
@@ -10743,7 +10863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>303</v>
       </c>
@@ -10757,7 +10877,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>367</v>
       </c>
@@ -10771,7 +10891,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -10791,7 +10911,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>355</v>
       </c>
@@ -10805,7 +10925,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -10825,7 +10945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>408</v>
       </c>
@@ -10845,7 +10965,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -10859,7 +10979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -10873,7 +10993,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -10887,7 +11007,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -10901,7 +11021,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -10921,7 +11041,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>355</v>
       </c>
@@ -10935,7 +11055,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>297</v>
       </c>
@@ -10949,7 +11069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>488</v>
       </c>
@@ -10969,7 +11089,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -10983,7 +11103,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>418</v>
       </c>
@@ -11000,7 +11120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -11020,7 +11140,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>297</v>
       </c>
@@ -11034,7 +11154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>492</v>
       </c>
@@ -11054,7 +11174,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>607</v>
       </c>
@@ -11074,7 +11194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>494</v>
       </c>
@@ -11094,7 +11214,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>437</v>
       </c>
@@ -11114,7 +11234,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -11134,7 +11254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -11148,7 +11268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>444</v>
       </c>
@@ -11168,7 +11288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -11182,7 +11302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>447</v>
       </c>
@@ -11202,7 +11322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>340</v>
       </c>
@@ -11222,7 +11342,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>355</v>
       </c>
@@ -11236,7 +11356,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>297</v>
       </c>
@@ -11250,7 +11370,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>450</v>
       </c>
@@ -11270,7 +11390,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -11284,7 +11404,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>455</v>
       </c>
@@ -11304,7 +11424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -11318,7 +11438,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>355</v>
       </c>
@@ -11332,7 +11452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>297</v>
       </c>
@@ -11346,7 +11466,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -11360,7 +11480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>456</v>
       </c>
@@ -11380,7 +11500,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -11394,7 +11514,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -11408,7 +11528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>458</v>
       </c>
@@ -11428,7 +11548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>297</v>
       </c>
@@ -11442,7 +11562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>298</v>
       </c>
@@ -11456,7 +11576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>302</v>
       </c>
@@ -11470,7 +11590,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>303</v>
       </c>
@@ -11484,7 +11604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>367</v>
       </c>
@@ -11498,7 +11618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>373</v>
       </c>
@@ -11518,7 +11638,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>355</v>
       </c>
@@ -11532,7 +11652,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>297</v>
       </c>
@@ -11546,7 +11666,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>381</v>
       </c>
@@ -11566,7 +11686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -11580,7 +11700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>302</v>
       </c>
@@ -11594,7 +11714,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>462</v>
       </c>
@@ -11614,7 +11734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -11628,7 +11748,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>297</v>
       </c>
@@ -11642,7 +11762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>298</v>
       </c>
@@ -11656,7 +11776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>302</v>
       </c>
@@ -11670,7 +11790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>303</v>
       </c>
@@ -11684,7 +11804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>367</v>
       </c>
@@ -11698,7 +11818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>464</v>
       </c>
@@ -11718,7 +11838,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>297</v>
       </c>
@@ -11732,7 +11852,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -11752,7 +11872,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -11766,7 +11886,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>303</v>
       </c>
@@ -11780,7 +11900,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>515</v>
       </c>
@@ -11800,7 +11920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>298</v>
       </c>
@@ -11814,7 +11934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>302</v>
       </c>
@@ -11828,7 +11948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>303</v>
       </c>
@@ -11842,7 +11962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>471</v>
       </c>
@@ -11862,7 +11982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>297</v>
       </c>
@@ -11894,17 +12014,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11924,7 +12044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>517</v>
       </c>
@@ -11944,7 +12064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>302</v>
       </c>
@@ -11958,7 +12078,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>303</v>
       </c>
@@ -11972,7 +12092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>367</v>
       </c>
@@ -11986,7 +12106,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -12006,7 +12126,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -12020,7 +12140,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -12034,7 +12154,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -12048,7 +12168,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -12065,7 +12185,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>522</v>
       </c>
@@ -12085,7 +12205,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>302</v>
       </c>
@@ -12099,7 +12219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>303</v>
       </c>
@@ -12113,7 +12233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>367</v>
       </c>
@@ -12127,7 +12247,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -12147,7 +12267,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -12161,7 +12281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -12175,7 +12295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>303</v>
       </c>
@@ -12189,7 +12309,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>427</v>
       </c>
@@ -12209,7 +12329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>430</v>
       </c>
@@ -12229,7 +12349,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -12243,7 +12363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -12263,7 +12383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>297</v>
       </c>
@@ -12277,7 +12397,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -12291,7 +12411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -12311,7 +12431,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -12325,7 +12445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -12339,7 +12459,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -12353,7 +12473,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -12367,7 +12487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>526</v>
       </c>
@@ -12387,7 +12507,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -12401,7 +12521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -12415,7 +12535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>303</v>
       </c>
@@ -12429,7 +12549,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>367</v>
       </c>
@@ -12443,7 +12563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>607</v>
       </c>
@@ -12463,7 +12583,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>494</v>
       </c>
@@ -12483,7 +12603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>437</v>
       </c>
@@ -12503,7 +12623,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -12523,7 +12643,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>444</v>
       </c>
@@ -12543,7 +12663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>298</v>
       </c>
@@ -12557,7 +12677,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>302</v>
       </c>
@@ -12571,7 +12691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>303</v>
       </c>
@@ -12585,7 +12705,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>340</v>
       </c>
@@ -12605,7 +12725,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>355</v>
       </c>
@@ -12619,7 +12739,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>297</v>
       </c>
@@ -12633,7 +12753,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -12653,7 +12773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>298</v>
       </c>
@@ -12667,7 +12787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>302</v>
       </c>
@@ -12681,7 +12801,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>303</v>
       </c>
@@ -12695,7 +12815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>367</v>
       </c>
@@ -12709,7 +12829,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>455</v>
       </c>
@@ -12729,7 +12849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -12743,7 +12863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -12757,7 +12877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -12771,7 +12891,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -12785,7 +12905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>456</v>
       </c>
@@ -12805,7 +12925,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>297</v>
       </c>
@@ -12819,7 +12939,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>298</v>
       </c>
@@ -12833,7 +12953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>302</v>
       </c>
@@ -12847,7 +12967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>303</v>
       </c>
@@ -12861,7 +12981,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>367</v>
       </c>
@@ -12875,7 +12995,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>373</v>
       </c>
@@ -12895,7 +13015,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>355</v>
       </c>
@@ -12909,7 +13029,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>297</v>
       </c>
@@ -12923,7 +13043,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>298</v>
       </c>
@@ -12937,7 +13057,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>302</v>
       </c>
@@ -12951,7 +13071,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>303</v>
       </c>
@@ -12965,7 +13085,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -12979,7 +13099,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -12999,7 +13119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>302</v>
       </c>
@@ -13013,7 +13133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>303</v>
       </c>
@@ -13027,7 +13147,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>367</v>
       </c>
@@ -13041,7 +13161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>464</v>
       </c>
@@ -13061,7 +13181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>298</v>
       </c>
@@ -13075,7 +13195,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>302</v>
       </c>
@@ -13089,7 +13209,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>303</v>
       </c>
@@ -13103,7 +13223,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>367</v>
       </c>
@@ -13117,7 +13237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>471</v>
       </c>
@@ -13137,7 +13257,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>544</v>
       </c>
@@ -13157,7 +13277,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>545</v>
       </c>
@@ -13171,7 +13291,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>545</v>
       </c>
@@ -13202,17 +13322,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13232,7 +13352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -13252,7 +13372,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -13266,7 +13386,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -13280,7 +13400,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -13294,7 +13414,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -13314,7 +13434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>424</v>
       </c>
@@ -13334,7 +13454,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>302</v>
       </c>
@@ -13348,7 +13468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -13368,7 +13488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -13382,7 +13502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -13396,7 +13516,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>373</v>
       </c>
@@ -13416,7 +13536,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>355</v>
       </c>
@@ -13430,7 +13550,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -13444,7 +13564,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -13458,7 +13578,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -13472,7 +13592,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>303</v>
       </c>
@@ -13486,7 +13606,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -13506,7 +13626,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -13526,7 +13646,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>381</v>
       </c>
@@ -13546,7 +13666,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -13560,7 +13680,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>553</v>
       </c>
@@ -13580,7 +13700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -13594,7 +13714,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>302</v>
       </c>
@@ -13608,7 +13728,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>471</v>
       </c>
@@ -13628,7 +13748,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -13642,7 +13762,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -13656,7 +13776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -13670,7 +13790,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -13684,7 +13804,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>544</v>
       </c>
@@ -13704,7 +13824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>545</v>
       </c>
@@ -13718,7 +13838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>545</v>
       </c>
@@ -13732,7 +13852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>303</v>
       </c>
@@ -13746,7 +13866,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>367</v>
       </c>
@@ -13777,17 +13897,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13807,7 +13927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -13827,7 +13947,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -13841,7 +13961,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -13855,7 +13975,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -13869,7 +13989,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -13883,7 +14003,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -13897,7 +14017,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -13911,7 +14031,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -13931,7 +14051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>424</v>
       </c>
@@ -13951,7 +14071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -13965,7 +14085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -13979,7 +14099,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -13993,7 +14113,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>488</v>
       </c>
@@ -14013,7 +14133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -14027,7 +14147,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -14041,7 +14161,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -14055,7 +14175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>607</v>
       </c>
@@ -14075,7 +14195,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -14089,7 +14209,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>494</v>
       </c>
@@ -14109,7 +14229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>437</v>
       </c>
@@ -14129,7 +14249,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -14143,7 +14263,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -14157,7 +14277,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -14171,7 +14291,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -14185,7 +14305,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>530</v>
       </c>
@@ -14205,7 +14325,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>560</v>
       </c>
@@ -14225,7 +14345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -14239,7 +14359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -14253,7 +14373,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -14267,7 +14387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -14287,7 +14407,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>355</v>
       </c>
@@ -14301,7 +14421,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>297</v>
       </c>
@@ -14315,7 +14435,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -14329,7 +14449,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>566</v>
       </c>
@@ -14349,7 +14469,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>297</v>
       </c>
@@ -14363,7 +14483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -14377,7 +14497,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>302</v>
       </c>
@@ -14391,7 +14511,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>455</v>
       </c>
@@ -14411,7 +14531,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>298</v>
       </c>
@@ -14425,7 +14545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>302</v>
       </c>
@@ -14439,7 +14559,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>303</v>
       </c>
@@ -14453,7 +14573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>367</v>
       </c>
@@ -14467,7 +14587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>456</v>
       </c>
@@ -14487,7 +14607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -14501,7 +14621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>302</v>
       </c>
@@ -14515,7 +14635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>303</v>
       </c>
@@ -14529,7 +14649,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>373</v>
       </c>
@@ -14549,7 +14669,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>355</v>
       </c>
@@ -14563,7 +14683,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>297</v>
       </c>
@@ -14577,7 +14697,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -14591,7 +14711,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -14605,7 +14725,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -14619,7 +14739,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -14633,7 +14753,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>430</v>
       </c>
@@ -14653,7 +14773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>297</v>
       </c>
@@ -14667,7 +14787,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -14681,7 +14801,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -14701,7 +14821,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>298</v>
       </c>
@@ -14715,7 +14835,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>302</v>
       </c>
@@ -14729,7 +14849,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>303</v>
       </c>
@@ -14743,7 +14863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -14757,7 +14877,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>544</v>
       </c>
@@ -14777,7 +14897,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>545</v>
       </c>
@@ -14791,7 +14911,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>545</v>
       </c>
@@ -14805,7 +14925,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>303</v>
       </c>
@@ -14819,7 +14939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -14833,7 +14953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>418</v>
       </c>
@@ -14850,7 +14970,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>467</v>
       </c>
@@ -14861,7 +14981,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>574</v>
       </c>
@@ -14872,7 +14992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>362</v>
       </c>
@@ -14883,7 +15003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>535</v>
       </c>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24023" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DCCA22A-58AF-4DC6-9A9A-392963EF0F50}"/>
+  <xr:revisionPtr revIDLastSave="24040" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEA35797-6549-403F-BC3B-53F344D83B05}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="680">
   <si>
     <t>ROUND</t>
   </si>
@@ -2078,6 +2078,15 @@
   </si>
   <si>
     <t>6-2 7-6(7)</t>
+  </si>
+  <si>
+    <t>2-6 6-4 6-4</t>
+  </si>
+  <si>
+    <t>5-7 7-6(4) 6-3</t>
+  </si>
+  <si>
+    <t>6-4 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -2381,7 +2390,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2501,7 +2510,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3030,7 +3039,7 @@
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.73684210526315785</c:v>
+                  <c:v>0.72727272727272729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4518,10 +4527,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4828,17 +4833,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4858,7 +4863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -4895,17 +4900,17 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4925,7 +4930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -4945,7 +4950,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -4959,7 +4964,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -4973,7 +4978,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -4987,7 +4992,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -5001,7 +5006,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -5015,7 +5020,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -5029,7 +5034,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>576</v>
       </c>
@@ -5049,7 +5054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -5063,7 +5068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -5077,7 +5082,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -5091,7 +5096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -5111,7 +5116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -5125,7 +5130,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>488</v>
       </c>
@@ -5145,7 +5150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -5159,7 +5164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -5173,7 +5178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -5187,7 +5192,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>579</v>
       </c>
@@ -5207,7 +5212,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -5227,7 +5232,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>355</v>
       </c>
@@ -5241,7 +5246,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -5255,7 +5260,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -5269,7 +5274,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -5289,7 +5294,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -5303,7 +5308,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -5317,7 +5322,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -5331,7 +5336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>530</v>
       </c>
@@ -5351,7 +5356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -5365,7 +5370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -5379,7 +5384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>303</v>
       </c>
@@ -5393,7 +5398,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>367</v>
       </c>
@@ -5407,7 +5412,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>593</v>
       </c>
@@ -5427,7 +5432,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>302</v>
       </c>
@@ -5441,7 +5446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5461,7 +5466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -5475,7 +5480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -5489,7 +5494,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>367</v>
       </c>
@@ -5503,7 +5508,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>455</v>
       </c>
@@ -5523,7 +5528,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>456</v>
       </c>
@@ -5543,7 +5548,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -5557,7 +5562,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -5571,7 +5576,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -5585,7 +5590,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -5605,7 +5610,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>355</v>
       </c>
@@ -5619,7 +5624,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>297</v>
       </c>
@@ -5633,7 +5638,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>298</v>
       </c>
@@ -5647,7 +5652,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>588</v>
       </c>
@@ -5667,7 +5672,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -5687,7 +5692,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -5701,7 +5706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -5715,7 +5720,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -5729,7 +5734,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>553</v>
       </c>
@@ -5749,7 +5754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -5763,7 +5768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -5777,7 +5782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -5791,7 +5796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -5805,7 +5810,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>471</v>
       </c>
@@ -5825,7 +5830,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>544</v>
       </c>
@@ -5845,7 +5850,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>545</v>
       </c>
@@ -5859,7 +5864,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>545</v>
       </c>
@@ -5887,21 +5892,21 @@
   </sheetPr>
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:C43"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5921,7 +5926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -5941,7 +5946,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -5955,7 +5960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -5969,7 +5974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -5983,7 +5988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -6003,7 +6008,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -6017,7 +6022,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -6031,7 +6036,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>408</v>
       </c>
@@ -6051,7 +6056,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>298</v>
       </c>
@@ -6065,7 +6070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -6079,7 +6084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -6093,7 +6098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -6107,7 +6112,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>594</v>
       </c>
@@ -6127,7 +6132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -6141,7 +6146,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -6155,7 +6160,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -6169,7 +6174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -6189,7 +6194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -6203,7 +6208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>302</v>
       </c>
@@ -6217,7 +6222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>303</v>
       </c>
@@ -6231,7 +6236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>367</v>
       </c>
@@ -6245,7 +6250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -6265,7 +6270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -6279,7 +6284,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -6293,7 +6298,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -6307,7 +6312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -6321,7 +6326,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -6335,7 +6340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -6355,7 +6360,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>297</v>
       </c>
@@ -6369,7 +6374,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>298</v>
       </c>
@@ -6383,7 +6388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>302</v>
       </c>
@@ -6397,7 +6402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>303</v>
       </c>
@@ -6411,7 +6416,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>367</v>
       </c>
@@ -6425,7 +6430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -6445,7 +6450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -6459,7 +6464,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>302</v>
       </c>
@@ -6473,7 +6478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>607</v>
       </c>
@@ -6493,7 +6498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>297</v>
       </c>
@@ -6507,7 +6512,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>298</v>
       </c>
@@ -6521,7 +6526,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>494</v>
       </c>
@@ -6541,7 +6546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>297</v>
       </c>
@@ -6555,7 +6560,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -6569,7 +6574,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -6583,7 +6588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -6597,7 +6602,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>367</v>
       </c>
@@ -6611,7 +6616,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>437</v>
       </c>
@@ -6631,7 +6636,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>631</v>
       </c>
@@ -6651,7 +6656,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>632</v>
       </c>
@@ -6671,7 +6676,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -6685,7 +6690,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>302</v>
       </c>
@@ -6699,7 +6704,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -6719,7 +6724,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -6733,7 +6738,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>297</v>
       </c>
@@ -6747,7 +6752,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>298</v>
       </c>
@@ -6761,7 +6766,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>302</v>
       </c>
@@ -6775,7 +6780,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>303</v>
       </c>
@@ -6789,7 +6794,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>455</v>
       </c>
@@ -6809,7 +6814,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>298</v>
       </c>
@@ -6823,7 +6828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>302</v>
       </c>
@@ -6837,7 +6842,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>456</v>
       </c>
@@ -6857,7 +6862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>298</v>
       </c>
@@ -6871,7 +6876,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>373</v>
       </c>
@@ -6891,7 +6896,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>355</v>
       </c>
@@ -6905,7 +6910,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>297</v>
       </c>
@@ -6919,7 +6924,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>298</v>
       </c>
@@ -6933,7 +6938,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>302</v>
       </c>
@@ -6947,7 +6952,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>303</v>
       </c>
@@ -6961,7 +6966,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>367</v>
       </c>
@@ -6975,7 +6980,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>653</v>
       </c>
@@ -6995,7 +7000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>298</v>
       </c>
@@ -7009,7 +7014,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>302</v>
       </c>
@@ -7023,7 +7028,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>303</v>
       </c>
@@ -7037,7 +7042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>367</v>
       </c>
@@ -7051,7 +7056,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>464</v>
       </c>
@@ -7071,7 +7076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -7085,7 +7090,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>553</v>
       </c>
@@ -7105,7 +7110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>298</v>
       </c>
@@ -7119,7 +7124,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>302</v>
       </c>
@@ -7133,7 +7138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>303</v>
       </c>
@@ -7147,7 +7152,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>367</v>
       </c>
@@ -7161,7 +7166,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>471</v>
       </c>
@@ -7181,7 +7186,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>544</v>
       </c>
@@ -7201,7 +7206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>545</v>
       </c>
@@ -7215,7 +7220,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>545</v>
       </c>
@@ -7229,7 +7234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>303</v>
       </c>
@@ -7254,23 +7259,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" activeCellId="4" sqref="A2 A10 A15 A22 A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" activeCellId="5" sqref="E2:E7 E10:E12 E15:E19 E22:E25 E28 E31:E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7290,7 +7295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -7310,7 +7315,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -7324,7 +7329,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -7338,7 +7343,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -7352,7 +7357,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -7366,7 +7371,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -7380,7 +7385,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -7394,7 +7399,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>427</v>
       </c>
@@ -7414,7 +7419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -7428,7 +7433,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -7442,7 +7447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -7456,7 +7461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -7476,7 +7481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -7490,7 +7495,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -7504,7 +7509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -7518,7 +7523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -7532,7 +7537,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -7546,7 +7551,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>488</v>
       </c>
@@ -7566,7 +7571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>297</v>
       </c>
@@ -7580,7 +7585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>298</v>
       </c>
@@ -7594,7 +7599,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>302</v>
       </c>
@@ -7608,7 +7613,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>303</v>
       </c>
@@ -7622,7 +7627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>310</v>
       </c>
@@ -7642,7 +7647,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -7654,6 +7659,68 @@
       </c>
       <c r="F29" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>607</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>355</v>
+      </c>
+      <c r="D31" t="s">
+        <v>596</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32" t="s">
+        <v>352</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" t="s">
+        <v>305</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" t="s">
+        <v>642</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -7673,18 +7740,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7704,7 +7771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -7725,7 +7792,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -7746,7 +7813,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -7767,7 +7834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -7788,7 +7855,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -7809,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -7830,7 +7897,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -7851,7 +7918,7 @@
         <v>0.64406779661016944</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -7872,7 +7939,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -7893,7 +7960,7 @@
         <v>0.77586206896551724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -7914,7 +7981,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -7935,34 +8002,34 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>0.73684210526315785</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.72727272727272729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -7970,24 +8037,24 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
-        <v>0.59178743961352653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.592326139088729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.583333333333334</v>
+        <v>15.666666666666666</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -7995,15 +8062,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>34.5</v>
+        <v>34.75</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.083333333333334</v>
+        <v>14.166666666666666</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>0.59178743961352653</v>
+        <v>0.59232613908872911</v>
       </c>
     </row>
   </sheetData>
@@ -8032,17 +8099,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8062,7 +8129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -8082,7 +8149,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8114,17 +8181,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8144,7 +8211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -8164,7 +8231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8178,7 +8245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -8198,7 +8265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -8212,7 +8279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>610</v>
       </c>
@@ -8232,7 +8299,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>298</v>
       </c>
@@ -8246,7 +8313,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>611</v>
       </c>
@@ -8266,7 +8333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -8280,7 +8347,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>293</v>
       </c>
@@ -8294,7 +8361,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -8314,7 +8381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -8334,7 +8401,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>298</v>
       </c>
@@ -8348,7 +8415,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>302</v>
       </c>
@@ -8362,7 +8429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>303</v>
       </c>
@@ -8376,7 +8443,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>621</v>
       </c>
@@ -8396,7 +8463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -8434,17 +8501,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8464,7 +8531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -8484,7 +8551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8498,7 +8565,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>293</v>
       </c>
@@ -8512,7 +8579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -8532,7 +8599,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -8546,7 +8613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -8566,7 +8633,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -8580,7 +8647,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>302</v>
       </c>
@@ -8594,7 +8661,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>303</v>
       </c>
@@ -8608,7 +8675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>307</v>
       </c>
@@ -8628,7 +8695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>298</v>
       </c>
@@ -8642,7 +8709,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -8662,7 +8729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>312</v>
       </c>
@@ -8682,7 +8749,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -8696,7 +8763,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -8716,7 +8783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -8730,7 +8797,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -8750,7 +8817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>44</v>
       </c>
@@ -8764,7 +8831,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>293</v>
       </c>
@@ -8778,7 +8845,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>297</v>
       </c>
@@ -8792,7 +8859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -8806,7 +8873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>302</v>
       </c>
@@ -8820,7 +8887,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>325</v>
       </c>
@@ -8840,7 +8907,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8854,7 +8921,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -8868,7 +8935,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>329</v>
       </c>
@@ -8888,7 +8955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -8902,7 +8969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>297</v>
       </c>
@@ -8916,7 +8983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>298</v>
       </c>
@@ -8930,7 +8997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>334</v>
       </c>
@@ -8950,7 +9017,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -8964,7 +9031,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>293</v>
       </c>
@@ -8978,7 +9045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>297</v>
       </c>
@@ -8992,7 +9059,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>298</v>
       </c>
@@ -9006,7 +9073,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>340</v>
       </c>
@@ -9026,7 +9093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>44</v>
       </c>
@@ -9040,7 +9107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>293</v>
       </c>
@@ -9054,7 +9121,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>356</v>
       </c>
@@ -9074,7 +9141,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -9088,7 +9155,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -9108,7 +9175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>44</v>
       </c>
@@ -9122,7 +9189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -9136,7 +9203,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -9150,7 +9217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>363</v>
       </c>
@@ -9170,7 +9237,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>298</v>
       </c>
@@ -9184,7 +9251,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>302</v>
       </c>
@@ -9198,7 +9265,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>366</v>
       </c>
@@ -9218,7 +9285,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -9232,7 +9299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -9246,7 +9313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -9260,7 +9327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -9274,7 +9341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>373</v>
       </c>
@@ -9294,7 +9361,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>375</v>
       </c>
@@ -9314,7 +9381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>298</v>
       </c>
@@ -9328,7 +9395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>302</v>
       </c>
@@ -9342,7 +9409,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>303</v>
       </c>
@@ -9356,7 +9423,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>367</v>
       </c>
@@ -9370,7 +9437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>381</v>
       </c>
@@ -9390,7 +9457,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>44</v>
       </c>
@@ -9404,7 +9471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>297</v>
       </c>
@@ -9418,7 +9485,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -9432,7 +9499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>385</v>
       </c>
@@ -9452,7 +9519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>298</v>
       </c>
@@ -9466,7 +9533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>302</v>
       </c>
@@ -9480,7 +9547,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>388</v>
       </c>
@@ -9500,7 +9567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>298</v>
       </c>
@@ -9514,7 +9581,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>302</v>
       </c>
@@ -9528,7 +9595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>303</v>
       </c>
@@ -9542,7 +9609,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -9562,7 +9629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>44</v>
       </c>
@@ -9576,7 +9643,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>297</v>
       </c>
@@ -9590,7 +9657,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -9604,7 +9671,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -9618,7 +9685,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -9638,7 +9705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>298</v>
       </c>
@@ -9652,7 +9719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>302</v>
       </c>
@@ -9666,7 +9733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>303</v>
       </c>
@@ -9680,7 +9747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -9700,7 +9767,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>298</v>
       </c>
@@ -9714,7 +9781,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>302</v>
       </c>
@@ -9728,7 +9795,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>404</v>
       </c>
@@ -9748,7 +9815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>298</v>
       </c>
@@ -9762,7 +9829,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>302</v>
       </c>
@@ -9776,7 +9843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>303</v>
       </c>
@@ -9808,17 +9875,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9838,7 +9905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -9858,7 +9925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -9872,7 +9939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -9886,7 +9953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -9900,7 +9967,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>367</v>
       </c>
@@ -9914,7 +9981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -9934,7 +10001,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -9951,7 +10018,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -9971,7 +10038,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -9985,7 +10052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -9999,7 +10066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -10019,7 +10086,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -10033,7 +10100,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -10047,7 +10114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>427</v>
       </c>
@@ -10067,7 +10134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>298</v>
       </c>
@@ -10081,7 +10148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -10101,7 +10168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -10121,7 +10188,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -10141,7 +10208,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -10161,7 +10228,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>437</v>
       </c>
@@ -10181,7 +10248,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>329</v>
       </c>
@@ -10201,7 +10268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -10215,7 +10282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>297</v>
       </c>
@@ -10229,7 +10296,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -10243,7 +10310,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -10257,7 +10324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>444</v>
       </c>
@@ -10277,7 +10344,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -10291,7 +10358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -10305,7 +10372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>447</v>
       </c>
@@ -10325,7 +10392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -10339,7 +10406,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -10353,7 +10420,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -10367,7 +10434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -10387,7 +10454,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>355</v>
       </c>
@@ -10401,7 +10468,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -10421,7 +10488,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>297</v>
       </c>
@@ -10435,7 +10502,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>298</v>
       </c>
@@ -10449,7 +10516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>302</v>
       </c>
@@ -10463,7 +10530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>455</v>
       </c>
@@ -10483,7 +10550,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>456</v>
       </c>
@@ -10503,7 +10570,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>458</v>
       </c>
@@ -10523,7 +10590,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>373</v>
       </c>
@@ -10543,7 +10610,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>381</v>
       </c>
@@ -10563,7 +10630,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>462</v>
       </c>
@@ -10583,7 +10650,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -10603,7 +10670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -10623,7 +10690,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -10637,7 +10704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>302</v>
       </c>
@@ -10651,7 +10718,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>468</v>
       </c>
@@ -10671,7 +10738,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>298</v>
       </c>
@@ -10685,7 +10752,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>302</v>
       </c>
@@ -10699,7 +10766,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>471</v>
       </c>
@@ -10737,17 +10804,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10767,7 +10834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -10787,7 +10854,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -10807,7 +10874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>44</v>
       </c>
@@ -10821,7 +10888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>297</v>
       </c>
@@ -10835,7 +10902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -10849,7 +10916,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>302</v>
       </c>
@@ -10863,7 +10930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>303</v>
       </c>
@@ -10877,7 +10944,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>367</v>
       </c>
@@ -10891,7 +10958,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -10911,7 +10978,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>355</v>
       </c>
@@ -10925,7 +10992,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -10945,7 +11012,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>408</v>
       </c>
@@ -10965,7 +11032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -10979,7 +11046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -10993,7 +11060,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -11007,7 +11074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -11021,7 +11088,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -11041,7 +11108,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>355</v>
       </c>
@@ -11055,7 +11122,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>297</v>
       </c>
@@ -11069,7 +11136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>488</v>
       </c>
@@ -11089,7 +11156,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -11103,7 +11170,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>418</v>
       </c>
@@ -11120,7 +11187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -11140,7 +11207,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>297</v>
       </c>
@@ -11154,7 +11221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>492</v>
       </c>
@@ -11174,7 +11241,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>607</v>
       </c>
@@ -11194,7 +11261,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>494</v>
       </c>
@@ -11214,7 +11281,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>437</v>
       </c>
@@ -11234,7 +11301,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -11254,7 +11321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -11268,7 +11335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>444</v>
       </c>
@@ -11288,7 +11355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -11302,7 +11369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>447</v>
       </c>
@@ -11322,7 +11389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>340</v>
       </c>
@@ -11342,7 +11409,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>355</v>
       </c>
@@ -11356,7 +11423,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>297</v>
       </c>
@@ -11370,7 +11437,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>450</v>
       </c>
@@ -11390,7 +11457,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -11404,7 +11471,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>455</v>
       </c>
@@ -11424,7 +11491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -11438,7 +11505,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>355</v>
       </c>
@@ -11452,7 +11519,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>297</v>
       </c>
@@ -11466,7 +11533,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -11480,7 +11547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>456</v>
       </c>
@@ -11500,7 +11567,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -11514,7 +11581,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -11528,7 +11595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>458</v>
       </c>
@@ -11548,7 +11615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>297</v>
       </c>
@@ -11562,7 +11629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>298</v>
       </c>
@@ -11576,7 +11643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>302</v>
       </c>
@@ -11590,7 +11657,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>303</v>
       </c>
@@ -11604,7 +11671,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>367</v>
       </c>
@@ -11618,7 +11685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>373</v>
       </c>
@@ -11638,7 +11705,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>355</v>
       </c>
@@ -11652,7 +11719,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>297</v>
       </c>
@@ -11666,7 +11733,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>381</v>
       </c>
@@ -11686,7 +11753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -11700,7 +11767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>302</v>
       </c>
@@ -11714,7 +11781,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>462</v>
       </c>
@@ -11734,7 +11801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -11748,7 +11815,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>297</v>
       </c>
@@ -11762,7 +11829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>298</v>
       </c>
@@ -11776,7 +11843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>302</v>
       </c>
@@ -11790,7 +11857,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>303</v>
       </c>
@@ -11804,7 +11871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>367</v>
       </c>
@@ -11818,7 +11885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>464</v>
       </c>
@@ -11838,7 +11905,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>297</v>
       </c>
@@ -11852,7 +11919,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -11872,7 +11939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -11886,7 +11953,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>303</v>
       </c>
@@ -11900,7 +11967,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>515</v>
       </c>
@@ -11920,7 +11987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>298</v>
       </c>
@@ -11934,7 +12001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>302</v>
       </c>
@@ -11948,7 +12015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>303</v>
       </c>
@@ -11962,7 +12029,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>471</v>
       </c>
@@ -11982,7 +12049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>297</v>
       </c>
@@ -12014,17 +12081,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12044,7 +12111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>517</v>
       </c>
@@ -12064,7 +12131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>302</v>
       </c>
@@ -12078,7 +12145,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>303</v>
       </c>
@@ -12092,7 +12159,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>367</v>
       </c>
@@ -12106,7 +12173,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -12126,7 +12193,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -12140,7 +12207,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -12154,7 +12221,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -12168,7 +12235,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -12185,7 +12252,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>522</v>
       </c>
@@ -12205,7 +12272,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>302</v>
       </c>
@@ -12219,7 +12286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>303</v>
       </c>
@@ -12233,7 +12300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>367</v>
       </c>
@@ -12247,7 +12314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -12267,7 +12334,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -12281,7 +12348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -12295,7 +12362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>303</v>
       </c>
@@ -12309,7 +12376,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>427</v>
       </c>
@@ -12329,7 +12396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>430</v>
       </c>
@@ -12349,7 +12416,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -12363,7 +12430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -12383,7 +12450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>297</v>
       </c>
@@ -12397,7 +12464,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -12411,7 +12478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -12431,7 +12498,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -12445,7 +12512,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -12459,7 +12526,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -12473,7 +12540,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -12487,7 +12554,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>526</v>
       </c>
@@ -12507,7 +12574,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -12521,7 +12588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -12535,7 +12602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>303</v>
       </c>
@@ -12549,7 +12616,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>367</v>
       </c>
@@ -12563,7 +12630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>607</v>
       </c>
@@ -12583,7 +12650,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>494</v>
       </c>
@@ -12603,7 +12670,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>437</v>
       </c>
@@ -12623,7 +12690,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -12643,7 +12710,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>444</v>
       </c>
@@ -12663,7 +12730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>298</v>
       </c>
@@ -12677,7 +12744,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>302</v>
       </c>
@@ -12691,7 +12758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>303</v>
       </c>
@@ -12705,7 +12772,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>340</v>
       </c>
@@ -12725,7 +12792,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>355</v>
       </c>
@@ -12739,7 +12806,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>297</v>
       </c>
@@ -12753,7 +12820,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -12773,7 +12840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>298</v>
       </c>
@@ -12787,7 +12854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>302</v>
       </c>
@@ -12801,7 +12868,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>303</v>
       </c>
@@ -12815,7 +12882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>367</v>
       </c>
@@ -12829,7 +12896,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>455</v>
       </c>
@@ -12849,7 +12916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -12863,7 +12930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -12877,7 +12944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -12891,7 +12958,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -12905,7 +12972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>456</v>
       </c>
@@ -12925,7 +12992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>297</v>
       </c>
@@ -12939,7 +13006,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>298</v>
       </c>
@@ -12953,7 +13020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>302</v>
       </c>
@@ -12967,7 +13034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>303</v>
       </c>
@@ -12981,7 +13048,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>367</v>
       </c>
@@ -12995,7 +13062,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>373</v>
       </c>
@@ -13015,7 +13082,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>355</v>
       </c>
@@ -13029,7 +13096,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>297</v>
       </c>
@@ -13043,7 +13110,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>298</v>
       </c>
@@ -13057,7 +13124,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>302</v>
       </c>
@@ -13071,7 +13138,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>303</v>
       </c>
@@ -13085,7 +13152,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -13099,7 +13166,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -13119,7 +13186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>302</v>
       </c>
@@ -13133,7 +13200,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>303</v>
       </c>
@@ -13147,7 +13214,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>367</v>
       </c>
@@ -13161,7 +13228,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>464</v>
       </c>
@@ -13181,7 +13248,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>298</v>
       </c>
@@ -13195,7 +13262,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>302</v>
       </c>
@@ -13209,7 +13276,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>303</v>
       </c>
@@ -13223,7 +13290,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>367</v>
       </c>
@@ -13237,7 +13304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>471</v>
       </c>
@@ -13257,7 +13324,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>544</v>
       </c>
@@ -13277,7 +13344,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>545</v>
       </c>
@@ -13291,7 +13358,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>545</v>
       </c>
@@ -13322,17 +13389,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13352,7 +13419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -13372,7 +13439,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -13386,7 +13453,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -13400,7 +13467,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -13414,7 +13481,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -13434,7 +13501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>424</v>
       </c>
@@ -13454,7 +13521,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>302</v>
       </c>
@@ -13468,7 +13535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -13488,7 +13555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -13502,7 +13569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -13516,7 +13583,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>373</v>
       </c>
@@ -13536,7 +13603,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>355</v>
       </c>
@@ -13550,7 +13617,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -13564,7 +13631,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -13578,7 +13645,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -13592,7 +13659,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>303</v>
       </c>
@@ -13606,7 +13673,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -13626,7 +13693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -13646,7 +13713,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>381</v>
       </c>
@@ -13666,7 +13733,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -13680,7 +13747,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>553</v>
       </c>
@@ -13700,7 +13767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -13714,7 +13781,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>302</v>
       </c>
@@ -13728,7 +13795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>471</v>
       </c>
@@ -13748,7 +13815,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -13762,7 +13829,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -13776,7 +13843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -13790,7 +13857,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -13804,7 +13871,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>544</v>
       </c>
@@ -13824,7 +13891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>545</v>
       </c>
@@ -13838,7 +13905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>545</v>
       </c>
@@ -13852,7 +13919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>303</v>
       </c>
@@ -13866,7 +13933,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>367</v>
       </c>
@@ -13897,17 +13964,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13927,7 +13994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -13947,7 +14014,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -13961,7 +14028,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -13975,7 +14042,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -13989,7 +14056,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -14003,7 +14070,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -14017,7 +14084,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -14031,7 +14098,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -14051,7 +14118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>424</v>
       </c>
@@ -14071,7 +14138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -14085,7 +14152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -14099,7 +14166,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -14113,7 +14180,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>488</v>
       </c>
@@ -14133,7 +14200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -14147,7 +14214,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -14161,7 +14228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -14175,7 +14242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>607</v>
       </c>
@@ -14195,7 +14262,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -14209,7 +14276,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>494</v>
       </c>
@@ -14229,7 +14296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>437</v>
       </c>
@@ -14249,7 +14316,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -14263,7 +14330,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -14277,7 +14344,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -14291,7 +14358,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -14305,7 +14372,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>530</v>
       </c>
@@ -14325,7 +14392,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>560</v>
       </c>
@@ -14345,7 +14412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -14359,7 +14426,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -14373,7 +14440,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -14387,7 +14454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -14407,7 +14474,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>355</v>
       </c>
@@ -14421,7 +14488,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>297</v>
       </c>
@@ -14435,7 +14502,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -14449,7 +14516,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>566</v>
       </c>
@@ -14469,7 +14536,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>297</v>
       </c>
@@ -14483,7 +14550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -14497,7 +14564,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>302</v>
       </c>
@@ -14511,7 +14578,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>455</v>
       </c>
@@ -14531,7 +14598,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>298</v>
       </c>
@@ -14545,7 +14612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>302</v>
       </c>
@@ -14559,7 +14626,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>303</v>
       </c>
@@ -14573,7 +14640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>367</v>
       </c>
@@ -14587,7 +14654,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>456</v>
       </c>
@@ -14607,7 +14674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -14621,7 +14688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>302</v>
       </c>
@@ -14635,7 +14702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>303</v>
       </c>
@@ -14649,7 +14716,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>373</v>
       </c>
@@ -14669,7 +14736,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>355</v>
       </c>
@@ -14683,7 +14750,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>297</v>
       </c>
@@ -14697,7 +14764,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -14711,7 +14778,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -14725,7 +14792,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -14739,7 +14806,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -14753,7 +14820,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>430</v>
       </c>
@@ -14773,7 +14840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>297</v>
       </c>
@@ -14787,7 +14854,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -14801,7 +14868,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -14821,7 +14888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>298</v>
       </c>
@@ -14835,7 +14902,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>302</v>
       </c>
@@ -14849,7 +14916,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>303</v>
       </c>
@@ -14863,7 +14930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -14877,7 +14944,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>544</v>
       </c>
@@ -14897,7 +14964,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>545</v>
       </c>
@@ -14911,7 +14978,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>545</v>
       </c>
@@ -14925,7 +14992,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>303</v>
       </c>
@@ -14939,7 +15006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -14953,7 +15020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>418</v>
       </c>
@@ -14970,7 +15037,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>467</v>
       </c>
@@ -14981,7 +15048,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>574</v>
       </c>
@@ -14992,7 +15059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>362</v>
       </c>
@@ -15003,7 +15070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>535</v>
       </c>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24040" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEA35797-6549-403F-BC3B-53F344D83B05}"/>
+  <xr:revisionPtr revIDLastSave="24054" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB030175-D502-47DE-9912-5F4618539948}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="683">
   <si>
     <t>ROUND</t>
   </si>
@@ -2087,6 +2087,15 @@
   </si>
   <si>
     <t>6-4 RETIRED</t>
+  </si>
+  <si>
+    <t>Jack Draper (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Hamad Medjedovic (SERBIA)</t>
+  </si>
+  <si>
+    <t>7-6(5) 2-6 7-5</t>
   </si>
 </sst>
 </file>
@@ -2390,7 +2399,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,7 +2519,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3039,7 +3048,7 @@
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72727272727272729</c:v>
+                  <c:v>0.70833333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4527,6 +4536,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -7259,10 +7272,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" activeCellId="5" sqref="E2:E7 E10:E12 E15:E19 E22:E25 E28 E31:E33"/>
+      <selection activeCell="E36" activeCellId="6" sqref="E2:E7 E10:E12 E15:E19 E22:E25 E28 E31:E33 E36:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7695,7 +7708,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>298</v>
       </c>
@@ -7709,7 +7722,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>302</v>
       </c>
@@ -7721,6 +7734,54 @@
       </c>
       <c r="F34" t="s">
         <v>679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>494</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>355</v>
+      </c>
+      <c r="D36" t="s">
+        <v>680</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" t="s">
+        <v>681</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>298</v>
+      </c>
+      <c r="D38" t="s">
+        <v>559</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -8007,20 +8068,20 @@
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>0.72727272727272729</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8029,7 +8090,7 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -8037,15 +8098,15 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
-        <v>0.592326139088729</v>
+        <v>0.59188544152744627</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8054,7 +8115,7 @@
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.666666666666666</v>
+        <v>15.75</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -8062,15 +8123,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>34.75</v>
+        <v>34.916666666666664</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.166666666666666</v>
+        <v>14.25</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>0.59232613908872911</v>
+        <v>0.59188544152744627</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24054" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB030175-D502-47DE-9912-5F4618539948}"/>
+  <xr:revisionPtr revIDLastSave="24078" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7086F67A-6DD1-4161-B93B-64826E58A22C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="688">
   <si>
     <t>ROUND</t>
   </si>
@@ -2096,6 +2096,21 @@
   </si>
   <si>
     <t>7-6(5) 2-6 7-5</t>
+  </si>
+  <si>
+    <t>Dominik Koepfer</t>
+  </si>
+  <si>
+    <t>4-6 6-2 6-1 6-3</t>
+  </si>
+  <si>
+    <t>7-6(4) 7-5 1-6 6-4</t>
+  </si>
+  <si>
+    <t>6-1 5-0 RETIRED</t>
+  </si>
+  <si>
+    <t>6-3 6-4 5-7 6-3</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2414,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2519,7 +2534,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3048,7 +3063,7 @@
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70833333333333337</c:v>
+                  <c:v>0.70370370370370372</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4846,17 +4861,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4876,7 +4891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -4909,21 +4924,21 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4943,7 +4958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -4963,7 +4978,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -4977,7 +4992,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -4991,7 +5006,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -5005,7 +5020,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -5019,7 +5034,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -5033,7 +5048,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -5047,7 +5062,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>576</v>
       </c>
@@ -5067,7 +5082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -5081,7 +5096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -5095,7 +5110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -5109,7 +5124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -5129,7 +5144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -5143,7 +5158,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>488</v>
       </c>
@@ -5163,7 +5178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -5177,7 +5192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -5191,7 +5206,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -5205,7 +5220,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>579</v>
       </c>
@@ -5225,7 +5240,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -5245,7 +5260,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>355</v>
       </c>
@@ -5259,7 +5274,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -5273,7 +5288,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -5287,7 +5302,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -5307,7 +5322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -5321,7 +5336,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -5335,7 +5350,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -5349,7 +5364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>530</v>
       </c>
@@ -5369,7 +5384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -5383,7 +5398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -5397,7 +5412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>303</v>
       </c>
@@ -5411,7 +5426,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>367</v>
       </c>
@@ -5425,7 +5440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>593</v>
       </c>
@@ -5445,7 +5460,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>302</v>
       </c>
@@ -5459,7 +5474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5479,7 +5494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -5493,7 +5508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -5507,7 +5522,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>367</v>
       </c>
@@ -5521,7 +5536,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>455</v>
       </c>
@@ -5541,7 +5556,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>456</v>
       </c>
@@ -5561,7 +5576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -5575,7 +5590,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -5589,7 +5604,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -5603,7 +5618,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -5623,7 +5638,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>355</v>
       </c>
@@ -5637,7 +5652,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>297</v>
       </c>
@@ -5651,7 +5666,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>298</v>
       </c>
@@ -5665,7 +5680,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>588</v>
       </c>
@@ -5685,7 +5700,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -5705,7 +5720,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -5719,7 +5734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -5733,7 +5748,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -5747,7 +5762,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>553</v>
       </c>
@@ -5767,7 +5782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -5781,7 +5796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -5795,7 +5810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -5809,7 +5824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -5823,7 +5838,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>471</v>
       </c>
@@ -5843,7 +5858,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>544</v>
       </c>
@@ -5863,7 +5878,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>545</v>
       </c>
@@ -5877,7 +5892,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>545</v>
       </c>
@@ -5909,17 +5924,17 @@
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5939,7 +5954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -5959,7 +5974,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -5973,7 +5988,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -5987,7 +6002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -6001,7 +6016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -6021,7 +6036,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -6035,7 +6050,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -6049,7 +6064,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>408</v>
       </c>
@@ -6069,7 +6084,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>298</v>
       </c>
@@ -6083,7 +6098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -6097,7 +6112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -6111,7 +6126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -6125,7 +6140,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>594</v>
       </c>
@@ -6145,7 +6160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -6159,7 +6174,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -6173,7 +6188,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -6187,7 +6202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -6207,7 +6222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -6221,7 +6236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>302</v>
       </c>
@@ -6235,7 +6250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>303</v>
       </c>
@@ -6249,7 +6264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>367</v>
       </c>
@@ -6263,7 +6278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -6283,7 +6298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -6297,7 +6312,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -6311,7 +6326,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -6325,7 +6340,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -6339,7 +6354,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -6353,7 +6368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -6373,7 +6388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>297</v>
       </c>
@@ -6387,7 +6402,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>298</v>
       </c>
@@ -6401,7 +6416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>302</v>
       </c>
@@ -6415,7 +6430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>303</v>
       </c>
@@ -6429,7 +6444,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>367</v>
       </c>
@@ -6443,7 +6458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -6463,7 +6478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -6477,7 +6492,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>302</v>
       </c>
@@ -6491,7 +6506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>607</v>
       </c>
@@ -6511,7 +6526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>297</v>
       </c>
@@ -6525,7 +6540,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>298</v>
       </c>
@@ -6539,7 +6554,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>494</v>
       </c>
@@ -6559,7 +6574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>297</v>
       </c>
@@ -6573,7 +6588,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -6587,7 +6602,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -6601,7 +6616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -6615,7 +6630,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>367</v>
       </c>
@@ -6629,7 +6644,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>437</v>
       </c>
@@ -6649,7 +6664,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>631</v>
       </c>
@@ -6669,7 +6684,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>632</v>
       </c>
@@ -6689,7 +6704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -6703,7 +6718,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>302</v>
       </c>
@@ -6717,7 +6732,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -6737,7 +6752,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -6751,7 +6766,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>297</v>
       </c>
@@ -6765,7 +6780,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>298</v>
       </c>
@@ -6779,7 +6794,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>302</v>
       </c>
@@ -6793,7 +6808,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>303</v>
       </c>
@@ -6807,7 +6822,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>455</v>
       </c>
@@ -6827,7 +6842,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>298</v>
       </c>
@@ -6841,7 +6856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>302</v>
       </c>
@@ -6855,7 +6870,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>456</v>
       </c>
@@ -6875,7 +6890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>298</v>
       </c>
@@ -6889,7 +6904,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>373</v>
       </c>
@@ -6909,7 +6924,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>355</v>
       </c>
@@ -6923,7 +6938,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>297</v>
       </c>
@@ -6937,7 +6952,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>298</v>
       </c>
@@ -6951,7 +6966,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>302</v>
       </c>
@@ -6965,7 +6980,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>303</v>
       </c>
@@ -6979,7 +6994,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>367</v>
       </c>
@@ -6993,7 +7008,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>653</v>
       </c>
@@ -7013,7 +7028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>298</v>
       </c>
@@ -7027,7 +7042,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>302</v>
       </c>
@@ -7041,7 +7056,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>303</v>
       </c>
@@ -7055,7 +7070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>367</v>
       </c>
@@ -7069,7 +7084,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>464</v>
       </c>
@@ -7089,7 +7104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -7103,7 +7118,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>553</v>
       </c>
@@ -7123,7 +7138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>298</v>
       </c>
@@ -7137,7 +7152,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>302</v>
       </c>
@@ -7151,7 +7166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>303</v>
       </c>
@@ -7165,7 +7180,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>367</v>
       </c>
@@ -7179,7 +7194,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>471</v>
       </c>
@@ -7199,7 +7214,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>544</v>
       </c>
@@ -7219,7 +7234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>545</v>
       </c>
@@ -7233,7 +7248,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>545</v>
       </c>
@@ -7247,7 +7262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>303</v>
       </c>
@@ -7272,23 +7287,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" activeCellId="6" sqref="E2:E7 E10:E12 E15:E19 E22:E25 E28 E31:E33 E36:E37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E40" activeCellId="7" sqref="E2:E7 E10:E12 E15:E19 E22:E25 E28 E31:E33 E36:E37 E40:E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7308,7 +7323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -7328,7 +7343,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -7342,7 +7357,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -7356,7 +7371,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -7370,7 +7385,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -7384,7 +7399,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -7398,7 +7413,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -7412,7 +7427,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>427</v>
       </c>
@@ -7432,7 +7447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -7446,7 +7461,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -7460,7 +7475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -7474,7 +7489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -7494,7 +7509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -7508,7 +7523,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -7522,7 +7537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -7536,7 +7551,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -7550,7 +7565,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -7564,7 +7579,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>488</v>
       </c>
@@ -7584,7 +7599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>297</v>
       </c>
@@ -7598,7 +7613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>298</v>
       </c>
@@ -7612,7 +7627,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>302</v>
       </c>
@@ -7626,7 +7641,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>303</v>
       </c>
@@ -7640,7 +7655,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>310</v>
       </c>
@@ -7660,7 +7675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -7674,7 +7689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>607</v>
       </c>
@@ -7694,7 +7709,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>297</v>
       </c>
@@ -7708,7 +7723,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>298</v>
       </c>
@@ -7722,7 +7737,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>302</v>
       </c>
@@ -7736,7 +7751,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>494</v>
       </c>
@@ -7756,7 +7771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>297</v>
       </c>
@@ -7770,7 +7785,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>298</v>
       </c>
@@ -7782,6 +7797,68 @@
       </c>
       <c r="F38" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>437</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>354</v>
+      </c>
+      <c r="D40" t="s">
+        <v>683</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>355</v>
+      </c>
+      <c r="D41" t="s">
+        <v>347</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D42" t="s">
+        <v>577</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>298</v>
+      </c>
+      <c r="D43" t="s">
+        <v>480</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -7801,18 +7878,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7832,7 +7909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -7853,7 +7930,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -7874,7 +7951,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -7895,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -7916,7 +7993,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -7937,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -7958,7 +8035,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -7979,7 +8056,7 @@
         <v>0.64406779661016944</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -8000,7 +8077,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -8021,7 +8098,7 @@
         <v>0.77586206896551724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -8042,7 +8119,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -8063,34 +8140,34 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.70370370370370372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -8098,24 +8175,24 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
-        <v>0.59188544152744627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.59241706161137442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.75</v>
+        <v>15.833333333333334</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -8123,15 +8200,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>34.916666666666664</v>
+        <v>35.166666666666664</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.25</v>
+        <v>14.333333333333334</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>0.59188544152744627</v>
+        <v>0.59241706161137431</v>
       </c>
     </row>
   </sheetData>
@@ -8160,17 +8237,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8190,7 +8267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -8210,7 +8287,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8242,17 +8319,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8272,7 +8349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -8292,7 +8369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8306,7 +8383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -8326,7 +8403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -8340,7 +8417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>610</v>
       </c>
@@ -8360,7 +8437,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>298</v>
       </c>
@@ -8374,7 +8451,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>611</v>
       </c>
@@ -8394,7 +8471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -8408,7 +8485,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>293</v>
       </c>
@@ -8422,7 +8499,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -8442,7 +8519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -8462,7 +8539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>298</v>
       </c>
@@ -8476,7 +8553,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>302</v>
       </c>
@@ -8490,7 +8567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>303</v>
       </c>
@@ -8504,7 +8581,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>621</v>
       </c>
@@ -8524,7 +8601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -8562,17 +8639,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8592,7 +8669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -8612,7 +8689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8626,7 +8703,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>293</v>
       </c>
@@ -8640,7 +8717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -8660,7 +8737,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -8674,7 +8751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -8694,7 +8771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -8708,7 +8785,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>302</v>
       </c>
@@ -8722,7 +8799,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>303</v>
       </c>
@@ -8736,7 +8813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>307</v>
       </c>
@@ -8756,7 +8833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>298</v>
       </c>
@@ -8770,7 +8847,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -8790,7 +8867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>312</v>
       </c>
@@ -8810,7 +8887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -8824,7 +8901,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -8844,7 +8921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -8858,7 +8935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -8878,7 +8955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>44</v>
       </c>
@@ -8892,7 +8969,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>293</v>
       </c>
@@ -8906,7 +8983,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>297</v>
       </c>
@@ -8920,7 +8997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -8934,7 +9011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>302</v>
       </c>
@@ -8948,7 +9025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>325</v>
       </c>
@@ -8968,7 +9045,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -8982,7 +9059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -8996,7 +9073,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>329</v>
       </c>
@@ -9016,7 +9093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -9030,7 +9107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>297</v>
       </c>
@@ -9044,7 +9121,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>298</v>
       </c>
@@ -9058,7 +9135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>334</v>
       </c>
@@ -9078,7 +9155,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -9092,7 +9169,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>293</v>
       </c>
@@ -9106,7 +9183,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>297</v>
       </c>
@@ -9120,7 +9197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>298</v>
       </c>
@@ -9134,7 +9211,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>340</v>
       </c>
@@ -9154,7 +9231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>44</v>
       </c>
@@ -9168,7 +9245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>293</v>
       </c>
@@ -9182,7 +9259,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>356</v>
       </c>
@@ -9202,7 +9279,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -9216,7 +9293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -9236,7 +9313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>44</v>
       </c>
@@ -9250,7 +9327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -9264,7 +9341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -9278,7 +9355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>363</v>
       </c>
@@ -9298,7 +9375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>298</v>
       </c>
@@ -9312,7 +9389,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>302</v>
       </c>
@@ -9326,7 +9403,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>366</v>
       </c>
@@ -9346,7 +9423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -9360,7 +9437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -9374,7 +9451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -9388,7 +9465,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -9402,7 +9479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>373</v>
       </c>
@@ -9422,7 +9499,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>375</v>
       </c>
@@ -9442,7 +9519,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>298</v>
       </c>
@@ -9456,7 +9533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>302</v>
       </c>
@@ -9470,7 +9547,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>303</v>
       </c>
@@ -9484,7 +9561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>367</v>
       </c>
@@ -9498,7 +9575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>381</v>
       </c>
@@ -9518,7 +9595,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>44</v>
       </c>
@@ -9532,7 +9609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>297</v>
       </c>
@@ -9546,7 +9623,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -9560,7 +9637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>385</v>
       </c>
@@ -9580,7 +9657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>298</v>
       </c>
@@ -9594,7 +9671,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>302</v>
       </c>
@@ -9608,7 +9685,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>388</v>
       </c>
@@ -9628,7 +9705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>298</v>
       </c>
@@ -9642,7 +9719,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>302</v>
       </c>
@@ -9656,7 +9733,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>303</v>
       </c>
@@ -9670,7 +9747,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -9690,7 +9767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>44</v>
       </c>
@@ -9704,7 +9781,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>297</v>
       </c>
@@ -9718,7 +9795,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -9732,7 +9809,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -9746,7 +9823,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -9766,7 +9843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>298</v>
       </c>
@@ -9780,7 +9857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>302</v>
       </c>
@@ -9794,7 +9871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>303</v>
       </c>
@@ -9808,7 +9885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -9828,7 +9905,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>298</v>
       </c>
@@ -9842,7 +9919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>302</v>
       </c>
@@ -9856,7 +9933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>404</v>
       </c>
@@ -9876,7 +9953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>298</v>
       </c>
@@ -9890,7 +9967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>302</v>
       </c>
@@ -9904,7 +9981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>303</v>
       </c>
@@ -9936,17 +10013,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9966,7 +10043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -9986,7 +10063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -10000,7 +10077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -10014,7 +10091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -10028,7 +10105,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>367</v>
       </c>
@@ -10042,7 +10119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -10062,7 +10139,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -10079,7 +10156,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -10099,7 +10176,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -10113,7 +10190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -10127,7 +10204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -10147,7 +10224,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -10161,7 +10238,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -10175,7 +10252,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>427</v>
       </c>
@@ -10195,7 +10272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>298</v>
       </c>
@@ -10209,7 +10286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -10229,7 +10306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -10249,7 +10326,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -10269,7 +10346,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -10289,7 +10366,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>437</v>
       </c>
@@ -10309,7 +10386,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>329</v>
       </c>
@@ -10329,7 +10406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -10343,7 +10420,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>297</v>
       </c>
@@ -10357,7 +10434,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -10371,7 +10448,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -10385,7 +10462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>444</v>
       </c>
@@ -10405,7 +10482,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -10419,7 +10496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -10433,7 +10510,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>447</v>
       </c>
@@ -10453,7 +10530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -10467,7 +10544,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -10481,7 +10558,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -10495,7 +10572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -10515,7 +10592,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>355</v>
       </c>
@@ -10529,7 +10606,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -10549,7 +10626,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>297</v>
       </c>
@@ -10563,7 +10640,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>298</v>
       </c>
@@ -10577,7 +10654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>302</v>
       </c>
@@ -10591,7 +10668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>455</v>
       </c>
@@ -10611,7 +10688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>456</v>
       </c>
@@ -10631,7 +10708,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>458</v>
       </c>
@@ -10651,7 +10728,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>373</v>
       </c>
@@ -10671,7 +10748,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>381</v>
       </c>
@@ -10691,7 +10768,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>462</v>
       </c>
@@ -10711,7 +10788,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -10731,7 +10808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -10751,7 +10828,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -10765,7 +10842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>302</v>
       </c>
@@ -10779,7 +10856,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>468</v>
       </c>
@@ -10799,7 +10876,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>298</v>
       </c>
@@ -10813,7 +10890,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>302</v>
       </c>
@@ -10827,7 +10904,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>471</v>
       </c>
@@ -10865,17 +10942,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10895,7 +10972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -10915,7 +10992,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -10935,7 +11012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>44</v>
       </c>
@@ -10949,7 +11026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>297</v>
       </c>
@@ -10963,7 +11040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -10977,7 +11054,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>302</v>
       </c>
@@ -10991,7 +11068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>303</v>
       </c>
@@ -11005,7 +11082,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>367</v>
       </c>
@@ -11019,7 +11096,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -11039,7 +11116,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>355</v>
       </c>
@@ -11053,7 +11130,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -11073,7 +11150,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>408</v>
       </c>
@@ -11093,7 +11170,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -11107,7 +11184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -11121,7 +11198,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -11135,7 +11212,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -11149,7 +11226,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -11169,7 +11246,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>355</v>
       </c>
@@ -11183,7 +11260,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>297</v>
       </c>
@@ -11197,7 +11274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>488</v>
       </c>
@@ -11217,7 +11294,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -11231,7 +11308,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>418</v>
       </c>
@@ -11248,7 +11325,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -11268,7 +11345,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>297</v>
       </c>
@@ -11282,7 +11359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>492</v>
       </c>
@@ -11302,7 +11379,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>607</v>
       </c>
@@ -11322,7 +11399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>494</v>
       </c>
@@ -11342,7 +11419,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>437</v>
       </c>
@@ -11362,7 +11439,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -11382,7 +11459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -11396,7 +11473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>444</v>
       </c>
@@ -11416,7 +11493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -11430,7 +11507,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>447</v>
       </c>
@@ -11450,7 +11527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>340</v>
       </c>
@@ -11470,7 +11547,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>355</v>
       </c>
@@ -11484,7 +11561,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>297</v>
       </c>
@@ -11498,7 +11575,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>450</v>
       </c>
@@ -11518,7 +11595,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -11532,7 +11609,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>455</v>
       </c>
@@ -11552,7 +11629,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -11566,7 +11643,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>355</v>
       </c>
@@ -11580,7 +11657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>297</v>
       </c>
@@ -11594,7 +11671,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -11608,7 +11685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>456</v>
       </c>
@@ -11628,7 +11705,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -11642,7 +11719,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -11656,7 +11733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>458</v>
       </c>
@@ -11676,7 +11753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>297</v>
       </c>
@@ -11690,7 +11767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>298</v>
       </c>
@@ -11704,7 +11781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>302</v>
       </c>
@@ -11718,7 +11795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>303</v>
       </c>
@@ -11732,7 +11809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>367</v>
       </c>
@@ -11746,7 +11823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>373</v>
       </c>
@@ -11766,7 +11843,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>355</v>
       </c>
@@ -11780,7 +11857,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>297</v>
       </c>
@@ -11794,7 +11871,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>381</v>
       </c>
@@ -11814,7 +11891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -11828,7 +11905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>302</v>
       </c>
@@ -11842,7 +11919,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>462</v>
       </c>
@@ -11862,7 +11939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -11876,7 +11953,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>297</v>
       </c>
@@ -11890,7 +11967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>298</v>
       </c>
@@ -11904,7 +11981,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>302</v>
       </c>
@@ -11918,7 +11995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>303</v>
       </c>
@@ -11932,7 +12009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>367</v>
       </c>
@@ -11946,7 +12023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>464</v>
       </c>
@@ -11966,7 +12043,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>297</v>
       </c>
@@ -11980,7 +12057,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -12000,7 +12077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -12014,7 +12091,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>303</v>
       </c>
@@ -12028,7 +12105,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>515</v>
       </c>
@@ -12048,7 +12125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>298</v>
       </c>
@@ -12062,7 +12139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>302</v>
       </c>
@@ -12076,7 +12153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>303</v>
       </c>
@@ -12090,7 +12167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>471</v>
       </c>
@@ -12110,7 +12187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>297</v>
       </c>
@@ -12142,17 +12219,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12172,7 +12249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>517</v>
       </c>
@@ -12192,7 +12269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>302</v>
       </c>
@@ -12206,7 +12283,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>303</v>
       </c>
@@ -12220,7 +12297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>367</v>
       </c>
@@ -12234,7 +12311,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -12254,7 +12331,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -12268,7 +12345,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -12282,7 +12359,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -12296,7 +12373,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -12313,7 +12390,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>522</v>
       </c>
@@ -12333,7 +12410,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>302</v>
       </c>
@@ -12347,7 +12424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>303</v>
       </c>
@@ -12361,7 +12438,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>367</v>
       </c>
@@ -12375,7 +12452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -12395,7 +12472,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -12409,7 +12486,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -12423,7 +12500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>303</v>
       </c>
@@ -12437,7 +12514,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>427</v>
       </c>
@@ -12457,7 +12534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>430</v>
       </c>
@@ -12477,7 +12554,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -12491,7 +12568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -12511,7 +12588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>297</v>
       </c>
@@ -12525,7 +12602,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -12539,7 +12616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -12559,7 +12636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -12573,7 +12650,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -12587,7 +12664,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -12601,7 +12678,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -12615,7 +12692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>526</v>
       </c>
@@ -12635,7 +12712,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -12649,7 +12726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -12663,7 +12740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>303</v>
       </c>
@@ -12677,7 +12754,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>367</v>
       </c>
@@ -12691,7 +12768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>607</v>
       </c>
@@ -12711,7 +12788,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>494</v>
       </c>
@@ -12731,7 +12808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>437</v>
       </c>
@@ -12751,7 +12828,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -12771,7 +12848,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>444</v>
       </c>
@@ -12791,7 +12868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>298</v>
       </c>
@@ -12805,7 +12882,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>302</v>
       </c>
@@ -12819,7 +12896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>303</v>
       </c>
@@ -12833,7 +12910,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>340</v>
       </c>
@@ -12853,7 +12930,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>355</v>
       </c>
@@ -12867,7 +12944,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>297</v>
       </c>
@@ -12881,7 +12958,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -12901,7 +12978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>298</v>
       </c>
@@ -12915,7 +12992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>302</v>
       </c>
@@ -12929,7 +13006,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>303</v>
       </c>
@@ -12943,7 +13020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>367</v>
       </c>
@@ -12957,7 +13034,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>455</v>
       </c>
@@ -12977,7 +13054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -12991,7 +13068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -13005,7 +13082,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -13019,7 +13096,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -13033,7 +13110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>456</v>
       </c>
@@ -13053,7 +13130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>297</v>
       </c>
@@ -13067,7 +13144,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>298</v>
       </c>
@@ -13081,7 +13158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>302</v>
       </c>
@@ -13095,7 +13172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>303</v>
       </c>
@@ -13109,7 +13186,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>367</v>
       </c>
@@ -13123,7 +13200,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>373</v>
       </c>
@@ -13143,7 +13220,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>355</v>
       </c>
@@ -13157,7 +13234,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>297</v>
       </c>
@@ -13171,7 +13248,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>298</v>
       </c>
@@ -13185,7 +13262,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>302</v>
       </c>
@@ -13199,7 +13276,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>303</v>
       </c>
@@ -13213,7 +13290,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -13227,7 +13304,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -13247,7 +13324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>302</v>
       </c>
@@ -13261,7 +13338,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>303</v>
       </c>
@@ -13275,7 +13352,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>367</v>
       </c>
@@ -13289,7 +13366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>464</v>
       </c>
@@ -13309,7 +13386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>298</v>
       </c>
@@ -13323,7 +13400,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>302</v>
       </c>
@@ -13337,7 +13414,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>303</v>
       </c>
@@ -13351,7 +13428,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>367</v>
       </c>
@@ -13365,7 +13442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>471</v>
       </c>
@@ -13385,7 +13462,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>544</v>
       </c>
@@ -13405,7 +13482,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>545</v>
       </c>
@@ -13419,7 +13496,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>545</v>
       </c>
@@ -13450,17 +13527,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13480,7 +13557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -13500,7 +13577,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -13514,7 +13591,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -13528,7 +13605,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -13542,7 +13619,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -13562,7 +13639,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>424</v>
       </c>
@@ -13582,7 +13659,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>302</v>
       </c>
@@ -13596,7 +13673,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -13616,7 +13693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -13630,7 +13707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -13644,7 +13721,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>373</v>
       </c>
@@ -13664,7 +13741,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>355</v>
       </c>
@@ -13678,7 +13755,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -13692,7 +13769,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -13706,7 +13783,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -13720,7 +13797,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>303</v>
       </c>
@@ -13734,7 +13811,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -13754,7 +13831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -13774,7 +13851,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>381</v>
       </c>
@@ -13794,7 +13871,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -13808,7 +13885,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>553</v>
       </c>
@@ -13828,7 +13905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -13842,7 +13919,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>302</v>
       </c>
@@ -13856,7 +13933,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>471</v>
       </c>
@@ -13876,7 +13953,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -13890,7 +13967,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -13904,7 +13981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -13918,7 +13995,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -13932,7 +14009,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>544</v>
       </c>
@@ -13952,7 +14029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>545</v>
       </c>
@@ -13966,7 +14043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>545</v>
       </c>
@@ -13980,7 +14057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>303</v>
       </c>
@@ -13994,7 +14071,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>367</v>
       </c>
@@ -14025,17 +14102,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14055,7 +14132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -14075,7 +14152,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -14089,7 +14166,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -14103,7 +14180,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -14117,7 +14194,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -14131,7 +14208,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -14145,7 +14222,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -14159,7 +14236,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -14179,7 +14256,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>424</v>
       </c>
@@ -14199,7 +14276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -14213,7 +14290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -14227,7 +14304,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -14241,7 +14318,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>488</v>
       </c>
@@ -14261,7 +14338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -14275,7 +14352,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -14289,7 +14366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -14303,7 +14380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>607</v>
       </c>
@@ -14323,7 +14400,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -14337,7 +14414,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>494</v>
       </c>
@@ -14357,7 +14434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>437</v>
       </c>
@@ -14377,7 +14454,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -14391,7 +14468,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -14405,7 +14482,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -14419,7 +14496,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -14433,7 +14510,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>530</v>
       </c>
@@ -14453,7 +14530,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>560</v>
       </c>
@@ -14473,7 +14550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -14487,7 +14564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -14501,7 +14578,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -14515,7 +14592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -14535,7 +14612,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>355</v>
       </c>
@@ -14549,7 +14626,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>297</v>
       </c>
@@ -14563,7 +14640,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -14577,7 +14654,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>566</v>
       </c>
@@ -14597,7 +14674,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>297</v>
       </c>
@@ -14611,7 +14688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -14625,7 +14702,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>302</v>
       </c>
@@ -14639,7 +14716,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>455</v>
       </c>
@@ -14659,7 +14736,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>298</v>
       </c>
@@ -14673,7 +14750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>302</v>
       </c>
@@ -14687,7 +14764,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>303</v>
       </c>
@@ -14701,7 +14778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>367</v>
       </c>
@@ -14715,7 +14792,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>456</v>
       </c>
@@ -14735,7 +14812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -14749,7 +14826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>302</v>
       </c>
@@ -14763,7 +14840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>303</v>
       </c>
@@ -14777,7 +14854,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>373</v>
       </c>
@@ -14797,7 +14874,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>355</v>
       </c>
@@ -14811,7 +14888,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>297</v>
       </c>
@@ -14825,7 +14902,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -14839,7 +14916,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -14853,7 +14930,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -14867,7 +14944,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -14881,7 +14958,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>430</v>
       </c>
@@ -14901,7 +14978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>297</v>
       </c>
@@ -14915,7 +14992,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -14929,7 +15006,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -14949,7 +15026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>298</v>
       </c>
@@ -14963,7 +15040,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>302</v>
       </c>
@@ -14977,7 +15054,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>303</v>
       </c>
@@ -14991,7 +15068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -15005,7 +15082,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>544</v>
       </c>
@@ -15025,7 +15102,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>545</v>
       </c>
@@ -15039,7 +15116,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>545</v>
       </c>
@@ -15053,7 +15130,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>303</v>
       </c>
@@ -15067,7 +15144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -15081,7 +15158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>418</v>
       </c>
@@ -15098,7 +15175,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>467</v>
       </c>
@@ -15109,7 +15186,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>574</v>
       </c>
@@ -15120,7 +15197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>362</v>
       </c>
@@ -15131,7 +15208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>535</v>
       </c>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24078" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7086F67A-6DD1-4161-B93B-64826E58A22C}"/>
+  <xr:revisionPtr revIDLastSave="24090" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C988348-F700-4A4E-BC94-3B9A40D1AA2F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="690">
   <si>
     <t>ROUND</t>
   </si>
@@ -2111,6 +2111,12 @@
   </si>
   <si>
     <t>6-3 6-4 5-7 6-3</t>
+  </si>
+  <si>
+    <t>ZZ Zhang (CHINA)</t>
+  </si>
+  <si>
+    <t>6-3 2-6 7-6(5)</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2420,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2534,7 +2540,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3063,7 +3069,7 @@
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70370370370370372</c:v>
+                  <c:v>0.6785714285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4861,17 +4867,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4891,7 +4897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -4928,17 +4934,17 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4958,7 +4964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -4978,7 +4984,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -4992,7 +4998,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -5006,7 +5012,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -5020,7 +5026,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -5034,7 +5040,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -5048,7 +5054,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -5062,7 +5068,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>576</v>
       </c>
@@ -5082,7 +5088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -5096,7 +5102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -5110,7 +5116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -5124,7 +5130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -5144,7 +5150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -5158,7 +5164,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>488</v>
       </c>
@@ -5178,7 +5184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -5192,7 +5198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -5206,7 +5212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -5220,7 +5226,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>579</v>
       </c>
@@ -5240,7 +5246,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -5260,7 +5266,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>355</v>
       </c>
@@ -5274,7 +5280,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -5288,7 +5294,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -5302,7 +5308,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -5336,7 +5342,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -5350,7 +5356,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -5364,7 +5370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>530</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -5398,7 +5404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -5412,7 +5418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>303</v>
       </c>
@@ -5426,7 +5432,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>367</v>
       </c>
@@ -5440,7 +5446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>593</v>
       </c>
@@ -5460,7 +5466,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>302</v>
       </c>
@@ -5474,7 +5480,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5494,7 +5500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -5508,7 +5514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -5522,7 +5528,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>367</v>
       </c>
@@ -5536,7 +5542,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>455</v>
       </c>
@@ -5556,7 +5562,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>456</v>
       </c>
@@ -5576,7 +5582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -5590,7 +5596,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -5604,7 +5610,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -5618,7 +5624,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -5638,7 +5644,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>355</v>
       </c>
@@ -5652,7 +5658,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>297</v>
       </c>
@@ -5666,7 +5672,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>298</v>
       </c>
@@ -5680,7 +5686,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>588</v>
       </c>
@@ -5700,7 +5706,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -5720,7 +5726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -5748,7 +5754,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -5762,7 +5768,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>553</v>
       </c>
@@ -5782,7 +5788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -5796,7 +5802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -5810,7 +5816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -5838,7 +5844,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>471</v>
       </c>
@@ -5858,7 +5864,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>544</v>
       </c>
@@ -5878,7 +5884,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>545</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>545</v>
       </c>
@@ -5924,17 +5930,17 @@
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5954,7 +5960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -5974,7 +5980,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -5988,7 +5994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -6002,7 +6008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -6016,7 +6022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -6036,7 +6042,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -6050,7 +6056,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -6064,7 +6070,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>408</v>
       </c>
@@ -6084,7 +6090,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>298</v>
       </c>
@@ -6098,7 +6104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -6112,7 +6118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -6126,7 +6132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -6140,7 +6146,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>594</v>
       </c>
@@ -6160,7 +6166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -6174,7 +6180,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -6188,7 +6194,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -6202,7 +6208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -6222,7 +6228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -6236,7 +6242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>302</v>
       </c>
@@ -6250,7 +6256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>303</v>
       </c>
@@ -6264,7 +6270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>367</v>
       </c>
@@ -6278,7 +6284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -6298,7 +6304,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -6312,7 +6318,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -6326,7 +6332,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -6340,7 +6346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -6368,7 +6374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -6388,7 +6394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>297</v>
       </c>
@@ -6402,7 +6408,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>298</v>
       </c>
@@ -6416,7 +6422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>302</v>
       </c>
@@ -6430,7 +6436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>303</v>
       </c>
@@ -6444,7 +6450,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>367</v>
       </c>
@@ -6458,7 +6464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -6478,7 +6484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -6492,7 +6498,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>302</v>
       </c>
@@ -6506,7 +6512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>607</v>
       </c>
@@ -6526,7 +6532,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>297</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>298</v>
       </c>
@@ -6554,7 +6560,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>494</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>297</v>
       </c>
@@ -6588,7 +6594,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -6602,7 +6608,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -6616,7 +6622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -6630,7 +6636,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>367</v>
       </c>
@@ -6644,7 +6650,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>437</v>
       </c>
@@ -6664,7 +6670,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>631</v>
       </c>
@@ -6684,7 +6690,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>632</v>
       </c>
@@ -6704,7 +6710,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -6718,7 +6724,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>302</v>
       </c>
@@ -6732,7 +6738,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -6752,7 +6758,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -6766,7 +6772,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>297</v>
       </c>
@@ -6780,7 +6786,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>298</v>
       </c>
@@ -6794,7 +6800,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>302</v>
       </c>
@@ -6808,7 +6814,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>303</v>
       </c>
@@ -6822,7 +6828,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>455</v>
       </c>
@@ -6842,7 +6848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>298</v>
       </c>
@@ -6856,7 +6862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>302</v>
       </c>
@@ -6870,7 +6876,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>456</v>
       </c>
@@ -6890,7 +6896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>298</v>
       </c>
@@ -6904,7 +6910,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>373</v>
       </c>
@@ -6924,7 +6930,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>355</v>
       </c>
@@ -6938,7 +6944,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>297</v>
       </c>
@@ -6952,7 +6958,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>298</v>
       </c>
@@ -6966,7 +6972,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>302</v>
       </c>
@@ -6980,7 +6986,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>303</v>
       </c>
@@ -6994,7 +7000,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>367</v>
       </c>
@@ -7008,7 +7014,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>653</v>
       </c>
@@ -7028,7 +7034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>298</v>
       </c>
@@ -7042,7 +7048,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>302</v>
       </c>
@@ -7056,7 +7062,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>303</v>
       </c>
@@ -7070,7 +7076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>367</v>
       </c>
@@ -7084,7 +7090,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>464</v>
       </c>
@@ -7104,7 +7110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -7118,7 +7124,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>553</v>
       </c>
@@ -7138,7 +7144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>298</v>
       </c>
@@ -7152,7 +7158,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>302</v>
       </c>
@@ -7166,7 +7172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>303</v>
       </c>
@@ -7180,7 +7186,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>367</v>
       </c>
@@ -7194,7 +7200,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>471</v>
       </c>
@@ -7214,7 +7220,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>544</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>545</v>
       </c>
@@ -7248,7 +7254,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>545</v>
       </c>
@@ -7262,7 +7268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>303</v>
       </c>
@@ -7287,23 +7293,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" activeCellId="7" sqref="E2:E7 E10:E12 E15:E19 E22:E25 E28 E31:E33 E36:E37 E40:E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7323,7 +7329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -7343,7 +7349,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -7357,7 +7363,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -7371,7 +7377,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -7385,7 +7391,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -7399,7 +7405,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -7413,7 +7419,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -7427,7 +7433,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>427</v>
       </c>
@@ -7447,7 +7453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -7461,7 +7467,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -7475,7 +7481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -7489,7 +7495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -7509,7 +7515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -7523,7 +7529,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -7537,7 +7543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -7551,7 +7557,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -7565,7 +7571,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>488</v>
       </c>
@@ -7599,7 +7605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>297</v>
       </c>
@@ -7613,7 +7619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>298</v>
       </c>
@@ -7627,7 +7633,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>302</v>
       </c>
@@ -7641,7 +7647,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>303</v>
       </c>
@@ -7655,7 +7661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>310</v>
       </c>
@@ -7675,7 +7681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -7689,7 +7695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>607</v>
       </c>
@@ -7709,7 +7715,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>297</v>
       </c>
@@ -7723,7 +7729,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>298</v>
       </c>
@@ -7737,7 +7743,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>302</v>
       </c>
@@ -7751,7 +7757,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>494</v>
       </c>
@@ -7771,7 +7777,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>297</v>
       </c>
@@ -7785,7 +7791,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>298</v>
       </c>
@@ -7799,7 +7805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>437</v>
       </c>
@@ -7819,7 +7825,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>355</v>
       </c>
@@ -7833,7 +7839,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>297</v>
       </c>
@@ -7847,7 +7853,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -7859,6 +7865,40 @@
       </c>
       <c r="F43" t="s">
         <v>684</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>632</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D45" t="s">
+        <v>664</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>298</v>
+      </c>
+      <c r="D46" t="s">
+        <v>688</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -7878,18 +7918,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7909,7 +7949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -7930,7 +7970,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -7951,7 +7991,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -7972,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -7993,7 +8033,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -8014,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -8035,7 +8075,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -8056,7 +8096,7 @@
         <v>0.64406779661016944</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -8077,7 +8117,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -8098,7 +8138,7 @@
         <v>0.77586206896551724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -8119,7 +8159,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -8140,34 +8180,34 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>0.70370370370370372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -8175,24 +8215,24 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
-        <v>0.59241706161137442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.59101654846335694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.833333333333334</v>
+        <v>15.916666666666666</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -8200,15 +8240,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>35.166666666666664</v>
+        <v>35.25</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.333333333333334</v>
+        <v>14.416666666666666</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>0.59241706161137431</v>
+        <v>0.59101654846335705</v>
       </c>
     </row>
   </sheetData>
@@ -8237,17 +8277,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8267,7 +8307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -8287,7 +8327,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8319,17 +8359,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8349,7 +8389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -8369,7 +8409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8383,7 +8423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -8403,7 +8443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -8417,7 +8457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>610</v>
       </c>
@@ -8437,7 +8477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>298</v>
       </c>
@@ -8451,7 +8491,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>611</v>
       </c>
@@ -8471,7 +8511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -8485,7 +8525,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>293</v>
       </c>
@@ -8499,7 +8539,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -8519,7 +8559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -8539,7 +8579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>298</v>
       </c>
@@ -8553,7 +8593,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>302</v>
       </c>
@@ -8567,7 +8607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>303</v>
       </c>
@@ -8581,7 +8621,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>621</v>
       </c>
@@ -8601,7 +8641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -8639,17 +8679,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8669,7 +8709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -8689,7 +8729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8703,7 +8743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>293</v>
       </c>
@@ -8717,7 +8757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -8737,7 +8777,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -8751,7 +8791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -8771,7 +8811,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -8785,7 +8825,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>302</v>
       </c>
@@ -8799,7 +8839,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>303</v>
       </c>
@@ -8813,7 +8853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>307</v>
       </c>
@@ -8833,7 +8873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>298</v>
       </c>
@@ -8847,7 +8887,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -8867,7 +8907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>312</v>
       </c>
@@ -8887,7 +8927,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -8901,7 +8941,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -8921,7 +8961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -8935,7 +8975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -8955,7 +8995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>44</v>
       </c>
@@ -8969,7 +9009,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>293</v>
       </c>
@@ -8983,7 +9023,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>297</v>
       </c>
@@ -8997,7 +9037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -9011,7 +9051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>302</v>
       </c>
@@ -9025,7 +9065,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>325</v>
       </c>
@@ -9045,7 +9085,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -9059,7 +9099,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -9073,7 +9113,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>329</v>
       </c>
@@ -9093,7 +9133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -9107,7 +9147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>297</v>
       </c>
@@ -9121,7 +9161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>298</v>
       </c>
@@ -9135,7 +9175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>334</v>
       </c>
@@ -9155,7 +9195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -9169,7 +9209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>293</v>
       </c>
@@ -9183,7 +9223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>297</v>
       </c>
@@ -9197,7 +9237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>298</v>
       </c>
@@ -9211,7 +9251,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>340</v>
       </c>
@@ -9231,7 +9271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>44</v>
       </c>
@@ -9245,7 +9285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>293</v>
       </c>
@@ -9259,7 +9299,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>356</v>
       </c>
@@ -9279,7 +9319,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -9293,7 +9333,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -9313,7 +9353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>44</v>
       </c>
@@ -9327,7 +9367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -9341,7 +9381,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -9355,7 +9395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>363</v>
       </c>
@@ -9375,7 +9415,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>298</v>
       </c>
@@ -9389,7 +9429,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>302</v>
       </c>
@@ -9403,7 +9443,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>366</v>
       </c>
@@ -9423,7 +9463,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -9437,7 +9477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -9451,7 +9491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -9465,7 +9505,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -9479,7 +9519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>373</v>
       </c>
@@ -9499,7 +9539,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>375</v>
       </c>
@@ -9519,7 +9559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>298</v>
       </c>
@@ -9533,7 +9573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>302</v>
       </c>
@@ -9547,7 +9587,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>303</v>
       </c>
@@ -9561,7 +9601,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>367</v>
       </c>
@@ -9575,7 +9615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>381</v>
       </c>
@@ -9595,7 +9635,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>44</v>
       </c>
@@ -9609,7 +9649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>297</v>
       </c>
@@ -9623,7 +9663,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -9637,7 +9677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>385</v>
       </c>
@@ -9657,7 +9697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>298</v>
       </c>
@@ -9671,7 +9711,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>302</v>
       </c>
@@ -9685,7 +9725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>388</v>
       </c>
@@ -9705,7 +9745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>298</v>
       </c>
@@ -9719,7 +9759,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>302</v>
       </c>
@@ -9733,7 +9773,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>303</v>
       </c>
@@ -9747,7 +9787,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -9767,7 +9807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>44</v>
       </c>
@@ -9781,7 +9821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>297</v>
       </c>
@@ -9795,7 +9835,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -9809,7 +9849,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -9823,7 +9863,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -9843,7 +9883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>298</v>
       </c>
@@ -9857,7 +9897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>302</v>
       </c>
@@ -9871,7 +9911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>303</v>
       </c>
@@ -9885,7 +9925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -9905,7 +9945,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>298</v>
       </c>
@@ -9919,7 +9959,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>302</v>
       </c>
@@ -9933,7 +9973,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>404</v>
       </c>
@@ -9953,7 +9993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>298</v>
       </c>
@@ -9967,7 +10007,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>302</v>
       </c>
@@ -9981,7 +10021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>303</v>
       </c>
@@ -10013,17 +10053,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10043,7 +10083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -10063,7 +10103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -10077,7 +10117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -10091,7 +10131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -10105,7 +10145,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>367</v>
       </c>
@@ -10119,7 +10159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -10139,7 +10179,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -10156,7 +10196,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -10176,7 +10216,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -10190,7 +10230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -10204,7 +10244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -10224,7 +10264,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -10238,7 +10278,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -10252,7 +10292,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>427</v>
       </c>
@@ -10272,7 +10312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>298</v>
       </c>
@@ -10286,7 +10326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -10306,7 +10346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -10326,7 +10366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -10346,7 +10386,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -10366,7 +10406,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>437</v>
       </c>
@@ -10386,7 +10426,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>329</v>
       </c>
@@ -10406,7 +10446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -10420,7 +10460,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>297</v>
       </c>
@@ -10434,7 +10474,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -10448,7 +10488,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -10462,7 +10502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>444</v>
       </c>
@@ -10482,7 +10522,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -10496,7 +10536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -10510,7 +10550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>447</v>
       </c>
@@ -10530,7 +10570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -10544,7 +10584,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -10558,7 +10598,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -10572,7 +10612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -10592,7 +10632,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>355</v>
       </c>
@@ -10606,7 +10646,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -10626,7 +10666,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>297</v>
       </c>
@@ -10640,7 +10680,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>298</v>
       </c>
@@ -10654,7 +10694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>302</v>
       </c>
@@ -10668,7 +10708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>455</v>
       </c>
@@ -10688,7 +10728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>456</v>
       </c>
@@ -10708,7 +10748,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>458</v>
       </c>
@@ -10728,7 +10768,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>373</v>
       </c>
@@ -10748,7 +10788,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>381</v>
       </c>
@@ -10768,7 +10808,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>462</v>
       </c>
@@ -10788,7 +10828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -10808,7 +10848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -10828,7 +10868,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -10842,7 +10882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>302</v>
       </c>
@@ -10856,7 +10896,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>468</v>
       </c>
@@ -10876,7 +10916,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>298</v>
       </c>
@@ -10890,7 +10930,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>302</v>
       </c>
@@ -10904,7 +10944,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>471</v>
       </c>
@@ -10942,17 +10982,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10972,7 +11012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -10992,7 +11032,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -11012,7 +11052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>44</v>
       </c>
@@ -11026,7 +11066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>297</v>
       </c>
@@ -11040,7 +11080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -11054,7 +11094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>302</v>
       </c>
@@ -11068,7 +11108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>303</v>
       </c>
@@ -11082,7 +11122,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>367</v>
       </c>
@@ -11096,7 +11136,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -11116,7 +11156,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>355</v>
       </c>
@@ -11130,7 +11170,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -11150,7 +11190,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>408</v>
       </c>
@@ -11170,7 +11210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -11184,7 +11224,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -11198,7 +11238,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -11212,7 +11252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -11226,7 +11266,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -11246,7 +11286,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>355</v>
       </c>
@@ -11260,7 +11300,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>297</v>
       </c>
@@ -11274,7 +11314,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>488</v>
       </c>
@@ -11294,7 +11334,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -11308,7 +11348,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>418</v>
       </c>
@@ -11325,7 +11365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -11345,7 +11385,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>297</v>
       </c>
@@ -11359,7 +11399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>492</v>
       </c>
@@ -11379,7 +11419,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>607</v>
       </c>
@@ -11399,7 +11439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>494</v>
       </c>
@@ -11419,7 +11459,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>437</v>
       </c>
@@ -11439,7 +11479,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -11459,7 +11499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -11473,7 +11513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>444</v>
       </c>
@@ -11493,7 +11533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -11507,7 +11547,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>447</v>
       </c>
@@ -11527,7 +11567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>340</v>
       </c>
@@ -11547,7 +11587,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>355</v>
       </c>
@@ -11561,7 +11601,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>297</v>
       </c>
@@ -11575,7 +11615,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>450</v>
       </c>
@@ -11595,7 +11635,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -11609,7 +11649,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>455</v>
       </c>
@@ -11629,7 +11669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -11643,7 +11683,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>355</v>
       </c>
@@ -11657,7 +11697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>297</v>
       </c>
@@ -11671,7 +11711,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -11685,7 +11725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>456</v>
       </c>
@@ -11705,7 +11745,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -11719,7 +11759,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -11733,7 +11773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>458</v>
       </c>
@@ -11753,7 +11793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>297</v>
       </c>
@@ -11767,7 +11807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>298</v>
       </c>
@@ -11781,7 +11821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>302</v>
       </c>
@@ -11795,7 +11835,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>303</v>
       </c>
@@ -11809,7 +11849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>367</v>
       </c>
@@ -11823,7 +11863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>373</v>
       </c>
@@ -11843,7 +11883,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>355</v>
       </c>
@@ -11857,7 +11897,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>297</v>
       </c>
@@ -11871,7 +11911,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>381</v>
       </c>
@@ -11891,7 +11931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -11905,7 +11945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>302</v>
       </c>
@@ -11919,7 +11959,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>462</v>
       </c>
@@ -11939,7 +11979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -11953,7 +11993,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>297</v>
       </c>
@@ -11967,7 +12007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>298</v>
       </c>
@@ -11981,7 +12021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>302</v>
       </c>
@@ -11995,7 +12035,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>303</v>
       </c>
@@ -12009,7 +12049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>367</v>
       </c>
@@ -12023,7 +12063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>464</v>
       </c>
@@ -12043,7 +12083,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>297</v>
       </c>
@@ -12057,7 +12097,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -12077,7 +12117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -12091,7 +12131,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>303</v>
       </c>
@@ -12105,7 +12145,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>515</v>
       </c>
@@ -12125,7 +12165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>298</v>
       </c>
@@ -12139,7 +12179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>302</v>
       </c>
@@ -12153,7 +12193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>303</v>
       </c>
@@ -12167,7 +12207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>471</v>
       </c>
@@ -12187,7 +12227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>297</v>
       </c>
@@ -12219,17 +12259,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12249,7 +12289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>517</v>
       </c>
@@ -12269,7 +12309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>302</v>
       </c>
@@ -12283,7 +12323,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>303</v>
       </c>
@@ -12297,7 +12337,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>367</v>
       </c>
@@ -12311,7 +12351,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -12331,7 +12371,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -12345,7 +12385,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -12359,7 +12399,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -12373,7 +12413,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -12390,7 +12430,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>522</v>
       </c>
@@ -12410,7 +12450,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>302</v>
       </c>
@@ -12424,7 +12464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>303</v>
       </c>
@@ -12438,7 +12478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>367</v>
       </c>
@@ -12452,7 +12492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -12472,7 +12512,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -12486,7 +12526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -12500,7 +12540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>303</v>
       </c>
@@ -12514,7 +12554,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>427</v>
       </c>
@@ -12534,7 +12574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>430</v>
       </c>
@@ -12554,7 +12594,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -12568,7 +12608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -12588,7 +12628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>297</v>
       </c>
@@ -12602,7 +12642,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -12616,7 +12656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -12636,7 +12676,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -12650,7 +12690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -12664,7 +12704,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -12678,7 +12718,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -12692,7 +12732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>526</v>
       </c>
@@ -12712,7 +12752,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -12726,7 +12766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -12740,7 +12780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>303</v>
       </c>
@@ -12754,7 +12794,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>367</v>
       </c>
@@ -12768,7 +12808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>607</v>
       </c>
@@ -12788,7 +12828,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>494</v>
       </c>
@@ -12808,7 +12848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>437</v>
       </c>
@@ -12828,7 +12868,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -12848,7 +12888,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>444</v>
       </c>
@@ -12868,7 +12908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>298</v>
       </c>
@@ -12882,7 +12922,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>302</v>
       </c>
@@ -12896,7 +12936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>303</v>
       </c>
@@ -12910,7 +12950,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>340</v>
       </c>
@@ -12930,7 +12970,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>355</v>
       </c>
@@ -12944,7 +12984,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>297</v>
       </c>
@@ -12958,7 +12998,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -12978,7 +13018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>298</v>
       </c>
@@ -12992,7 +13032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>302</v>
       </c>
@@ -13006,7 +13046,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>303</v>
       </c>
@@ -13020,7 +13060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>367</v>
       </c>
@@ -13034,7 +13074,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>455</v>
       </c>
@@ -13054,7 +13094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -13068,7 +13108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -13082,7 +13122,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -13096,7 +13136,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -13110,7 +13150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>456</v>
       </c>
@@ -13130,7 +13170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>297</v>
       </c>
@@ -13144,7 +13184,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>298</v>
       </c>
@@ -13158,7 +13198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>302</v>
       </c>
@@ -13172,7 +13212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>303</v>
       </c>
@@ -13186,7 +13226,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>367</v>
       </c>
@@ -13200,7 +13240,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>373</v>
       </c>
@@ -13220,7 +13260,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>355</v>
       </c>
@@ -13234,7 +13274,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>297</v>
       </c>
@@ -13248,7 +13288,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>298</v>
       </c>
@@ -13262,7 +13302,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>302</v>
       </c>
@@ -13276,7 +13316,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>303</v>
       </c>
@@ -13290,7 +13330,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -13304,7 +13344,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -13324,7 +13364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>302</v>
       </c>
@@ -13338,7 +13378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>303</v>
       </c>
@@ -13352,7 +13392,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>367</v>
       </c>
@@ -13366,7 +13406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>464</v>
       </c>
@@ -13386,7 +13426,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>298</v>
       </c>
@@ -13400,7 +13440,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>302</v>
       </c>
@@ -13414,7 +13454,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>303</v>
       </c>
@@ -13428,7 +13468,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>367</v>
       </c>
@@ -13442,7 +13482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>471</v>
       </c>
@@ -13462,7 +13502,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>544</v>
       </c>
@@ -13482,7 +13522,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>545</v>
       </c>
@@ -13496,7 +13536,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>545</v>
       </c>
@@ -13527,17 +13567,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13557,7 +13597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -13577,7 +13617,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -13591,7 +13631,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -13605,7 +13645,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -13619,7 +13659,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -13639,7 +13679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>424</v>
       </c>
@@ -13659,7 +13699,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>302</v>
       </c>
@@ -13673,7 +13713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -13693,7 +13733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -13707,7 +13747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -13721,7 +13761,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>373</v>
       </c>
@@ -13741,7 +13781,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>355</v>
       </c>
@@ -13755,7 +13795,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -13769,7 +13809,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -13783,7 +13823,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -13797,7 +13837,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>303</v>
       </c>
@@ -13811,7 +13851,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -13831,7 +13871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -13851,7 +13891,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>381</v>
       </c>
@@ -13871,7 +13911,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -13885,7 +13925,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>553</v>
       </c>
@@ -13905,7 +13945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -13919,7 +13959,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>302</v>
       </c>
@@ -13933,7 +13973,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>471</v>
       </c>
@@ -13953,7 +13993,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -13967,7 +14007,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -13981,7 +14021,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -13995,7 +14035,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -14009,7 +14049,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>544</v>
       </c>
@@ -14029,7 +14069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>545</v>
       </c>
@@ -14043,7 +14083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>545</v>
       </c>
@@ -14057,7 +14097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>303</v>
       </c>
@@ -14071,7 +14111,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>367</v>
       </c>
@@ -14102,17 +14142,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14132,7 +14172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -14152,7 +14192,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -14166,7 +14206,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -14180,7 +14220,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -14194,7 +14234,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -14208,7 +14248,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -14222,7 +14262,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -14236,7 +14276,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -14256,7 +14296,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>424</v>
       </c>
@@ -14276,7 +14316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -14290,7 +14330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -14304,7 +14344,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -14318,7 +14358,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>488</v>
       </c>
@@ -14338,7 +14378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -14352,7 +14392,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -14366,7 +14406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -14380,7 +14420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>607</v>
       </c>
@@ -14400,7 +14440,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -14414,7 +14454,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>494</v>
       </c>
@@ -14434,7 +14474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>437</v>
       </c>
@@ -14454,7 +14494,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -14468,7 +14508,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -14482,7 +14522,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -14496,7 +14536,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -14510,7 +14550,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>530</v>
       </c>
@@ -14530,7 +14570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>560</v>
       </c>
@@ -14550,7 +14590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -14564,7 +14604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -14578,7 +14618,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -14592,7 +14632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -14612,7 +14652,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>355</v>
       </c>
@@ -14626,7 +14666,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>297</v>
       </c>
@@ -14640,7 +14680,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -14654,7 +14694,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>566</v>
       </c>
@@ -14674,7 +14714,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>297</v>
       </c>
@@ -14688,7 +14728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -14702,7 +14742,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>302</v>
       </c>
@@ -14716,7 +14756,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>455</v>
       </c>
@@ -14736,7 +14776,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>298</v>
       </c>
@@ -14750,7 +14790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>302</v>
       </c>
@@ -14764,7 +14804,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>303</v>
       </c>
@@ -14778,7 +14818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>367</v>
       </c>
@@ -14792,7 +14832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>456</v>
       </c>
@@ -14812,7 +14852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -14826,7 +14866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>302</v>
       </c>
@@ -14840,7 +14880,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>303</v>
       </c>
@@ -14854,7 +14894,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>373</v>
       </c>
@@ -14874,7 +14914,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>355</v>
       </c>
@@ -14888,7 +14928,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>297</v>
       </c>
@@ -14902,7 +14942,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -14916,7 +14956,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -14930,7 +14970,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -14944,7 +14984,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -14958,7 +14998,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>430</v>
       </c>
@@ -14978,7 +15018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>297</v>
       </c>
@@ -14992,7 +15032,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -15006,7 +15046,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -15026,7 +15066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>298</v>
       </c>
@@ -15040,7 +15080,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>302</v>
       </c>
@@ -15054,7 +15094,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>303</v>
       </c>
@@ -15068,7 +15108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -15082,7 +15122,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>544</v>
       </c>
@@ -15102,7 +15142,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>545</v>
       </c>
@@ -15116,7 +15156,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>545</v>
       </c>
@@ -15130,7 +15170,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>303</v>
       </c>
@@ -15144,7 +15184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -15158,7 +15198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>418</v>
       </c>
@@ -15175,7 +15215,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>467</v>
       </c>
@@ -15186,7 +15226,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>574</v>
       </c>
@@ -15197,7 +15237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>362</v>
       </c>
@@ -15208,7 +15248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>535</v>
       </c>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24090" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C988348-F700-4A4E-BC94-3B9A40D1AA2F}"/>
+  <xr:revisionPtr revIDLastSave="24124" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95C1B71F-81B9-406B-B6A4-62C9E52E8446}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="695">
   <si>
     <t>ROUND</t>
   </si>
@@ -2098,9 +2098,6 @@
     <t>7-6(5) 2-6 7-5</t>
   </si>
   <si>
-    <t>Dominik Koepfer</t>
-  </si>
-  <si>
     <t>4-6 6-2 6-1 6-3</t>
   </si>
   <si>
@@ -2117,6 +2114,24 @@
   </si>
   <si>
     <t>6-3 2-6 7-6(5)</t>
+  </si>
+  <si>
+    <t>6-7(1) 6-3 6-4 6-4</t>
+  </si>
+  <si>
+    <t>5-3 RETIRED</t>
+  </si>
+  <si>
+    <t>6-1 6-3 4-6 7-6(3)</t>
+  </si>
+  <si>
+    <t>6-7(3) 7-6(4) 6-4 7-5</t>
+  </si>
+  <si>
+    <t>6-7(9) 6-4 7-6(4) 2-6 6-3</t>
+  </si>
+  <si>
+    <t>Aleksandar Kovacevic (USA)</t>
   </si>
 </sst>
 </file>
@@ -2420,7 +2435,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2540,7 +2555,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,7 +3084,7 @@
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6785714285714286</c:v>
+                  <c:v>0.69696969696969702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4867,17 +4882,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4897,7 +4912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -4931,20 +4946,20 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4964,7 +4979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -4984,7 +4999,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -4998,7 +5013,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -5012,7 +5027,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -5026,7 +5041,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -5040,7 +5055,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -5054,7 +5069,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -5068,7 +5083,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>576</v>
       </c>
@@ -5088,7 +5103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -5102,7 +5117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -5116,7 +5131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -5130,7 +5145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -5150,7 +5165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -5164,7 +5179,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>488</v>
       </c>
@@ -5184,7 +5199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -5198,7 +5213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -5212,7 +5227,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -5226,7 +5241,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>579</v>
       </c>
@@ -5246,7 +5261,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -5266,7 +5281,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>355</v>
       </c>
@@ -5280,7 +5295,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -5294,7 +5309,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -5308,7 +5323,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>631</v>
       </c>
@@ -5328,7 +5343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -5342,7 +5357,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -5356,7 +5371,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -5370,7 +5385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>530</v>
       </c>
@@ -5390,7 +5405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -5404,7 +5419,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -5418,7 +5433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>303</v>
       </c>
@@ -5432,7 +5447,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>367</v>
       </c>
@@ -5446,7 +5461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>593</v>
       </c>
@@ -5466,7 +5481,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>302</v>
       </c>
@@ -5480,7 +5495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>584</v>
       </c>
@@ -5500,7 +5515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -5514,7 +5529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -5528,7 +5543,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>367</v>
       </c>
@@ -5542,7 +5557,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>455</v>
       </c>
@@ -5562,7 +5577,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>456</v>
       </c>
@@ -5582,7 +5597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -5596,7 +5611,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -5610,7 +5625,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -5624,7 +5639,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>373</v>
       </c>
@@ -5644,7 +5659,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>355</v>
       </c>
@@ -5658,7 +5673,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>297</v>
       </c>
@@ -5672,7 +5687,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>298</v>
       </c>
@@ -5686,7 +5701,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>588</v>
       </c>
@@ -5706,7 +5721,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -5726,7 +5741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -5740,7 +5755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -5754,7 +5769,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -5768,7 +5783,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>553</v>
       </c>
@@ -5788,7 +5803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -5802,7 +5817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -5816,7 +5831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -5830,7 +5845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -5844,7 +5859,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>471</v>
       </c>
@@ -5864,7 +5879,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>544</v>
       </c>
@@ -5884,7 +5899,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>545</v>
       </c>
@@ -5898,7 +5913,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>545</v>
       </c>
@@ -5927,20 +5942,20 @@
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5960,7 +5975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>344</v>
       </c>
@@ -5980,7 +5995,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -5994,7 +6009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -6008,7 +6023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -6022,7 +6037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -6042,7 +6057,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -6056,7 +6071,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -6070,7 +6085,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>408</v>
       </c>
@@ -6090,7 +6105,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>298</v>
       </c>
@@ -6104,7 +6119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -6118,7 +6133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -6132,7 +6147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -6146,7 +6161,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>594</v>
       </c>
@@ -6166,7 +6181,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -6180,7 +6195,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -6194,7 +6209,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -6208,7 +6223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -6228,7 +6243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -6242,7 +6257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>302</v>
       </c>
@@ -6256,7 +6271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>303</v>
       </c>
@@ -6270,7 +6285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>367</v>
       </c>
@@ -6284,7 +6299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -6304,7 +6319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -6318,7 +6333,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -6332,7 +6347,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -6346,7 +6361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>303</v>
       </c>
@@ -6360,7 +6375,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>367</v>
       </c>
@@ -6374,7 +6389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>488</v>
       </c>
@@ -6394,7 +6409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>297</v>
       </c>
@@ -6408,7 +6423,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>298</v>
       </c>
@@ -6422,7 +6437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>302</v>
       </c>
@@ -6436,7 +6451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>303</v>
       </c>
@@ -6450,7 +6465,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>367</v>
       </c>
@@ -6464,7 +6479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -6484,7 +6499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -6498,7 +6513,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>302</v>
       </c>
@@ -6512,7 +6527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>607</v>
       </c>
@@ -6532,7 +6547,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>297</v>
       </c>
@@ -6546,7 +6561,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>298</v>
       </c>
@@ -6560,7 +6575,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>494</v>
       </c>
@@ -6580,7 +6595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>297</v>
       </c>
@@ -6594,7 +6609,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -6608,7 +6623,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>302</v>
       </c>
@@ -6622,7 +6637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>303</v>
       </c>
@@ -6636,7 +6651,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>367</v>
       </c>
@@ -6650,7 +6665,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>437</v>
       </c>
@@ -6670,7 +6685,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>631</v>
       </c>
@@ -6690,7 +6705,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>632</v>
       </c>
@@ -6710,7 +6725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -6724,7 +6739,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>302</v>
       </c>
@@ -6738,7 +6753,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>340</v>
       </c>
@@ -6758,7 +6773,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -6772,7 +6787,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>297</v>
       </c>
@@ -6786,7 +6801,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>298</v>
       </c>
@@ -6800,7 +6815,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>302</v>
       </c>
@@ -6814,7 +6829,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>303</v>
       </c>
@@ -6828,7 +6843,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>455</v>
       </c>
@@ -6848,7 +6863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>298</v>
       </c>
@@ -6862,7 +6877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>302</v>
       </c>
@@ -6876,7 +6891,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>456</v>
       </c>
@@ -6896,7 +6911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>298</v>
       </c>
@@ -6910,7 +6925,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>373</v>
       </c>
@@ -6930,7 +6945,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>355</v>
       </c>
@@ -6944,7 +6959,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>297</v>
       </c>
@@ -6958,7 +6973,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>298</v>
       </c>
@@ -6972,7 +6987,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>302</v>
       </c>
@@ -6986,7 +7001,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>303</v>
       </c>
@@ -7000,7 +7015,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>367</v>
       </c>
@@ -7014,7 +7029,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>653</v>
       </c>
@@ -7034,7 +7049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>298</v>
       </c>
@@ -7048,7 +7063,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>302</v>
       </c>
@@ -7062,7 +7077,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>303</v>
       </c>
@@ -7076,7 +7091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>367</v>
       </c>
@@ -7090,7 +7105,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>464</v>
       </c>
@@ -7110,7 +7125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -7124,7 +7139,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>553</v>
       </c>
@@ -7144,7 +7159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>298</v>
       </c>
@@ -7158,7 +7173,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>302</v>
       </c>
@@ -7172,7 +7187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>303</v>
       </c>
@@ -7186,7 +7201,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>367</v>
       </c>
@@ -7200,7 +7215,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>471</v>
       </c>
@@ -7220,7 +7235,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>544</v>
       </c>
@@ -7240,7 +7255,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>545</v>
       </c>
@@ -7254,7 +7269,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>545</v>
       </c>
@@ -7268,7 +7283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>303</v>
       </c>
@@ -7293,23 +7308,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E48" activeCellId="9" sqref="E2:E7 E10:E12 E15:E19 E22:E25 E28 E31:E33 E36:E37 E40:E42 E45 E48:E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7329,7 +7344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -7349,7 +7364,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -7363,7 +7378,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -7377,7 +7392,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -7391,7 +7406,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -7405,7 +7420,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -7419,7 +7434,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -7433,7 +7448,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>427</v>
       </c>
@@ -7453,7 +7468,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -7467,7 +7482,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -7481,7 +7496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -7495,7 +7510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -7515,7 +7530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -7529,7 +7544,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -7543,7 +7558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -7557,7 +7572,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>303</v>
       </c>
@@ -7571,7 +7586,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>367</v>
       </c>
@@ -7585,7 +7600,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>488</v>
       </c>
@@ -7605,7 +7620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>297</v>
       </c>
@@ -7619,7 +7634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>298</v>
       </c>
@@ -7633,7 +7648,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>302</v>
       </c>
@@ -7647,7 +7662,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>303</v>
       </c>
@@ -7661,7 +7676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>310</v>
       </c>
@@ -7681,7 +7696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -7695,7 +7710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>607</v>
       </c>
@@ -7715,7 +7730,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>297</v>
       </c>
@@ -7729,7 +7744,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>298</v>
       </c>
@@ -7743,7 +7758,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>302</v>
       </c>
@@ -7757,7 +7772,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>494</v>
       </c>
@@ -7777,7 +7792,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>297</v>
       </c>
@@ -7791,7 +7806,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>298</v>
       </c>
@@ -7805,7 +7820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>437</v>
       </c>
@@ -7816,16 +7831,16 @@
         <v>354</v>
       </c>
       <c r="D40" t="s">
-        <v>683</v>
+        <v>541</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>355</v>
       </c>
@@ -7836,10 +7851,10 @@
         <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>297</v>
       </c>
@@ -7850,10 +7865,10 @@
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -7864,10 +7879,10 @@
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>632</v>
       </c>
@@ -7887,17 +7902,107 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>298</v>
       </c>
       <c r="D46" t="s">
+        <v>687</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
         <v>688</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" t="s">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>340</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>354</v>
+      </c>
+      <c r="D48" t="s">
+        <v>694</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>355</v>
+      </c>
+      <c r="D49" t="s">
+        <v>378</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" t="s">
+        <v>362</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" t="s">
+        <v>446</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" t="s">
+        <v>547</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>303</v>
+      </c>
+      <c r="D53" t="s">
+        <v>563</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s">
         <v>689</v>
       </c>
     </row>
@@ -7918,18 +8023,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7949,7 +8054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -7970,7 +8075,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -7991,7 +8096,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -8012,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -8033,7 +8138,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -8054,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -8075,7 +8180,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -8096,7 +8201,7 @@
         <v>0.64406779661016944</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -8117,7 +8222,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -8138,7 +8243,7 @@
         <v>0.77586206896551724</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -8159,7 +8264,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -8180,34 +8285,34 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2024</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>0.6785714285714286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.69696969696969702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2">
         <f>SUM(B2:B13)</f>
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C14" s="2">
         <f>SUM(C2:C13)</f>
@@ -8215,24 +8320,24 @@
       </c>
       <c r="D14" s="2">
         <f>SUM(D2:D13)</f>
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="E14" s="2">
         <f>SUM(E2:E13)</f>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ref="F14:F15" si="2">(D14-E14)/D14</f>
-        <v>0.59101654846335694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.59345794392523366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2">
         <f>AVERAGE(B2:B13)</f>
-        <v>15.916666666666666</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
         <f>AVERAGE(C2:C13)</f>
@@ -8240,15 +8345,15 @@
       </c>
       <c r="D15" s="2">
         <f>AVERAGE(D2:D13)</f>
-        <v>35.25</v>
+        <v>35.666666666666664</v>
       </c>
       <c r="E15" s="2">
         <f>AVERAGE(E2:E13)</f>
-        <v>14.416666666666666</v>
+        <v>14.5</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>0.59101654846335705</v>
+        <v>0.59345794392523366</v>
       </c>
     </row>
   </sheetData>
@@ -8277,17 +8382,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8307,7 +8412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -8327,7 +8432,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8359,17 +8464,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8389,7 +8494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>424</v>
       </c>
@@ -8409,7 +8514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8423,7 +8528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>436</v>
       </c>
@@ -8443,7 +8548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -8457,7 +8562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>610</v>
       </c>
@@ -8477,7 +8582,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>298</v>
       </c>
@@ -8491,7 +8596,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>611</v>
       </c>
@@ -8511,7 +8616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>44</v>
       </c>
@@ -8525,7 +8630,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>293</v>
       </c>
@@ -8539,7 +8644,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -8559,7 +8664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -8579,7 +8684,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>298</v>
       </c>
@@ -8593,7 +8698,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>302</v>
       </c>
@@ -8607,7 +8712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>303</v>
       </c>
@@ -8621,7 +8726,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>621</v>
       </c>
@@ -8641,7 +8746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -8679,17 +8784,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8709,7 +8814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -8729,7 +8834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -8743,7 +8848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>293</v>
       </c>
@@ -8757,7 +8862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>292</v>
       </c>
@@ -8777,7 +8882,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -8791,7 +8896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>301</v>
       </c>
@@ -8811,7 +8916,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -8825,7 +8930,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>302</v>
       </c>
@@ -8839,7 +8944,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>303</v>
       </c>
@@ -8853,7 +8958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>307</v>
       </c>
@@ -8873,7 +8978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>298</v>
       </c>
@@ -8887,7 +8992,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -8907,7 +9012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>312</v>
       </c>
@@ -8927,7 +9032,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -8941,7 +9046,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>316</v>
       </c>
@@ -8961,7 +9066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -8975,7 +9080,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>318</v>
       </c>
@@ -8995,7 +9100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>44</v>
       </c>
@@ -9009,7 +9114,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>293</v>
       </c>
@@ -9023,7 +9128,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>297</v>
       </c>
@@ -9037,7 +9142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>298</v>
       </c>
@@ -9051,7 +9156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>302</v>
       </c>
@@ -9065,7 +9170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>325</v>
       </c>
@@ -9085,7 +9190,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -9099,7 +9204,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -9113,7 +9218,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>329</v>
       </c>
@@ -9133,7 +9238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -9147,7 +9252,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>297</v>
       </c>
@@ -9161,7 +9266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>298</v>
       </c>
@@ -9175,7 +9280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>334</v>
       </c>
@@ -9195,7 +9300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>44</v>
       </c>
@@ -9209,7 +9314,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>293</v>
       </c>
@@ -9223,7 +9328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>297</v>
       </c>
@@ -9237,7 +9342,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>298</v>
       </c>
@@ -9251,7 +9356,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>340</v>
       </c>
@@ -9271,7 +9376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>44</v>
       </c>
@@ -9285,7 +9390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>293</v>
       </c>
@@ -9299,7 +9404,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>356</v>
       </c>
@@ -9319,7 +9424,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>298</v>
       </c>
@@ -9333,7 +9438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>359</v>
       </c>
@@ -9353,7 +9458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>44</v>
       </c>
@@ -9367,7 +9472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -9381,7 +9486,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -9395,7 +9500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>363</v>
       </c>
@@ -9415,7 +9520,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>298</v>
       </c>
@@ -9429,7 +9534,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>302</v>
       </c>
@@ -9443,7 +9548,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>366</v>
       </c>
@@ -9463,7 +9568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -9477,7 +9582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -9491,7 +9596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -9505,7 +9610,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -9519,7 +9624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>373</v>
       </c>
@@ -9539,7 +9644,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>375</v>
       </c>
@@ -9559,7 +9664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>298</v>
       </c>
@@ -9573,7 +9678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>302</v>
       </c>
@@ -9587,7 +9692,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>303</v>
       </c>
@@ -9601,7 +9706,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>367</v>
       </c>
@@ -9615,7 +9720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>381</v>
       </c>
@@ -9635,7 +9740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>44</v>
       </c>
@@ -9649,7 +9754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>297</v>
       </c>
@@ -9663,7 +9768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -9677,7 +9782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>385</v>
       </c>
@@ -9697,7 +9802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>298</v>
       </c>
@@ -9711,7 +9816,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>302</v>
       </c>
@@ -9725,7 +9830,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>388</v>
       </c>
@@ -9745,7 +9850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>298</v>
       </c>
@@ -9759,7 +9864,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>302</v>
       </c>
@@ -9773,7 +9878,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>303</v>
       </c>
@@ -9787,7 +9892,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>79</v>
       </c>
@@ -9807,7 +9912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>44</v>
       </c>
@@ -9821,7 +9926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>297</v>
       </c>
@@ -9835,7 +9940,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>298</v>
       </c>
@@ -9849,7 +9954,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -9863,7 +9968,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>397</v>
       </c>
@@ -9883,7 +9988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>298</v>
       </c>
@@ -9897,7 +10002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>302</v>
       </c>
@@ -9911,7 +10016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>303</v>
       </c>
@@ -9925,7 +10030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -9945,7 +10050,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>298</v>
       </c>
@@ -9959,7 +10064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>302</v>
       </c>
@@ -9973,7 +10078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>404</v>
       </c>
@@ -9993,7 +10098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>298</v>
       </c>
@@ -10007,7 +10112,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>302</v>
       </c>
@@ -10021,7 +10126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>303</v>
       </c>
@@ -10053,17 +10158,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10083,7 +10188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>413</v>
       </c>
@@ -10103,7 +10208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>298</v>
       </c>
@@ -10117,7 +10222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>302</v>
       </c>
@@ -10131,7 +10236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>303</v>
       </c>
@@ -10145,7 +10250,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>367</v>
       </c>
@@ -10159,7 +10264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -10179,7 +10284,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>418</v>
       </c>
@@ -10196,7 +10301,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -10216,7 +10321,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -10230,7 +10335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -10244,7 +10349,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -10264,7 +10369,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>298</v>
       </c>
@@ -10278,7 +10383,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>302</v>
       </c>
@@ -10292,7 +10397,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>427</v>
       </c>
@@ -10312,7 +10417,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>298</v>
       </c>
@@ -10326,7 +10431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -10346,7 +10451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -10366,7 +10471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>432</v>
       </c>
@@ -10386,7 +10491,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>436</v>
       </c>
@@ -10406,7 +10511,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>437</v>
       </c>
@@ -10426,7 +10531,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>329</v>
       </c>
@@ -10446,7 +10551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>44</v>
       </c>
@@ -10460,7 +10565,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>297</v>
       </c>
@@ -10474,7 +10579,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>298</v>
       </c>
@@ -10488,7 +10593,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>302</v>
       </c>
@@ -10502,7 +10607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>444</v>
       </c>
@@ -10522,7 +10627,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -10536,7 +10641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -10550,7 +10655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>447</v>
       </c>
@@ -10570,7 +10675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -10584,7 +10689,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>302</v>
       </c>
@@ -10598,7 +10703,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>303</v>
       </c>
@@ -10612,7 +10717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -10632,7 +10737,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>355</v>
       </c>
@@ -10646,7 +10751,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -10666,7 +10771,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>297</v>
       </c>
@@ -10680,7 +10785,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>298</v>
       </c>
@@ -10694,7 +10799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>302</v>
       </c>
@@ -10708,7 +10813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>455</v>
       </c>
@@ -10728,7 +10833,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>456</v>
       </c>
@@ -10748,7 +10853,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>458</v>
       </c>
@@ -10768,7 +10873,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>373</v>
       </c>
@@ -10788,7 +10893,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>381</v>
       </c>
@@ -10808,7 +10913,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>462</v>
       </c>
@@ -10828,7 +10933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>464</v>
       </c>
@@ -10848,7 +10953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -10868,7 +10973,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -10882,7 +10987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>302</v>
       </c>
@@ -10896,7 +11001,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>468</v>
       </c>
@@ -10916,7 +11021,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>298</v>
       </c>
@@ -10930,7 +11035,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>302</v>
       </c>
@@ -10944,7 +11049,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>471</v>
       </c>
@@ -10982,17 +11087,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11012,7 +11117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -11032,7 +11137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>475</v>
       </c>
@@ -11052,7 +11157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>44</v>
       </c>
@@ -11066,7 +11171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>297</v>
       </c>
@@ -11080,7 +11185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>298</v>
       </c>
@@ -11094,7 +11199,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>302</v>
       </c>
@@ -11108,7 +11213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>303</v>
       </c>
@@ -11122,7 +11227,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>367</v>
       </c>
@@ -11136,7 +11241,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>353</v>
       </c>
@@ -11156,7 +11261,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>355</v>
       </c>
@@ -11170,7 +11275,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>420</v>
       </c>
@@ -11190,7 +11295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>408</v>
       </c>
@@ -11210,7 +11315,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>44</v>
       </c>
@@ -11224,7 +11329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>297</v>
       </c>
@@ -11238,7 +11343,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -11252,7 +11357,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -11266,7 +11371,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -11286,7 +11391,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>355</v>
       </c>
@@ -11300,7 +11405,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>297</v>
       </c>
@@ -11314,7 +11419,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>488</v>
       </c>
@@ -11334,7 +11439,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -11348,7 +11453,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>418</v>
       </c>
@@ -11365,7 +11470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>310</v>
       </c>
@@ -11385,7 +11490,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>297</v>
       </c>
@@ -11399,7 +11504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>492</v>
       </c>
@@ -11419,7 +11524,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>607</v>
       </c>
@@ -11439,7 +11544,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>494</v>
       </c>
@@ -11459,7 +11564,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>437</v>
       </c>
@@ -11479,7 +11584,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>329</v>
       </c>
@@ -11499,7 +11604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>298</v>
       </c>
@@ -11513,7 +11618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>444</v>
       </c>
@@ -11533,7 +11638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -11547,7 +11652,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>447</v>
       </c>
@@ -11567,7 +11672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>340</v>
       </c>
@@ -11587,7 +11692,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>355</v>
       </c>
@@ -11601,7 +11706,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>297</v>
       </c>
@@ -11615,7 +11720,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>450</v>
       </c>
@@ -11635,7 +11740,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>297</v>
       </c>
@@ -11649,7 +11754,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>455</v>
       </c>
@@ -11669,7 +11774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>44</v>
       </c>
@@ -11683,7 +11788,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>355</v>
       </c>
@@ -11697,7 +11802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>297</v>
       </c>
@@ -11711,7 +11816,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>298</v>
       </c>
@@ -11725,7 +11830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>456</v>
       </c>
@@ -11745,7 +11850,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>44</v>
       </c>
@@ -11759,7 +11864,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>355</v>
       </c>
@@ -11773,7 +11878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>458</v>
       </c>
@@ -11793,7 +11898,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>297</v>
       </c>
@@ -11807,7 +11912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>298</v>
       </c>
@@ -11821,7 +11926,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>302</v>
       </c>
@@ -11835,7 +11940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>303</v>
       </c>
@@ -11849,7 +11954,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>367</v>
       </c>
@@ -11863,7 +11968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>373</v>
       </c>
@@ -11883,7 +11988,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>355</v>
       </c>
@@ -11897,7 +12002,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>297</v>
       </c>
@@ -11911,7 +12016,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>381</v>
       </c>
@@ -11931,7 +12036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>298</v>
       </c>
@@ -11945,7 +12050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>302</v>
       </c>
@@ -11959,7 +12064,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>462</v>
       </c>
@@ -11979,7 +12084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>44</v>
       </c>
@@ -11993,7 +12098,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>297</v>
       </c>
@@ -12007,7 +12112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>298</v>
       </c>
@@ -12021,7 +12126,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>302</v>
       </c>
@@ -12035,7 +12140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>303</v>
       </c>
@@ -12049,7 +12154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>367</v>
       </c>
@@ -12063,7 +12168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>464</v>
       </c>
@@ -12083,7 +12188,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>297</v>
       </c>
@@ -12097,7 +12202,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -12117,7 +12222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>302</v>
       </c>
@@ -12131,7 +12236,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>303</v>
       </c>
@@ -12145,7 +12250,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>515</v>
       </c>
@@ -12165,7 +12270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>298</v>
       </c>
@@ -12179,7 +12284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>302</v>
       </c>
@@ -12193,7 +12298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>303</v>
       </c>
@@ -12207,7 +12312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>471</v>
       </c>
@@ -12227,7 +12332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>297</v>
       </c>
@@ -12259,17 +12364,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12289,7 +12394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>517</v>
       </c>
@@ -12309,7 +12414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>302</v>
       </c>
@@ -12323,7 +12428,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>303</v>
       </c>
@@ -12337,7 +12442,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>367</v>
       </c>
@@ -12351,7 +12456,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>353</v>
       </c>
@@ -12371,7 +12476,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>355</v>
       </c>
@@ -12385,7 +12490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>297</v>
       </c>
@@ -12399,7 +12504,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>298</v>
       </c>
@@ -12413,7 +12518,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>418</v>
       </c>
@@ -12430,7 +12535,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>522</v>
       </c>
@@ -12450,7 +12555,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>302</v>
       </c>
@@ -12464,7 +12569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>303</v>
       </c>
@@ -12478,7 +12583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>367</v>
       </c>
@@ -12492,7 +12597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -12512,7 +12617,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>298</v>
       </c>
@@ -12526,7 +12631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>302</v>
       </c>
@@ -12540,7 +12645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>303</v>
       </c>
@@ -12554,7 +12659,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>427</v>
       </c>
@@ -12574,7 +12679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>430</v>
       </c>
@@ -12594,7 +12699,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>297</v>
       </c>
@@ -12608,7 +12713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>488</v>
       </c>
@@ -12628,7 +12733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>297</v>
       </c>
@@ -12642,7 +12747,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -12656,7 +12761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>310</v>
       </c>
@@ -12676,7 +12781,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>297</v>
       </c>
@@ -12690,7 +12795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -12704,7 +12809,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -12718,7 +12823,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -12732,7 +12837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>526</v>
       </c>
@@ -12752,7 +12857,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>298</v>
       </c>
@@ -12766,7 +12871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>302</v>
       </c>
@@ -12780,7 +12885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>303</v>
       </c>
@@ -12794,7 +12899,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>367</v>
       </c>
@@ -12808,7 +12913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>607</v>
       </c>
@@ -12828,7 +12933,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>494</v>
       </c>
@@ -12848,7 +12953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>437</v>
       </c>
@@ -12868,7 +12973,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>530</v>
       </c>
@@ -12888,7 +12993,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>444</v>
       </c>
@@ -12908,7 +13013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>298</v>
       </c>
@@ -12922,7 +13027,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>302</v>
       </c>
@@ -12936,7 +13041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>303</v>
       </c>
@@ -12950,7 +13055,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>340</v>
       </c>
@@ -12970,7 +13075,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>355</v>
       </c>
@@ -12984,7 +13089,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>297</v>
       </c>
@@ -12998,7 +13103,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>450</v>
       </c>
@@ -13018,7 +13123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>298</v>
       </c>
@@ -13032,7 +13137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>302</v>
       </c>
@@ -13046,7 +13151,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>303</v>
       </c>
@@ -13060,7 +13165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>367</v>
       </c>
@@ -13074,7 +13179,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>455</v>
       </c>
@@ -13094,7 +13199,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>298</v>
       </c>
@@ -13108,7 +13213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>302</v>
       </c>
@@ -13122,7 +13227,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>303</v>
       </c>
@@ -13136,7 +13241,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>367</v>
       </c>
@@ -13150,7 +13255,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>456</v>
       </c>
@@ -13170,7 +13275,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>297</v>
       </c>
@@ -13184,7 +13289,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>298</v>
       </c>
@@ -13198,7 +13303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>302</v>
       </c>
@@ -13212,7 +13317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>303</v>
       </c>
@@ -13226,7 +13331,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>367</v>
       </c>
@@ -13240,7 +13345,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>373</v>
       </c>
@@ -13260,7 +13365,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>355</v>
       </c>
@@ -13274,7 +13379,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>297</v>
       </c>
@@ -13288,7 +13393,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>298</v>
       </c>
@@ -13302,7 +13407,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>302</v>
       </c>
@@ -13316,7 +13421,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>303</v>
       </c>
@@ -13330,7 +13435,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>367</v>
       </c>
@@ -13344,7 +13449,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>381</v>
       </c>
@@ -13364,7 +13469,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>302</v>
       </c>
@@ -13378,7 +13483,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>303</v>
       </c>
@@ -13392,7 +13497,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>367</v>
       </c>
@@ -13406,7 +13511,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>464</v>
       </c>
@@ -13426,7 +13531,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>298</v>
       </c>
@@ -13440,7 +13545,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>302</v>
       </c>
@@ -13454,7 +13559,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>303</v>
       </c>
@@ -13468,7 +13573,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>367</v>
       </c>
@@ -13482,7 +13587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>471</v>
       </c>
@@ -13502,7 +13607,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>544</v>
       </c>
@@ -13522,7 +13627,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>545</v>
       </c>
@@ -13536,7 +13641,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>545</v>
       </c>
@@ -13567,17 +13672,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13597,7 +13702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -13617,7 +13722,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -13631,7 +13736,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -13645,7 +13750,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -13659,7 +13764,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>408</v>
       </c>
@@ -13679,7 +13784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>424</v>
       </c>
@@ -13699,7 +13804,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>302</v>
       </c>
@@ -13713,7 +13818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>456</v>
       </c>
@@ -13733,7 +13838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>298</v>
       </c>
@@ -13747,7 +13852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>302</v>
       </c>
@@ -13761,7 +13866,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>373</v>
       </c>
@@ -13781,7 +13886,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>355</v>
       </c>
@@ -13795,7 +13900,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -13809,7 +13914,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -13823,7 +13928,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -13837,7 +13942,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>303</v>
       </c>
@@ -13851,7 +13956,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>359</v>
       </c>
@@ -13871,7 +13976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -13891,7 +13996,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>381</v>
       </c>
@@ -13911,7 +14016,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>298</v>
       </c>
@@ -13925,7 +14030,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>553</v>
       </c>
@@ -13945,7 +14050,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>298</v>
       </c>
@@ -13959,7 +14064,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>302</v>
       </c>
@@ -13973,7 +14078,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>471</v>
       </c>
@@ -13993,7 +14098,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>298</v>
       </c>
@@ -14007,7 +14112,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -14021,7 +14126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -14035,7 +14140,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -14049,7 +14154,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>544</v>
       </c>
@@ -14069,7 +14174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>545</v>
       </c>
@@ -14083,7 +14188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>545</v>
       </c>
@@ -14097,7 +14202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>303</v>
       </c>
@@ -14111,7 +14216,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>367</v>
       </c>
@@ -14142,17 +14247,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14172,7 +14277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -14192,7 +14297,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -14206,7 +14311,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -14220,7 +14325,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -14234,7 +14339,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -14248,7 +14353,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -14262,7 +14367,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -14276,7 +14381,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>408</v>
       </c>
@@ -14296,7 +14401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>424</v>
       </c>
@@ -14316,7 +14421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>302</v>
       </c>
@@ -14330,7 +14435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>303</v>
       </c>
@@ -14344,7 +14449,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>367</v>
       </c>
@@ -14358,7 +14463,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>488</v>
       </c>
@@ -14378,7 +14483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>297</v>
       </c>
@@ -14392,7 +14497,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>298</v>
       </c>
@@ -14406,7 +14511,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>302</v>
       </c>
@@ -14420,7 +14525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>607</v>
       </c>
@@ -14440,7 +14545,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>298</v>
       </c>
@@ -14454,7 +14559,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>494</v>
       </c>
@@ -14474,7 +14579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>437</v>
       </c>
@@ -14494,7 +14599,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>355</v>
       </c>
@@ -14508,7 +14613,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>297</v>
       </c>
@@ -14522,7 +14627,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>298</v>
       </c>
@@ -14536,7 +14641,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>302</v>
       </c>
@@ -14550,7 +14655,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>530</v>
       </c>
@@ -14570,7 +14675,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>560</v>
       </c>
@@ -14590,7 +14695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>302</v>
       </c>
@@ -14604,7 +14709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>303</v>
       </c>
@@ -14618,7 +14723,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>367</v>
       </c>
@@ -14632,7 +14737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>340</v>
       </c>
@@ -14652,7 +14757,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>355</v>
       </c>
@@ -14666,7 +14771,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>297</v>
       </c>
@@ -14680,7 +14785,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>298</v>
       </c>
@@ -14694,7 +14799,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>566</v>
       </c>
@@ -14714,7 +14819,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>297</v>
       </c>
@@ -14728,7 +14833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -14742,7 +14847,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>302</v>
       </c>
@@ -14756,7 +14861,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>455</v>
       </c>
@@ -14776,7 +14881,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>298</v>
       </c>
@@ -14790,7 +14895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>302</v>
       </c>
@@ -14804,7 +14909,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>303</v>
       </c>
@@ -14818,7 +14923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>367</v>
       </c>
@@ -14832,7 +14937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>456</v>
       </c>
@@ -14852,7 +14957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>298</v>
       </c>
@@ -14866,7 +14971,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>302</v>
       </c>
@@ -14880,7 +14985,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>303</v>
       </c>
@@ -14894,7 +14999,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>373</v>
       </c>
@@ -14914,7 +15019,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>355</v>
       </c>
@@ -14928,7 +15033,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>297</v>
       </c>
@@ -14942,7 +15047,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>298</v>
       </c>
@@ -14956,7 +15061,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>302</v>
       </c>
@@ -14970,7 +15075,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>303</v>
       </c>
@@ -14984,7 +15089,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>367</v>
       </c>
@@ -14998,7 +15103,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>430</v>
       </c>
@@ -15018,7 +15123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>297</v>
       </c>
@@ -15032,7 +15137,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>298</v>
       </c>
@@ -15046,7 +15151,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>471</v>
       </c>
@@ -15066,7 +15171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>298</v>
       </c>
@@ -15080,7 +15185,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>302</v>
       </c>
@@ -15094,7 +15199,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>303</v>
       </c>
@@ -15108,7 +15213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>367</v>
       </c>
@@ -15122,7 +15227,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>544</v>
       </c>
@@ -15142,7 +15247,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>545</v>
       </c>
@@ -15156,7 +15261,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>545</v>
       </c>
@@ -15170,7 +15275,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>303</v>
       </c>
@@ -15184,7 +15289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>367</v>
       </c>
@@ -15198,7 +15303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>418</v>
       </c>
@@ -15215,7 +15320,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>467</v>
       </c>
@@ -15226,7 +15331,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>574</v>
       </c>
@@ -15237,7 +15342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>362</v>
       </c>
@@ -15248,7 +15353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>535</v>
       </c>

--- a/Tennis/ATP Tour/Daniil Medvedev.xlsx
+++ b/Tennis/ATP Tour/Daniil Medvedev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24124" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95C1B71F-81B9-406B-B6A4-62C9E52E8446}"/>
+  <xr:revisionPtr revIDLastSave="24231" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7454A734-70D0-4DE7-906F-052FAF766263}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="1980" yWindow="6135" windowWidth="8625" windowHeight="15285" firstSheet="2" activeTab="12" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="37" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="705">
   <si>
     <t>ROUND</t>
   </si>
@@ -2132,6 +2132,36 @@
   </si>
   <si>
     <t>Aleksandar Kovacevic (USA)</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-4</t>
+  </si>
+  <si>
+    <t>6-3 7-6(5)</t>
+  </si>
+  <si>
+    <t>PARIS OLYMPICS</t>
+  </si>
+  <si>
+    <t>CINCINNATI OPEN</t>
+  </si>
+  <si>
+    <t>Fábián Marozsán (HUNGARY)</t>
+  </si>
+  <si>
+    <t>Flavio Cobolli (ITALY)</t>
+  </si>
+  <si>
+    <t>6-3 3-6 6-3 6-1</t>
+  </si>
+  <si>
+    <t>6-0 6-1 6-3</t>
+  </si>
+  <si>
+    <t>6-3 6-2 7-6(5)</t>
+  </si>
+  <si>
+    <t>6-2 1-6 6-1 6-4</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2250,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2230,6 +2260,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2435,7 +2466,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,7 +2586,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3084,7 +3115,7 @@
                   <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69696969696969702</c:v>
+                  <c:v>0.64444444444444449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4499,7 +4530,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{43D1BB71-7A47-4E96-AA70-781716E67DE3}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="128" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4543,7 +4574,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8676680" cy="6295430"/>
+    <xdr:ext cx="8659091" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4570,10 +4601,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4879,20 +4906,20 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4912,7 +4939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -4946,20 +4973,20 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4979,7 +5006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>353</v>
       </c>
@@ -4999,7 +5026,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>355</v>
       </c>
@@ -5013,7 +5040,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>297</v>
       </c>
@@ -5027,7 +5054,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>298</v>
       </c>
@@ -5041,7 +5068,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>302</v>
       </c>
@@ -5055,7 +5082,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>303</v>
       </c>
@@ -5069,7 +5096,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>367</v>
       </c>
@@ -5083,7 +5110,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>576</v>
       </c>
@@ -5103,7 +5130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>298</v>
       </c>
@@ -5117,7 +5144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>302</v>
       </c>
@@ -5131,7 +5158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>303</v>
       </c>
@@ -5145,7 +5172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -5165,7 +5192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>297</v>
       </c>
@@ -5179,7 +5206,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spa